--- a/DesignDocuments/机制、系统、数值/主角、怪物状态转移矩阵.xlsx
+++ b/DesignDocuments/机制、系统、数值/主角、怪物状态转移矩阵.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="46">
   <si>
     <t>当前状态</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -187,15 +187,19 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>蓝色表示此状态切换支持硬直取消</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>破绽硬直</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>破绽硬直起身</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>带W的方向键+空格</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>不带W的方向键+空格</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -294,7 +298,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -314,12 +318,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,7 +388,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -425,9 +423,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -456,12 +451,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -776,7 +765,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AC6" sqref="AC6"/>
+      <selection pane="bottomRight" activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.25"/>
@@ -789,24 +778,24 @@
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="8"/>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
     </row>
     <row r="2" spans="1:25" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
@@ -861,7 +850,7 @@
       </c>
     </row>
     <row r="3" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -904,15 +893,15 @@
       <c r="U3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="V3" s="17" t="s">
+      <c r="V3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="W3" s="17"/>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="17"/>
+      <c r="W3" s="16"/>
+      <c r="X3" s="16"/>
+      <c r="Y3" s="16"/>
     </row>
     <row r="4" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
@@ -953,15 +942,15 @@
       <c r="U4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="V4" s="17" t="s">
+      <c r="V4" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="W4" s="17"/>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="17"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="16"/>
+      <c r="Y4" s="16"/>
     </row>
     <row r="5" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
@@ -1002,15 +991,15 @@
       <c r="U5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="V5" s="17" t="s">
+      <c r="V5" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="W5" s="17"/>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="17"/>
+      <c r="W5" s="16"/>
+      <c r="X5" s="16"/>
+      <c r="Y5" s="16"/>
     </row>
     <row r="6" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="8" t="s">
         <v>4</v>
       </c>
@@ -1049,15 +1038,15 @@
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
       <c r="U6" s="3"/>
-      <c r="V6" s="17" t="s">
+      <c r="V6" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="W6" s="17"/>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="17"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="16"/>
+      <c r="Y6" s="16"/>
     </row>
     <row r="7" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
@@ -1098,15 +1087,15 @@
       <c r="U7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="V7" s="17" t="s">
+      <c r="V7" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="W7" s="17"/>
-      <c r="X7" s="17"/>
-      <c r="Y7" s="17"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="16"/>
+      <c r="Y7" s="16"/>
     </row>
     <row r="8" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="8" t="s">
         <v>7</v>
       </c>
@@ -1144,16 +1133,9 @@
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
-      <c r="U8" s="23"/>
-      <c r="V8" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="W8" s="17"/>
-      <c r="X8" s="17"/>
-      <c r="Y8" s="17"/>
     </row>
     <row r="9" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="8" t="s">
         <v>8</v>
       </c>
@@ -1193,7 +1175,7 @@
       <c r="R9" s="3"/>
     </row>
     <row r="10" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="8" t="s">
         <v>23</v>
       </c>
@@ -1233,7 +1215,7 @@
       <c r="R10" s="3"/>
     </row>
     <row r="11" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="8" t="s">
         <v>9</v>
       </c>
@@ -1263,7 +1245,7 @@
       <c r="R11" s="3"/>
     </row>
     <row r="12" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="8" t="s">
         <v>10</v>
       </c>
@@ -1307,7 +1289,7 @@
       </c>
     </row>
     <row r="13" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
@@ -1320,30 +1302,30 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
-      <c r="L13" s="12" t="s">
+      <c r="L13" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M13" s="12" t="s">
+      <c r="M13" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="N13" s="12" t="s">
+      <c r="N13" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="O13" s="12" t="s">
+      <c r="O13" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="P13" s="12" t="s">
+      <c r="P13" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q13" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="Q13" s="12" t="s">
+      <c r="R13" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="R13" s="12" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="14" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="8" t="s">
         <v>12</v>
       </c>
@@ -1379,7 +1361,7 @@
       </c>
     </row>
     <row r="15" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="8" t="s">
         <v>13</v>
       </c>
@@ -1413,7 +1395,7 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="8" t="s">
         <v>14</v>
       </c>
@@ -1447,7 +1429,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="8" t="s">
         <v>15</v>
       </c>
@@ -1485,7 +1467,7 @@
       </c>
     </row>
     <row r="18" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="8" t="s">
         <v>16</v>
       </c>
@@ -1497,33 +1479,33 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="12" t="s">
+      <c r="K18" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="L18" s="12" t="s">
+      <c r="L18" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="M18" s="12" t="s">
+      <c r="M18" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="N18" s="12" t="s">
+      <c r="N18" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="O18" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="O18" s="12" t="s">
+      <c r="P18" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="P18" s="12" t="s">
+      <c r="Q18" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="R18" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="Q18" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="R18" s="12" t="s">
-        <v>34</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="C1:R1"/>
     <mergeCell ref="A3:A18"/>
     <mergeCell ref="V3:Y3"/>
@@ -1531,7 +1513,6 @@
     <mergeCell ref="V4:Y4"/>
     <mergeCell ref="V6:Y6"/>
     <mergeCell ref="V7:Y7"/>
-    <mergeCell ref="V8:Y8"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1612,18 +1593,18 @@
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
       <c r="B1" s="8"/>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
     </row>
     <row r="2" spans="1:25" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
@@ -1660,7 +1641,7 @@
       </c>
     </row>
     <row r="3" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -1678,7 +1659,7 @@
       <c r="L3" s="7"/>
     </row>
     <row r="4" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
@@ -1694,7 +1675,7 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
@@ -1710,7 +1691,7 @@
       <c r="L5" s="7"/>
     </row>
     <row r="6" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="8" t="s">
         <v>7</v>
       </c>
@@ -1726,7 +1707,7 @@
       <c r="L6" s="7"/>
     </row>
     <row r="7" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="8" t="s">
         <v>9</v>
       </c>
@@ -1742,7 +1723,7 @@
       <c r="L7" s="7"/>
     </row>
     <row r="8" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="8" t="s">
         <v>10</v>
       </c>
@@ -1757,15 +1738,15 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="U8" s="4"/>
-      <c r="V8" s="22" t="s">
+      <c r="V8" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="W8" s="17"/>
-      <c r="X8" s="17"/>
-      <c r="Y8" s="17"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="16"/>
+      <c r="Y8" s="16"/>
     </row>
     <row r="9" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="8" t="s">
         <v>40</v>
       </c>
@@ -1781,7 +1762,7 @@
       <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="8" t="s">
         <v>12</v>
       </c>
@@ -1797,7 +1778,7 @@
       <c r="L10" s="5"/>
     </row>
     <row r="11" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="8" t="s">
         <v>14</v>
       </c>
@@ -1813,7 +1794,7 @@
       <c r="L11" s="5"/>
     </row>
     <row r="12" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="8" t="s">
         <v>15</v>
       </c>
@@ -1855,12 +1836,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="45.6" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/DesignDocuments/机制、系统、数值/主角、怪物状态转移矩阵.xlsx
+++ b/DesignDocuments/机制、系统、数值/主角、怪物状态转移矩阵.xlsx
@@ -17,203 +17,262 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="59">
   <si>
     <t>当前状态</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>可衔接状态</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>空中下坠</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>空中跳跃</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>空中近战蓄力</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>空中近战（连招）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>空中硬直</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>空中冲刺</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>落地缓冲</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面Idle</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面跳跃</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面近战（连招）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面远程</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面硬直</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻滚</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>接触地面</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>空格</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>左键</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>右键</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>空中收回勾刃</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>表示不作操作时的默认状态转换</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>表示输入对应操作时允许的状态转换</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>不支持的状态转换</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>右键（长按）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>方向键+空格</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>接触地面</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>在当前状态下接触地面才会默认触发的状态转换。接触地面后，不可直接触发任何空中状态</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>带W的方向键+空格</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>不带W的方向键+空格</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>被击飞</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>→</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>落地</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>起身</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面起跳</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>表示状态可切换</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>破绽硬直</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>破绽硬直起身</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>带W的方向键+空格</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>不带W的方向键+空格</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>空中死亡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面死亡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面死亡起身</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面死亡起身</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q键</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>图示</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>表示受外界影响强制进行的状态转换</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>空中远程</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>空中硬直</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>空中冲刺</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>落地缓冲</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>地面Idle</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>地面跳跃</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>地面近战（连招）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>地面近战蓄力</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>地面远程</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>地面硬直</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>翻滚</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>接触地面</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>空格</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>左键</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>右键</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>被动</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>空中收回勾刃</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>表示不作操作时的默认状态转换</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>被动</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>表示输入对应操作时允许的状态转换</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>不支持的状态转换</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>右键（长按）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>方向键+空格</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>接触地面</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>在当前状态下接触地面才会默认触发的状态转换。接触地面后，不可直接触发任何空中状态</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>带W的方向键+空格</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>不带W的方向键+空格</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>被击飞</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>→</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>落地</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>起身</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>地面起跳</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>表示状态可切换</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>破绽硬直</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>破绽硬直起身</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>带W的方向键+空格</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>不带W的方向键+空格</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>空中近战（连招）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>空中远程</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面近战（连招）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面远程</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -297,8 +356,15 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -321,8 +387,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -378,79 +450,111 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -759,13 +863,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y18"/>
+  <dimension ref="A1:AB48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T12" sqref="T12"/>
+      <selection pane="bottomRight" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.25"/>
@@ -775,29 +879,32 @@
     <col min="3" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="8"/>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-    </row>
-    <row r="2" spans="1:25" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+    </row>
+    <row r="2" spans="1:28" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8" t="s">
@@ -806,528 +913,567 @@
       <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="N2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q2" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="R2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="S2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="T2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="K3" s="12"/>
       <c r="L3" s="3"/>
-      <c r="M3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="N3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
-      <c r="U3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="V3" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="W3" s="16"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="16"/>
-    </row>
-    <row r="4" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+    </row>
+    <row r="4" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="22"/>
       <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="K4" s="12"/>
       <c r="L4" s="3"/>
-      <c r="M4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
-      <c r="U4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="V4" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="W4" s="16"/>
-      <c r="X4" s="16"/>
-      <c r="Y4" s="16"/>
-    </row>
-    <row r="5" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="8" t="s">
-        <v>5</v>
+      <c r="S4" s="3"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+    </row>
+    <row r="5" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="22"/>
+      <c r="B5" s="25" t="s">
+        <v>55</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="K5" s="12"/>
       <c r="L5" s="3"/>
-      <c r="M5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="N5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
-      <c r="U5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="V5" s="16" t="s">
+      <c r="S5" s="3"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+    </row>
+    <row r="6" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="22"/>
+      <c r="B6" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="W5" s="16"/>
-      <c r="X5" s="16"/>
-      <c r="Y5" s="16"/>
-    </row>
-    <row r="6" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="D6" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="K6" s="12"/>
       <c r="L6" s="3"/>
-      <c r="M6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="N6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="W6" s="16"/>
-      <c r="X6" s="16"/>
-      <c r="Y6" s="16"/>
-    </row>
-    <row r="7" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="8" t="s">
-        <v>6</v>
+      <c r="S6" s="3"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+    </row>
+    <row r="7" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22"/>
+      <c r="B7" s="25" t="s">
+        <v>56</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="K7" s="12"/>
       <c r="L7" s="3"/>
-      <c r="M7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
-      <c r="U7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="V7" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="W7" s="16"/>
-      <c r="X7" s="16"/>
-      <c r="Y7" s="16"/>
-    </row>
-    <row r="8" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+    </row>
+    <row r="8" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22"/>
       <c r="B8" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="K8" s="12"/>
       <c r="L8" s="3"/>
-      <c r="M8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="N8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
-    </row>
-    <row r="9" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="X8" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y8" s="24"/>
+      <c r="Z8" s="24"/>
+      <c r="AA8" s="24"/>
+      <c r="AB8" s="24"/>
+    </row>
+    <row r="9" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="22"/>
       <c r="B9" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K9" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="K9" s="12"/>
       <c r="L9" s="3"/>
-      <c r="M9" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="N9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
-    </row>
-    <row r="10" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="X9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y9" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z9" s="15"/>
+      <c r="AA9" s="15"/>
+      <c r="AB9" s="15"/>
+    </row>
+    <row r="10" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="22"/>
       <c r="B10" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K10" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="K10" s="12"/>
       <c r="L10" s="3"/>
-      <c r="M10" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="N10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
-    </row>
-    <row r="11" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="X10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y10" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="15"/>
+      <c r="AB10" s="15"/>
+    </row>
+    <row r="11" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="22"/>
       <c r="B11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
+        <v>44</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="X11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y11" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z11" s="15"/>
+      <c r="AA11" s="15"/>
+      <c r="AB11" s="15"/>
+    </row>
+    <row r="12" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="22"/>
       <c r="B12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="J12" s="3"/>
-      <c r="K12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="K12" s="12"/>
+      <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="P12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="R12" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
+        <v>16</v>
+      </c>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="X12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y12" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="15"/>
+      <c r="AB12" s="15"/>
+    </row>
+    <row r="13" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="22"/>
       <c r="B13" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="E13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="O13" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="P13" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q13" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="R13" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N13" s="3"/>
+      <c r="O13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="T13" s="12"/>
+      <c r="U13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="15"/>
+      <c r="AB13" s="15"/>
+    </row>
+    <row r="14" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="22"/>
       <c r="B14" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -1336,34 +1482,37 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M14" s="3"/>
-      <c r="N14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="O14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="P14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="R14" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="8" t="s">
-        <v>13</v>
+      <c r="J14" s="3"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="R14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="S14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+    </row>
+    <row r="15" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="22"/>
+      <c r="B15" s="25" t="s">
+        <v>57</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1372,32 +1521,37 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="M15" s="3"/>
-      <c r="N15" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="O15" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="P15" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q15" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="R15" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="8" t="s">
-        <v>14</v>
+      <c r="J15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K15" s="12"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N15" s="3"/>
+      <c r="O15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+    </row>
+    <row r="16" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="22"/>
+      <c r="B16" s="25" t="s">
+        <v>53</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1407,31 +1561,34 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M16" s="3"/>
-      <c r="N16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="P16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="R16" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="8" t="s">
-        <v>15</v>
+      <c r="K16" s="12"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N16" s="3"/>
+      <c r="O16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="P16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="R16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+    </row>
+    <row r="17" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="22"/>
+      <c r="B17" s="25" t="s">
+        <v>58</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1441,35 +1598,34 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-      <c r="K17" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="N17" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="P17" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q17" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="R17" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N17" s="3"/>
+      <c r="O17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+    </row>
+    <row r="18" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="22"/>
       <c r="B18" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1479,43 +1635,148 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="L18" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="M18" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="N18" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="O18" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="P18" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q18" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="R18" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
+      <c r="K18" s="12"/>
+      <c r="L18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="R18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="S18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+    </row>
+    <row r="19" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="22"/>
+      <c r="B19" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="P19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="R19" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="S19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="T19" s="12"/>
+      <c r="U19" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="22"/>
+      <c r="B20" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="U20" s="12"/>
+    </row>
+    <row r="21" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C1:R1"/>
-    <mergeCell ref="A3:A18"/>
-    <mergeCell ref="V3:Y3"/>
-    <mergeCell ref="V5:Y5"/>
-    <mergeCell ref="V4:Y4"/>
-    <mergeCell ref="V6:Y6"/>
-    <mergeCell ref="V7:Y7"/>
+  <mergeCells count="8">
+    <mergeCell ref="A3:A20"/>
+    <mergeCell ref="X8:AB8"/>
+    <mergeCell ref="Y9:AB9"/>
+    <mergeCell ref="Y11:AB11"/>
+    <mergeCell ref="Y10:AB10"/>
+    <mergeCell ref="Y13:AB13"/>
+    <mergeCell ref="Y12:AB12"/>
+    <mergeCell ref="C1:U1"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1531,19 +1792,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1566,7 +1827,7 @@
     <row r="19" ht="45.6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" ht="45.6" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -1593,18 +1854,18 @@
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
       <c r="B1" s="8"/>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
     </row>
     <row r="2" spans="1:25" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
@@ -1619,29 +1880,29 @@
         <v>5</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>10</v>
-      </c>
       <c r="I2" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>14</v>
-      </c>
       <c r="L2" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -1659,7 +1920,7 @@
       <c r="L3" s="7"/>
     </row>
     <row r="4" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
@@ -1675,7 +1936,7 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
@@ -1691,9 +1952,9 @@
       <c r="L5" s="7"/>
     </row>
     <row r="6" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -1707,9 +1968,9 @@
       <c r="L6" s="7"/>
     </row>
     <row r="7" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -1723,9 +1984,9 @@
       <c r="L7" s="7"/>
     </row>
     <row r="8" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -1738,17 +1999,17 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="U8" s="4"/>
-      <c r="V8" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="W8" s="16"/>
-      <c r="X8" s="16"/>
-      <c r="Y8" s="16"/>
+      <c r="V8" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="W8" s="15"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="15"/>
     </row>
     <row r="9" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -1762,9 +2023,9 @@
       <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -1778,9 +2039,9 @@
       <c r="L10" s="5"/>
     </row>
     <row r="11" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -1794,9 +2055,9 @@
       <c r="L11" s="5"/>
     </row>
     <row r="12" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -1815,7 +2076,7 @@
     <mergeCell ref="A3:A12"/>
     <mergeCell ref="V8:Y8"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -1836,12 +2097,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="45.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1863,7 +2124,7 @@
     <row r="19" ht="45.6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" ht="45.6" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/DesignDocuments/机制、系统、数值/主角、怪物状态转移矩阵.xlsx
+++ b/DesignDocuments/机制、系统、数值/主角、怪物状态转移矩阵.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="69">
   <si>
     <t>当前状态</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -207,51 +207,91 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>Q键</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>图示</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>表示受外界影响强制进行的状态转换</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>空中远程</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面近战（连招）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面近战蓄力</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面远程</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>空中近战（连招）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>空中远程</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面近战（连招）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面远程</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓄力：只要按下时就会开始播近战动作，到达最小蓄力时间后播蓄力攻击动作</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>按Q收刀：收回距离角色本身最近的插中木质道具的一把刀</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面跑</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>带W/D方向键</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>空中收回勾刃</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>空中硬直</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面硬直</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻滚</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>地面死亡起身</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>Q键</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>图示</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>表示受外界影响强制进行的状态转换</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>空中远程</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>地面近战（连招）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>地面近战蓄力</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>地面远程</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>空中近战（连招）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>空中远程</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>地面近战（连招）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>地面远程</t>
+    <t>空中跳跃</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -259,7 +299,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -363,6 +403,21 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -394,7 +449,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -470,6 +525,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -480,7 +572,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -518,15 +610,60 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -540,21 +677,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -863,69 +985,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB48"/>
+  <dimension ref="A1:AM49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L8" sqref="L8"/>
+      <selection pane="bottomRight" activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" style="9"/>
-    <col min="3" max="16384" width="8.88671875" style="1"/>
+    <col min="3" max="22" width="8.88671875" style="1"/>
+    <col min="23" max="33" width="7" style="15" customWidth="1"/>
+    <col min="34" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="8"/>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-    </row>
-    <row r="2" spans="1:28" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="25"/>
+      <c r="AE1" s="25"/>
+      <c r="AF1" s="25"/>
+      <c r="AG1" s="25"/>
+    </row>
+    <row r="2" spans="1:39" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="25" t="s">
+      <c r="D2" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="8" t="s">
+      <c r="G2" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="13" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="8" t="s">
@@ -941,32 +1079,46 @@
         <v>9</v>
       </c>
       <c r="N2" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="25" t="s">
+      <c r="P2" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q2" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="P2" s="25" t="s">
+      <c r="R2" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="Q2" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="S2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="T2" s="8" t="s">
+      <c r="S2" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="T2" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="U2" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="U2" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="V2" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="25"/>
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="25"/>
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="25"/>
+    </row>
+    <row r="3" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -999,21 +1151,40 @@
       <c r="K3" s="12"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="14"/>
+      <c r="O3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
-      <c r="T3" s="12"/>
+      <c r="T3" s="3"/>
       <c r="U3" s="12"/>
-    </row>
-    <row r="4" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
-      <c r="B4" s="8" t="s">
-        <v>3</v>
+      <c r="V3" s="16"/>
+      <c r="W3" s="19"/>
+      <c r="X3" s="19"/>
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="19"/>
+      <c r="AA3" s="19"/>
+      <c r="AB3" s="19"/>
+      <c r="AC3" s="19"/>
+      <c r="AD3" s="19"/>
+      <c r="AE3" s="19"/>
+      <c r="AF3" s="19"/>
+      <c r="AG3" s="19"/>
+      <c r="AI3" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ3" s="28"/>
+      <c r="AK3" s="28"/>
+      <c r="AL3" s="28"/>
+      <c r="AM3" s="28"/>
+    </row>
+    <row r="4" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="27"/>
+      <c r="B4" s="13" t="s">
+        <v>68</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>17</v>
@@ -1042,21 +1213,42 @@
       <c r="K4" s="12"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
-      <c r="N4" s="5" t="s">
+      <c r="N4" s="14"/>
+      <c r="O4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="3"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
-      <c r="T4" s="12"/>
+      <c r="T4" s="3"/>
       <c r="U4" s="12"/>
-    </row>
-    <row r="5" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
-      <c r="B5" s="25" t="s">
-        <v>55</v>
+      <c r="V4" s="16"/>
+      <c r="W4" s="19"/>
+      <c r="X4" s="19"/>
+      <c r="Y4" s="19"/>
+      <c r="Z4" s="19"/>
+      <c r="AA4" s="19"/>
+      <c r="AB4" s="19"/>
+      <c r="AC4" s="19"/>
+      <c r="AD4" s="19"/>
+      <c r="AE4" s="19"/>
+      <c r="AF4" s="19"/>
+      <c r="AG4" s="19"/>
+      <c r="AI4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ4" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK4" s="29"/>
+      <c r="AL4" s="29"/>
+      <c r="AM4" s="29"/>
+    </row>
+    <row r="5" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="27"/>
+      <c r="B5" s="13" t="s">
+        <v>54</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>19</v>
@@ -1085,20 +1277,41 @@
       <c r="K5" s="12"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="14"/>
+      <c r="O5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="O5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
-      <c r="T5" s="12"/>
+      <c r="T5" s="3"/>
       <c r="U5" s="12"/>
-    </row>
-    <row r="6" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="25" t="s">
+      <c r="V5" s="16"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="19"/>
+      <c r="AB5" s="19"/>
+      <c r="AC5" s="19"/>
+      <c r="AD5" s="19"/>
+      <c r="AE5" s="19"/>
+      <c r="AF5" s="19"/>
+      <c r="AG5" s="19"/>
+      <c r="AI5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ5" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK5" s="29"/>
+      <c r="AL5" s="29"/>
+      <c r="AM5" s="29"/>
+    </row>
+    <row r="6" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="27"/>
+      <c r="B6" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1128,21 +1341,44 @@
       <c r="K6" s="12"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
-      <c r="N6" s="6" t="s">
+      <c r="N6" s="14"/>
+      <c r="O6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
-      <c r="T6" s="12"/>
+      <c r="T6" s="3"/>
       <c r="U6" s="12"/>
-    </row>
-    <row r="7" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
-      <c r="B7" s="25" t="s">
-        <v>56</v>
+      <c r="V6" s="16"/>
+      <c r="W6" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="19"/>
+      <c r="Z6" s="19"/>
+      <c r="AA6" s="19"/>
+      <c r="AB6" s="19"/>
+      <c r="AC6" s="19"/>
+      <c r="AD6" s="19"/>
+      <c r="AE6" s="19"/>
+      <c r="AF6" s="19"/>
+      <c r="AG6" s="19"/>
+      <c r="AI6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ6" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK6" s="29"/>
+      <c r="AL6" s="29"/>
+      <c r="AM6" s="29"/>
+    </row>
+    <row r="7" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="27"/>
+      <c r="B7" s="13" t="s">
+        <v>55</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>18</v>
@@ -1171,20 +1407,41 @@
       <c r="K7" s="12"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
-      <c r="N7" s="5" t="s">
+      <c r="N7" s="14"/>
+      <c r="O7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
-      <c r="T7" s="12"/>
+      <c r="T7" s="3"/>
       <c r="U7" s="12"/>
-    </row>
-    <row r="8" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="8" t="s">
+      <c r="V7" s="16"/>
+      <c r="W7" s="19"/>
+      <c r="X7" s="19"/>
+      <c r="Y7" s="19"/>
+      <c r="Z7" s="19"/>
+      <c r="AA7" s="19"/>
+      <c r="AB7" s="19"/>
+      <c r="AC7" s="19"/>
+      <c r="AD7" s="19"/>
+      <c r="AE7" s="19"/>
+      <c r="AF7" s="19"/>
+      <c r="AG7" s="19"/>
+      <c r="AI7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ7" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK7" s="29"/>
+      <c r="AL7" s="29"/>
+      <c r="AM7" s="29"/>
+    </row>
+    <row r="8" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="27"/>
+      <c r="B8" s="13" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1214,27 +1471,39 @@
       <c r="K8" s="12"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
-      <c r="N8" s="4" t="s">
+      <c r="N8" s="14"/>
+      <c r="O8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
-      <c r="T8" s="12"/>
+      <c r="T8" s="3"/>
       <c r="U8" s="12"/>
-      <c r="X8" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y8" s="24"/>
-      <c r="Z8" s="24"/>
-      <c r="AA8" s="24"/>
-      <c r="AB8" s="24"/>
-    </row>
-    <row r="9" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
-      <c r="B9" s="8" t="s">
+      <c r="V8" s="16"/>
+      <c r="W8" s="20"/>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="21"/>
+      <c r="Z8" s="21"/>
+      <c r="AA8" s="21"/>
+      <c r="AB8" s="21"/>
+      <c r="AC8" s="21"/>
+      <c r="AD8" s="21"/>
+      <c r="AE8" s="21"/>
+      <c r="AF8" s="21"/>
+      <c r="AG8" s="22"/>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="AK8" s="29"/>
+      <c r="AL8" s="29"/>
+      <c r="AM8" s="29"/>
+    </row>
+    <row r="9" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="27"/>
+      <c r="B9" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -1264,80 +1533,88 @@
       <c r="K9" s="12"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
-      <c r="N9" s="6" t="s">
+      <c r="N9" s="14"/>
+      <c r="O9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
-      <c r="T9" s="12"/>
+      <c r="T9" s="3"/>
       <c r="U9" s="12"/>
-      <c r="X9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y9" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z9" s="15"/>
-      <c r="AA9" s="15"/>
-      <c r="AB9" s="15"/>
-    </row>
-    <row r="10" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="19"/>
+      <c r="Z9" s="19"/>
+      <c r="AA9" s="19"/>
+      <c r="AB9" s="19"/>
+      <c r="AC9" s="19"/>
+      <c r="AD9" s="19"/>
+      <c r="AE9" s="19"/>
+      <c r="AF9" s="19"/>
+      <c r="AG9" s="19"/>
+    </row>
+    <row r="10" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="27"/>
       <c r="B10" s="8" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K10" s="12"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
-      <c r="N10" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="O10" s="3"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
-      <c r="T10" s="12"/>
+      <c r="T10" s="3"/>
       <c r="U10" s="12"/>
-      <c r="X10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y10" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z10" s="15"/>
-      <c r="AA10" s="15"/>
-      <c r="AB10" s="15"/>
-    </row>
-    <row r="11" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="X10" s="19"/>
+      <c r="Y10" s="19"/>
+      <c r="Z10" s="19"/>
+      <c r="AA10" s="19"/>
+      <c r="AB10" s="19"/>
+      <c r="AC10" s="19"/>
+      <c r="AD10" s="19"/>
+      <c r="AE10" s="19"/>
+      <c r="AF10" s="19"/>
+      <c r="AG10" s="19"/>
+    </row>
+    <row r="11" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="27"/>
       <c r="B11" s="8" t="s">
         <v>44</v>
       </c>
@@ -1352,28 +1629,31 @@
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
-      <c r="N11" s="4" t="s">
+      <c r="N11" s="14"/>
+      <c r="O11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="O11" s="12"/>
       <c r="P11" s="12"/>
       <c r="Q11" s="12"/>
       <c r="R11" s="12"/>
       <c r="S11" s="12"/>
       <c r="T11" s="12"/>
       <c r="U11" s="12"/>
-      <c r="X11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y11" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z11" s="15"/>
-      <c r="AA11" s="15"/>
-      <c r="AB11" s="15"/>
-    </row>
-    <row r="12" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="19"/>
+      <c r="Z11" s="19"/>
+      <c r="AA11" s="19"/>
+      <c r="AB11" s="19"/>
+      <c r="AC11" s="19"/>
+      <c r="AD11" s="19"/>
+      <c r="AE11" s="19"/>
+      <c r="AF11" s="19"/>
+      <c r="AG11" s="19"/>
+    </row>
+    <row r="12" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="27"/>
       <c r="B12" s="8" t="s">
         <v>8</v>
       </c>
@@ -1394,28 +1674,31 @@
       <c r="K12" s="12"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
-      <c r="N12" s="4" t="s">
+      <c r="N12" s="14"/>
+      <c r="O12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O12" s="3"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
-      <c r="T12" s="12"/>
+      <c r="T12" s="3"/>
       <c r="U12" s="12"/>
-      <c r="X12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y12" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z12" s="15"/>
-      <c r="AA12" s="15"/>
-      <c r="AB12" s="15"/>
-    </row>
-    <row r="13" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="19"/>
+      <c r="Z12" s="19"/>
+      <c r="AA12" s="19"/>
+      <c r="AB12" s="19"/>
+      <c r="AC12" s="19"/>
+      <c r="AD12" s="19"/>
+      <c r="AE12" s="19"/>
+      <c r="AF12" s="19"/>
+      <c r="AG12" s="19"/>
+    </row>
+    <row r="13" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="27"/>
       <c r="B13" s="8" t="s">
         <v>9</v>
       </c>
@@ -1442,10 +1725,10 @@
       <c r="M13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N13" s="3"/>
-      <c r="O13" s="4" t="s">
+      <c r="N13" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="O13" s="3"/>
       <c r="P13" s="4" t="s">
         <v>15</v>
       </c>
@@ -1458,61 +1741,82 @@
       <c r="S13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="T13" s="12"/>
-      <c r="U13" s="4" t="s">
+      <c r="T13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z13" s="15"/>
-      <c r="AA13" s="15"/>
-      <c r="AB13" s="15"/>
-    </row>
-    <row r="14" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="W13" s="19"/>
+      <c r="X13" s="19"/>
+      <c r="Y13" s="19"/>
+      <c r="Z13" s="19"/>
+      <c r="AA13" s="19"/>
+      <c r="AB13" s="19"/>
+      <c r="AC13" s="19"/>
+      <c r="AD13" s="19"/>
+      <c r="AE13" s="19"/>
+      <c r="AF13" s="19"/>
+      <c r="AG13" s="19"/>
+    </row>
+    <row r="14" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="27"/>
       <c r="B14" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="M14" s="14"/>
+      <c r="N14" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="O14" s="14"/>
+      <c r="P14" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="R14" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="S14" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="T14" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="U14" s="14"/>
+      <c r="V14" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="W14" s="19"/>
+      <c r="X14" s="19"/>
+      <c r="Y14" s="19"/>
+      <c r="Z14" s="19"/>
+      <c r="AA14" s="19"/>
+      <c r="AB14" s="19"/>
+      <c r="AC14" s="19"/>
+      <c r="AD14" s="19"/>
+      <c r="AE14" s="19"/>
+      <c r="AF14" s="19"/>
+      <c r="AG14" s="19"/>
+    </row>
+    <row r="15" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="27"/>
+      <c r="B15" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="O14" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="P14" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q14" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="R14" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="S14" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-    </row>
-    <row r="15" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
-      <c r="B15" s="25" t="s">
-        <v>57</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1521,37 +1825,49 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="J15" s="3"/>
       <c r="K15" s="12"/>
       <c r="L15" s="3"/>
-      <c r="M15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N15" s="3"/>
-      <c r="O15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="R15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="S15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="T15" s="12"/>
+      <c r="M15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N15" s="14"/>
+      <c r="O15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="R15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="S15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="T15" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="U15" s="12"/>
-    </row>
-    <row r="16" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
-      <c r="B16" s="25" t="s">
-        <v>53</v>
+      <c r="V15" s="16"/>
+      <c r="W15" s="19"/>
+      <c r="X15" s="19"/>
+      <c r="Y15" s="19"/>
+      <c r="Z15" s="19"/>
+      <c r="AA15" s="19"/>
+      <c r="AB15" s="19"/>
+      <c r="AC15" s="19"/>
+      <c r="AD15" s="19"/>
+      <c r="AE15" s="19"/>
+      <c r="AF15" s="19"/>
+      <c r="AG15" s="19"/>
+    </row>
+    <row r="16" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="27"/>
+      <c r="B16" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1560,35 +1876,49 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+      <c r="J16" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="K16" s="12"/>
       <c r="L16" s="3"/>
-      <c r="M16" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="N16" s="3"/>
-      <c r="O16" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="P16" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q16" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="R16" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="S16" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="T16" s="12"/>
+      <c r="M16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N16" s="14"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="T16" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="U16" s="12"/>
-    </row>
-    <row r="17" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
-      <c r="B17" s="25" t="s">
-        <v>58</v>
+      <c r="V16" s="16"/>
+      <c r="W16" s="19"/>
+      <c r="X16" s="19"/>
+      <c r="Y16" s="19"/>
+      <c r="Z16" s="19"/>
+      <c r="AA16" s="19"/>
+      <c r="AB16" s="19"/>
+      <c r="AC16" s="19"/>
+      <c r="AD16" s="19"/>
+      <c r="AE16" s="19"/>
+      <c r="AF16" s="19"/>
+      <c r="AG16" s="19"/>
+    </row>
+    <row r="17" spans="1:33" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="27"/>
+      <c r="B17" s="13" t="s">
+        <v>52</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1600,32 +1930,44 @@
       <c r="J17" s="3"/>
       <c r="K17" s="12"/>
       <c r="L17" s="3"/>
-      <c r="M17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="N17" s="3"/>
-      <c r="O17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="P17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="R17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="S17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="T17" s="12"/>
+      <c r="M17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N17" s="14"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="R17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="T17" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="U17" s="12"/>
-    </row>
-    <row r="18" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
-      <c r="B18" s="8" t="s">
-        <v>13</v>
+      <c r="V17" s="16"/>
+      <c r="W17" s="19"/>
+      <c r="X17" s="19"/>
+      <c r="Y17" s="19"/>
+      <c r="Z17" s="19"/>
+      <c r="AA17" s="19"/>
+      <c r="AB17" s="19"/>
+      <c r="AC17" s="19"/>
+      <c r="AD17" s="19"/>
+      <c r="AE17" s="19"/>
+      <c r="AF17" s="19"/>
+      <c r="AG17" s="19"/>
+    </row>
+    <row r="18" spans="1:33" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="27"/>
+      <c r="B18" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1636,37 +1978,45 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="12"/>
-      <c r="L18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="P18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="R18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="S18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="T18" s="12"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N18" s="14"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="S18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="T18" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="U18" s="12"/>
-    </row>
-    <row r="19" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
-      <c r="B19" s="8" t="s">
-        <v>14</v>
+      <c r="V18" s="16"/>
+      <c r="W18" s="19"/>
+      <c r="X18" s="19"/>
+      <c r="Y18" s="19"/>
+      <c r="Z18" s="19"/>
+      <c r="AA18" s="19"/>
+      <c r="AB18" s="19"/>
+      <c r="AC18" s="19"/>
+      <c r="AD18" s="19"/>
+      <c r="AE18" s="19"/>
+      <c r="AF18" s="19"/>
+      <c r="AG18" s="19"/>
+    </row>
+    <row r="19" spans="1:33" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="27"/>
+      <c r="B19" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -1677,76 +2027,152 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="12"/>
-      <c r="L19" s="6" t="s">
+      <c r="L19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N19" s="14"/>
+      <c r="O19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="R19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="S19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="T19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="U19" s="12"/>
+      <c r="V19" s="16"/>
+      <c r="W19" s="19"/>
+      <c r="X19" s="19"/>
+      <c r="Y19" s="19"/>
+      <c r="Z19" s="19"/>
+      <c r="AA19" s="19"/>
+      <c r="AB19" s="19"/>
+      <c r="AC19" s="19"/>
+      <c r="AD19" s="19"/>
+      <c r="AE19" s="19"/>
+      <c r="AF19" s="19"/>
+      <c r="AG19" s="19"/>
+    </row>
+    <row r="20" spans="1:33" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="27"/>
+      <c r="B20" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="M19" s="6" t="s">
+      <c r="M20" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="N19" s="6" t="s">
+      <c r="N20" s="14"/>
+      <c r="O20" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="O19" s="6" t="s">
+      <c r="P20" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="P19" s="6" t="s">
+      <c r="Q20" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="Q19" s="6" t="s">
+      <c r="R20" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="R19" s="6" t="s">
+      <c r="S20" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="S19" s="6" t="s">
+      <c r="T20" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="T19" s="12"/>
-      <c r="U19" s="6" t="s">
+      <c r="U20" s="12"/>
+      <c r="V20" s="18" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
-      <c r="B20" s="8" t="s">
+      <c r="W20" s="19"/>
+      <c r="X20" s="19"/>
+      <c r="Y20" s="19"/>
+      <c r="Z20" s="19"/>
+      <c r="AA20" s="19"/>
+      <c r="AB20" s="19"/>
+      <c r="AC20" s="19"/>
+      <c r="AD20" s="19"/>
+      <c r="AE20" s="19"/>
+      <c r="AF20" s="19"/>
+      <c r="AG20" s="19"/>
+    </row>
+    <row r="21" spans="1:33" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="27"/>
+      <c r="B21" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="4" t="s">
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="4" t="s">
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="U20" s="12"/>
-    </row>
-    <row r="21" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="V21" s="16"/>
+      <c r="W21" s="19"/>
+      <c r="X21" s="19"/>
+      <c r="Y21" s="19"/>
+      <c r="Z21" s="19"/>
+      <c r="AA21" s="19"/>
+      <c r="AB21" s="19"/>
+      <c r="AC21" s="19"/>
+      <c r="AD21" s="19"/>
+      <c r="AE21" s="19"/>
+      <c r="AF21" s="19"/>
+      <c r="AG21" s="19"/>
+    </row>
+    <row r="22" spans="1:33" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:33" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:33" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:33" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:33" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:33" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:33" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:33" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:33" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:33" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:33" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1763,16 +2189,37 @@
     <row r="46" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="47" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="48" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A3:A20"/>
-    <mergeCell ref="X8:AB8"/>
-    <mergeCell ref="Y9:AB9"/>
-    <mergeCell ref="Y11:AB11"/>
-    <mergeCell ref="Y10:AB10"/>
-    <mergeCell ref="Y13:AB13"/>
-    <mergeCell ref="Y12:AB12"/>
-    <mergeCell ref="C1:U1"/>
+  <mergeCells count="28">
+    <mergeCell ref="A3:A21"/>
+    <mergeCell ref="AI3:AM3"/>
+    <mergeCell ref="AJ4:AM4"/>
+    <mergeCell ref="AJ6:AM6"/>
+    <mergeCell ref="AJ5:AM5"/>
+    <mergeCell ref="AJ8:AM8"/>
+    <mergeCell ref="AJ7:AM7"/>
+    <mergeCell ref="W14:AG14"/>
+    <mergeCell ref="C1:V1"/>
+    <mergeCell ref="W3:AG3"/>
+    <mergeCell ref="W4:AG4"/>
+    <mergeCell ref="W5:AG5"/>
+    <mergeCell ref="W1:AG2"/>
+    <mergeCell ref="W6:AG6"/>
+    <mergeCell ref="W7:AG7"/>
+    <mergeCell ref="W8:AG8"/>
+    <mergeCell ref="W9:AG9"/>
+    <mergeCell ref="W10:AG10"/>
+    <mergeCell ref="W11:AG11"/>
+    <mergeCell ref="W12:AG12"/>
+    <mergeCell ref="W13:AG13"/>
+    <mergeCell ref="W15:AG15"/>
+    <mergeCell ref="W16:AG16"/>
+    <mergeCell ref="W17:AG17"/>
+    <mergeCell ref="W18:AG18"/>
+    <mergeCell ref="W19:AG19"/>
+    <mergeCell ref="W20:AG20"/>
+    <mergeCell ref="W21:AG21"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1854,18 +2301,18 @@
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
       <c r="B1" s="8"/>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
     </row>
     <row r="2" spans="1:25" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
@@ -1902,7 +2349,7 @@
       </c>
     </row>
     <row r="3" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="33" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -1920,7 +2367,7 @@
       <c r="L3" s="7"/>
     </row>
     <row r="4" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
@@ -1936,7 +2383,7 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
@@ -1952,7 +2399,7 @@
       <c r="L5" s="7"/>
     </row>
     <row r="6" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="8" t="s">
         <v>6</v>
       </c>
@@ -1968,7 +2415,7 @@
       <c r="L6" s="7"/>
     </row>
     <row r="7" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="8" t="s">
         <v>8</v>
       </c>
@@ -1984,7 +2431,7 @@
       <c r="L7" s="7"/>
     </row>
     <row r="8" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="8" t="s">
         <v>9</v>
       </c>
@@ -1999,15 +2446,15 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="U8" s="4"/>
-      <c r="V8" s="20" t="s">
+      <c r="V8" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="W8" s="15"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="15"/>
+      <c r="W8" s="29"/>
+      <c r="X8" s="29"/>
+      <c r="Y8" s="29"/>
     </row>
     <row r="9" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="8" t="s">
         <v>38</v>
       </c>
@@ -2023,7 +2470,7 @@
       <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="8" t="s">
         <v>11</v>
       </c>
@@ -2039,7 +2486,7 @@
       <c r="L10" s="5"/>
     </row>
     <row r="11" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="8" t="s">
         <v>12</v>
       </c>
@@ -2055,7 +2502,7 @@
       <c r="L11" s="5"/>
     </row>
     <row r="12" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="8" t="s">
         <v>13</v>
       </c>

--- a/DesignDocuments/机制、系统、数值/主角、怪物状态转移矩阵.xlsx
+++ b/DesignDocuments/机制、系统、数值/主角、怪物状态转移矩阵.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="68">
   <si>
     <t>当前状态</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -236,10 +236,6 @@
   </si>
   <si>
     <t>空中近战（连招）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>空中远程</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -628,9 +624,33 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -639,30 +659,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -991,7 +987,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M5" sqref="M5"/>
+      <selection pane="bottomRight" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.25"/>
@@ -1006,41 +1002,41 @@
     <row r="1" spans="1:39" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="8"/>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="25"/>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="25"/>
-      <c r="AF1" s="25"/>
-      <c r="AG1" s="25"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="27"/>
+      <c r="AG1" s="27"/>
     </row>
     <row r="2" spans="1:39" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
@@ -1049,7 +1045,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>5</v>
@@ -1057,11 +1053,11 @@
       <c r="F2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="8" t="s">
         <v>50</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I2" s="13" t="s">
         <v>7</v>
@@ -1079,7 +1075,7 @@
         <v>9</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O2" s="8" t="s">
         <v>10</v>
@@ -1094,31 +1090,31 @@
         <v>53</v>
       </c>
       <c r="S2" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="T2" s="13" t="s">
         <v>65</v>
-      </c>
-      <c r="T2" s="13" t="s">
-        <v>66</v>
       </c>
       <c r="U2" s="13" t="s">
         <v>45</v>
       </c>
       <c r="V2" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="W2" s="25"/>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="25"/>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="25"/>
-      <c r="AB2" s="25"/>
-      <c r="AC2" s="25"/>
-      <c r="AD2" s="25"/>
-      <c r="AE2" s="25"/>
-      <c r="AF2" s="25"/>
-      <c r="AG2" s="25"/>
+        <v>66</v>
+      </c>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="27"/>
+      <c r="AE2" s="27"/>
+      <c r="AF2" s="27"/>
+      <c r="AG2" s="27"/>
     </row>
     <row r="3" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -1162,29 +1158,29 @@
       <c r="T3" s="3"/>
       <c r="U3" s="12"/>
       <c r="V3" s="16"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19"/>
-      <c r="AE3" s="19"/>
-      <c r="AF3" s="19"/>
-      <c r="AG3" s="19"/>
-      <c r="AI3" s="28" t="s">
+      <c r="W3" s="24"/>
+      <c r="X3" s="24"/>
+      <c r="Y3" s="24"/>
+      <c r="Z3" s="24"/>
+      <c r="AA3" s="24"/>
+      <c r="AB3" s="24"/>
+      <c r="AC3" s="24"/>
+      <c r="AD3" s="24"/>
+      <c r="AE3" s="24"/>
+      <c r="AF3" s="24"/>
+      <c r="AG3" s="24"/>
+      <c r="AI3" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="AJ3" s="28"/>
-      <c r="AK3" s="28"/>
-      <c r="AL3" s="28"/>
-      <c r="AM3" s="28"/>
+      <c r="AJ3" s="21"/>
+      <c r="AK3" s="21"/>
+      <c r="AL3" s="21"/>
+      <c r="AM3" s="21"/>
     </row>
     <row r="4" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>17</v>
@@ -1224,29 +1220,29 @@
       <c r="T4" s="3"/>
       <c r="U4" s="12"/>
       <c r="V4" s="16"/>
-      <c r="W4" s="19"/>
-      <c r="X4" s="19"/>
-      <c r="Y4" s="19"/>
-      <c r="Z4" s="19"/>
-      <c r="AA4" s="19"/>
-      <c r="AB4" s="19"/>
-      <c r="AC4" s="19"/>
-      <c r="AD4" s="19"/>
-      <c r="AE4" s="19"/>
-      <c r="AF4" s="19"/>
-      <c r="AG4" s="19"/>
+      <c r="W4" s="24"/>
+      <c r="X4" s="24"/>
+      <c r="Y4" s="24"/>
+      <c r="Z4" s="24"/>
+      <c r="AA4" s="24"/>
+      <c r="AB4" s="24"/>
+      <c r="AC4" s="24"/>
+      <c r="AD4" s="24"/>
+      <c r="AE4" s="24"/>
+      <c r="AF4" s="24"/>
+      <c r="AG4" s="24"/>
       <c r="AI4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="AJ4" s="29" t="s">
+      <c r="AJ4" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="AK4" s="29"/>
-      <c r="AL4" s="29"/>
-      <c r="AM4" s="29"/>
+      <c r="AK4" s="22"/>
+      <c r="AL4" s="22"/>
+      <c r="AM4" s="22"/>
     </row>
     <row r="5" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="13" t="s">
         <v>54</v>
       </c>
@@ -1288,29 +1284,29 @@
       <c r="T5" s="3"/>
       <c r="U5" s="12"/>
       <c r="V5" s="16"/>
-      <c r="W5" s="19"/>
-      <c r="X5" s="19"/>
-      <c r="Y5" s="19"/>
-      <c r="Z5" s="19"/>
-      <c r="AA5" s="19"/>
-      <c r="AB5" s="19"/>
-      <c r="AC5" s="19"/>
-      <c r="AD5" s="19"/>
-      <c r="AE5" s="19"/>
-      <c r="AF5" s="19"/>
-      <c r="AG5" s="19"/>
+      <c r="W5" s="24"/>
+      <c r="X5" s="24"/>
+      <c r="Y5" s="24"/>
+      <c r="Z5" s="24"/>
+      <c r="AA5" s="24"/>
+      <c r="AB5" s="24"/>
+      <c r="AC5" s="24"/>
+      <c r="AD5" s="24"/>
+      <c r="AE5" s="24"/>
+      <c r="AF5" s="24"/>
+      <c r="AG5" s="24"/>
       <c r="AI5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AJ5" s="30" t="s">
+      <c r="AJ5" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="AK5" s="29"/>
-      <c r="AL5" s="29"/>
-      <c r="AM5" s="29"/>
+      <c r="AK5" s="22"/>
+      <c r="AL5" s="22"/>
+      <c r="AM5" s="22"/>
     </row>
     <row r="6" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="13" t="s">
         <v>4</v>
       </c>
@@ -1352,33 +1348,33 @@
       <c r="T6" s="3"/>
       <c r="U6" s="12"/>
       <c r="V6" s="16"/>
-      <c r="W6" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="X6" s="19"/>
-      <c r="Y6" s="19"/>
-      <c r="Z6" s="19"/>
-      <c r="AA6" s="19"/>
-      <c r="AB6" s="19"/>
-      <c r="AC6" s="19"/>
-      <c r="AD6" s="19"/>
-      <c r="AE6" s="19"/>
-      <c r="AF6" s="19"/>
-      <c r="AG6" s="19"/>
+      <c r="W6" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="X6" s="24"/>
+      <c r="Y6" s="24"/>
+      <c r="Z6" s="24"/>
+      <c r="AA6" s="24"/>
+      <c r="AB6" s="24"/>
+      <c r="AC6" s="24"/>
+      <c r="AD6" s="24"/>
+      <c r="AE6" s="24"/>
+      <c r="AF6" s="24"/>
+      <c r="AG6" s="24"/>
       <c r="AI6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="AJ6" s="29" t="s">
+      <c r="AJ6" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="AK6" s="29"/>
-      <c r="AL6" s="29"/>
-      <c r="AM6" s="29"/>
+      <c r="AK6" s="22"/>
+      <c r="AL6" s="22"/>
+      <c r="AM6" s="22"/>
     </row>
     <row r="7" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
-      <c r="B7" s="13" t="s">
-        <v>55</v>
+      <c r="A7" s="20"/>
+      <c r="B7" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>18</v>
@@ -1418,29 +1414,29 @@
       <c r="T7" s="3"/>
       <c r="U7" s="12"/>
       <c r="V7" s="16"/>
-      <c r="W7" s="19"/>
-      <c r="X7" s="19"/>
-      <c r="Y7" s="19"/>
-      <c r="Z7" s="19"/>
-      <c r="AA7" s="19"/>
-      <c r="AB7" s="19"/>
-      <c r="AC7" s="19"/>
-      <c r="AD7" s="19"/>
-      <c r="AE7" s="19"/>
-      <c r="AF7" s="19"/>
-      <c r="AG7" s="19"/>
+      <c r="W7" s="24"/>
+      <c r="X7" s="24"/>
+      <c r="Y7" s="24"/>
+      <c r="Z7" s="24"/>
+      <c r="AA7" s="24"/>
+      <c r="AB7" s="24"/>
+      <c r="AC7" s="24"/>
+      <c r="AD7" s="24"/>
+      <c r="AE7" s="24"/>
+      <c r="AF7" s="24"/>
+      <c r="AG7" s="24"/>
       <c r="AI7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AJ7" s="29" t="s">
+      <c r="AJ7" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="AK7" s="29"/>
-      <c r="AL7" s="29"/>
-      <c r="AM7" s="29"/>
+      <c r="AK7" s="22"/>
+      <c r="AL7" s="22"/>
+      <c r="AM7" s="22"/>
     </row>
     <row r="8" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="13" t="s">
         <v>6</v>
       </c>
@@ -1482,27 +1478,27 @@
       <c r="T8" s="3"/>
       <c r="U8" s="12"/>
       <c r="V8" s="16"/>
-      <c r="W8" s="20"/>
-      <c r="X8" s="21"/>
-      <c r="Y8" s="21"/>
-      <c r="Z8" s="21"/>
-      <c r="AA8" s="21"/>
-      <c r="AB8" s="21"/>
-      <c r="AC8" s="21"/>
-      <c r="AD8" s="21"/>
-      <c r="AE8" s="21"/>
-      <c r="AF8" s="21"/>
-      <c r="AG8" s="22"/>
+      <c r="W8" s="28"/>
+      <c r="X8" s="29"/>
+      <c r="Y8" s="29"/>
+      <c r="Z8" s="29"/>
+      <c r="AA8" s="29"/>
+      <c r="AB8" s="29"/>
+      <c r="AC8" s="29"/>
+      <c r="AD8" s="29"/>
+      <c r="AE8" s="29"/>
+      <c r="AF8" s="29"/>
+      <c r="AG8" s="30"/>
       <c r="AI8" s="3"/>
-      <c r="AJ8" s="29" t="s">
+      <c r="AJ8" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="AK8" s="29"/>
-      <c r="AL8" s="29"/>
-      <c r="AM8" s="29"/>
+      <c r="AK8" s="22"/>
+      <c r="AL8" s="22"/>
+      <c r="AM8" s="22"/>
     </row>
     <row r="9" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="13" t="s">
         <v>7</v>
       </c>
@@ -1544,22 +1540,22 @@
       <c r="T9" s="3"/>
       <c r="U9" s="12"/>
       <c r="V9" s="16"/>
-      <c r="W9" s="19"/>
-      <c r="X9" s="19"/>
-      <c r="Y9" s="19"/>
-      <c r="Z9" s="19"/>
-      <c r="AA9" s="19"/>
-      <c r="AB9" s="19"/>
-      <c r="AC9" s="19"/>
-      <c r="AD9" s="19"/>
-      <c r="AE9" s="19"/>
-      <c r="AF9" s="19"/>
-      <c r="AG9" s="19"/>
+      <c r="W9" s="24"/>
+      <c r="X9" s="24"/>
+      <c r="Y9" s="24"/>
+      <c r="Z9" s="24"/>
+      <c r="AA9" s="24"/>
+      <c r="AB9" s="24"/>
+      <c r="AC9" s="24"/>
+      <c r="AD9" s="24"/>
+      <c r="AE9" s="24"/>
+      <c r="AF9" s="24"/>
+      <c r="AG9" s="24"/>
     </row>
     <row r="10" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>47</v>
@@ -1599,22 +1595,22 @@
       <c r="T10" s="3"/>
       <c r="U10" s="12"/>
       <c r="V10" s="16"/>
-      <c r="W10" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="X10" s="19"/>
-      <c r="Y10" s="19"/>
-      <c r="Z10" s="19"/>
-      <c r="AA10" s="19"/>
-      <c r="AB10" s="19"/>
-      <c r="AC10" s="19"/>
-      <c r="AD10" s="19"/>
-      <c r="AE10" s="19"/>
-      <c r="AF10" s="19"/>
-      <c r="AG10" s="19"/>
+      <c r="W10" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="X10" s="24"/>
+      <c r="Y10" s="24"/>
+      <c r="Z10" s="24"/>
+      <c r="AA10" s="24"/>
+      <c r="AB10" s="24"/>
+      <c r="AC10" s="24"/>
+      <c r="AD10" s="24"/>
+      <c r="AE10" s="24"/>
+      <c r="AF10" s="24"/>
+      <c r="AG10" s="24"/>
     </row>
     <row r="11" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="8" t="s">
         <v>44</v>
       </c>
@@ -1640,20 +1636,20 @@
       <c r="T11" s="12"/>
       <c r="U11" s="12"/>
       <c r="V11" s="16"/>
-      <c r="W11" s="19"/>
-      <c r="X11" s="19"/>
-      <c r="Y11" s="19"/>
-      <c r="Z11" s="19"/>
-      <c r="AA11" s="19"/>
-      <c r="AB11" s="19"/>
-      <c r="AC11" s="19"/>
-      <c r="AD11" s="19"/>
-      <c r="AE11" s="19"/>
-      <c r="AF11" s="19"/>
-      <c r="AG11" s="19"/>
+      <c r="W11" s="24"/>
+      <c r="X11" s="24"/>
+      <c r="Y11" s="24"/>
+      <c r="Z11" s="24"/>
+      <c r="AA11" s="24"/>
+      <c r="AB11" s="24"/>
+      <c r="AC11" s="24"/>
+      <c r="AD11" s="24"/>
+      <c r="AE11" s="24"/>
+      <c r="AF11" s="24"/>
+      <c r="AG11" s="24"/>
     </row>
     <row r="12" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="8" t="s">
         <v>8</v>
       </c>
@@ -1685,20 +1681,20 @@
       <c r="T12" s="3"/>
       <c r="U12" s="12"/>
       <c r="V12" s="16"/>
-      <c r="W12" s="19"/>
-      <c r="X12" s="19"/>
-      <c r="Y12" s="19"/>
-      <c r="Z12" s="19"/>
-      <c r="AA12" s="19"/>
-      <c r="AB12" s="19"/>
-      <c r="AC12" s="19"/>
-      <c r="AD12" s="19"/>
-      <c r="AE12" s="19"/>
-      <c r="AF12" s="19"/>
-      <c r="AG12" s="19"/>
+      <c r="W12" s="24"/>
+      <c r="X12" s="24"/>
+      <c r="Y12" s="24"/>
+      <c r="Z12" s="24"/>
+      <c r="AA12" s="24"/>
+      <c r="AB12" s="24"/>
+      <c r="AC12" s="24"/>
+      <c r="AD12" s="24"/>
+      <c r="AE12" s="24"/>
+      <c r="AF12" s="24"/>
+      <c r="AG12" s="24"/>
     </row>
     <row r="13" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="8" t="s">
         <v>9</v>
       </c>
@@ -1748,22 +1744,22 @@
       <c r="V13" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="W13" s="19"/>
-      <c r="X13" s="19"/>
-      <c r="Y13" s="19"/>
-      <c r="Z13" s="19"/>
-      <c r="AA13" s="19"/>
-      <c r="AB13" s="19"/>
-      <c r="AC13" s="19"/>
-      <c r="AD13" s="19"/>
-      <c r="AE13" s="19"/>
-      <c r="AF13" s="19"/>
-      <c r="AG13" s="19"/>
+      <c r="W13" s="24"/>
+      <c r="X13" s="24"/>
+      <c r="Y13" s="24"/>
+      <c r="Z13" s="24"/>
+      <c r="AA13" s="24"/>
+      <c r="AB13" s="24"/>
+      <c r="AC13" s="24"/>
+      <c r="AD13" s="24"/>
+      <c r="AE13" s="24"/>
+      <c r="AF13" s="24"/>
+      <c r="AG13" s="24"/>
     </row>
     <row r="14" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
@@ -1775,46 +1771,46 @@
       <c r="J14" s="14"/>
       <c r="K14" s="14"/>
       <c r="L14" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M14" s="14"/>
       <c r="N14" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O14" s="14"/>
       <c r="P14" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S14" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T14" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U14" s="14"/>
       <c r="V14" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="W14" s="19"/>
-      <c r="X14" s="19"/>
-      <c r="Y14" s="19"/>
-      <c r="Z14" s="19"/>
-      <c r="AA14" s="19"/>
-      <c r="AB14" s="19"/>
-      <c r="AC14" s="19"/>
-      <c r="AD14" s="19"/>
-      <c r="AE14" s="19"/>
-      <c r="AF14" s="19"/>
-      <c r="AG14" s="19"/>
+        <v>61</v>
+      </c>
+      <c r="W14" s="24"/>
+      <c r="X14" s="24"/>
+      <c r="Y14" s="24"/>
+      <c r="Z14" s="24"/>
+      <c r="AA14" s="24"/>
+      <c r="AB14" s="24"/>
+      <c r="AC14" s="24"/>
+      <c r="AD14" s="24"/>
+      <c r="AE14" s="24"/>
+      <c r="AF14" s="24"/>
+      <c r="AG14" s="24"/>
     </row>
     <row r="15" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="8" t="s">
         <v>10</v>
       </c>
@@ -1852,22 +1848,22 @@
       </c>
       <c r="U15" s="12"/>
       <c r="V15" s="16"/>
-      <c r="W15" s="19"/>
-      <c r="X15" s="19"/>
-      <c r="Y15" s="19"/>
-      <c r="Z15" s="19"/>
-      <c r="AA15" s="19"/>
-      <c r="AB15" s="19"/>
-      <c r="AC15" s="19"/>
-      <c r="AD15" s="19"/>
-      <c r="AE15" s="19"/>
-      <c r="AF15" s="19"/>
-      <c r="AG15" s="19"/>
+      <c r="W15" s="24"/>
+      <c r="X15" s="24"/>
+      <c r="Y15" s="24"/>
+      <c r="Z15" s="24"/>
+      <c r="AA15" s="24"/>
+      <c r="AB15" s="24"/>
+      <c r="AC15" s="24"/>
+      <c r="AD15" s="24"/>
+      <c r="AE15" s="24"/>
+      <c r="AF15" s="24"/>
+      <c r="AG15" s="24"/>
     </row>
     <row r="16" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1903,20 +1899,20 @@
       </c>
       <c r="U16" s="12"/>
       <c r="V16" s="16"/>
-      <c r="W16" s="19"/>
-      <c r="X16" s="19"/>
-      <c r="Y16" s="19"/>
-      <c r="Z16" s="19"/>
-      <c r="AA16" s="19"/>
-      <c r="AB16" s="19"/>
-      <c r="AC16" s="19"/>
-      <c r="AD16" s="19"/>
-      <c r="AE16" s="19"/>
-      <c r="AF16" s="19"/>
-      <c r="AG16" s="19"/>
+      <c r="W16" s="24"/>
+      <c r="X16" s="24"/>
+      <c r="Y16" s="24"/>
+      <c r="Z16" s="24"/>
+      <c r="AA16" s="24"/>
+      <c r="AB16" s="24"/>
+      <c r="AC16" s="24"/>
+      <c r="AD16" s="24"/>
+      <c r="AE16" s="24"/>
+      <c r="AF16" s="24"/>
+      <c r="AG16" s="24"/>
     </row>
     <row r="17" spans="1:33" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="13" t="s">
         <v>52</v>
       </c>
@@ -1952,22 +1948,22 @@
       </c>
       <c r="U17" s="12"/>
       <c r="V17" s="16"/>
-      <c r="W17" s="19"/>
-      <c r="X17" s="19"/>
-      <c r="Y17" s="19"/>
-      <c r="Z17" s="19"/>
-      <c r="AA17" s="19"/>
-      <c r="AB17" s="19"/>
-      <c r="AC17" s="19"/>
-      <c r="AD17" s="19"/>
-      <c r="AE17" s="19"/>
-      <c r="AF17" s="19"/>
-      <c r="AG17" s="19"/>
+      <c r="W17" s="24"/>
+      <c r="X17" s="24"/>
+      <c r="Y17" s="24"/>
+      <c r="Z17" s="24"/>
+      <c r="AA17" s="24"/>
+      <c r="AB17" s="24"/>
+      <c r="AC17" s="24"/>
+      <c r="AD17" s="24"/>
+      <c r="AE17" s="24"/>
+      <c r="AF17" s="24"/>
+      <c r="AG17" s="24"/>
     </row>
     <row r="18" spans="1:33" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="27"/>
+      <c r="A18" s="20"/>
       <c r="B18" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -2001,20 +1997,20 @@
       </c>
       <c r="U18" s="12"/>
       <c r="V18" s="16"/>
-      <c r="W18" s="19"/>
-      <c r="X18" s="19"/>
-      <c r="Y18" s="19"/>
-      <c r="Z18" s="19"/>
-      <c r="AA18" s="19"/>
-      <c r="AB18" s="19"/>
-      <c r="AC18" s="19"/>
-      <c r="AD18" s="19"/>
-      <c r="AE18" s="19"/>
-      <c r="AF18" s="19"/>
-      <c r="AG18" s="19"/>
+      <c r="W18" s="24"/>
+      <c r="X18" s="24"/>
+      <c r="Y18" s="24"/>
+      <c r="Z18" s="24"/>
+      <c r="AA18" s="24"/>
+      <c r="AB18" s="24"/>
+      <c r="AC18" s="24"/>
+      <c r="AD18" s="24"/>
+      <c r="AE18" s="24"/>
+      <c r="AF18" s="24"/>
+      <c r="AG18" s="24"/>
     </row>
     <row r="19" spans="1:33" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="27"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="13" t="s">
         <v>13</v>
       </c>
@@ -2054,20 +2050,20 @@
       </c>
       <c r="U19" s="12"/>
       <c r="V19" s="16"/>
-      <c r="W19" s="19"/>
-      <c r="X19" s="19"/>
-      <c r="Y19" s="19"/>
-      <c r="Z19" s="19"/>
-      <c r="AA19" s="19"/>
-      <c r="AB19" s="19"/>
-      <c r="AC19" s="19"/>
-      <c r="AD19" s="19"/>
-      <c r="AE19" s="19"/>
-      <c r="AF19" s="19"/>
-      <c r="AG19" s="19"/>
+      <c r="W19" s="24"/>
+      <c r="X19" s="24"/>
+      <c r="Y19" s="24"/>
+      <c r="Z19" s="24"/>
+      <c r="AA19" s="24"/>
+      <c r="AB19" s="24"/>
+      <c r="AC19" s="24"/>
+      <c r="AD19" s="24"/>
+      <c r="AE19" s="24"/>
+      <c r="AF19" s="24"/>
+      <c r="AG19" s="24"/>
     </row>
     <row r="20" spans="1:33" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="27"/>
+      <c r="A20" s="20"/>
       <c r="B20" s="13" t="s">
         <v>14</v>
       </c>
@@ -2109,20 +2105,20 @@
       <c r="V20" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="W20" s="19"/>
-      <c r="X20" s="19"/>
-      <c r="Y20" s="19"/>
-      <c r="Z20" s="19"/>
-      <c r="AA20" s="19"/>
-      <c r="AB20" s="19"/>
-      <c r="AC20" s="19"/>
-      <c r="AD20" s="19"/>
-      <c r="AE20" s="19"/>
-      <c r="AF20" s="19"/>
-      <c r="AG20" s="19"/>
+      <c r="W20" s="24"/>
+      <c r="X20" s="24"/>
+      <c r="Y20" s="24"/>
+      <c r="Z20" s="24"/>
+      <c r="AA20" s="24"/>
+      <c r="AB20" s="24"/>
+      <c r="AC20" s="24"/>
+      <c r="AD20" s="24"/>
+      <c r="AE20" s="24"/>
+      <c r="AF20" s="24"/>
+      <c r="AG20" s="24"/>
     </row>
     <row r="21" spans="1:33" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="27"/>
+      <c r="A21" s="20"/>
       <c r="B21" s="13" t="s">
         <v>46</v>
       </c>
@@ -2150,17 +2146,17 @@
         <v>15</v>
       </c>
       <c r="V21" s="16"/>
-      <c r="W21" s="19"/>
-      <c r="X21" s="19"/>
-      <c r="Y21" s="19"/>
-      <c r="Z21" s="19"/>
-      <c r="AA21" s="19"/>
-      <c r="AB21" s="19"/>
-      <c r="AC21" s="19"/>
-      <c r="AD21" s="19"/>
-      <c r="AE21" s="19"/>
-      <c r="AF21" s="19"/>
-      <c r="AG21" s="19"/>
+      <c r="W21" s="24"/>
+      <c r="X21" s="24"/>
+      <c r="Y21" s="24"/>
+      <c r="Z21" s="24"/>
+      <c r="AA21" s="24"/>
+      <c r="AB21" s="24"/>
+      <c r="AC21" s="24"/>
+      <c r="AD21" s="24"/>
+      <c r="AE21" s="24"/>
+      <c r="AF21" s="24"/>
+      <c r="AG21" s="24"/>
     </row>
     <row r="22" spans="1:33" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:33" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2192,6 +2188,18 @@
     <row r="49" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="W20:AG20"/>
+    <mergeCell ref="W21:AG21"/>
+    <mergeCell ref="W15:AG15"/>
+    <mergeCell ref="W16:AG16"/>
+    <mergeCell ref="W17:AG17"/>
+    <mergeCell ref="W18:AG18"/>
+    <mergeCell ref="W19:AG19"/>
+    <mergeCell ref="C1:V1"/>
+    <mergeCell ref="W3:AG3"/>
+    <mergeCell ref="W4:AG4"/>
+    <mergeCell ref="W5:AG5"/>
+    <mergeCell ref="W1:AG2"/>
     <mergeCell ref="A3:A21"/>
     <mergeCell ref="AI3:AM3"/>
     <mergeCell ref="AJ4:AM4"/>
@@ -2200,11 +2208,6 @@
     <mergeCell ref="AJ8:AM8"/>
     <mergeCell ref="AJ7:AM7"/>
     <mergeCell ref="W14:AG14"/>
-    <mergeCell ref="C1:V1"/>
-    <mergeCell ref="W3:AG3"/>
-    <mergeCell ref="W4:AG4"/>
-    <mergeCell ref="W5:AG5"/>
-    <mergeCell ref="W1:AG2"/>
     <mergeCell ref="W6:AG6"/>
     <mergeCell ref="W7:AG7"/>
     <mergeCell ref="W8:AG8"/>
@@ -2213,13 +2216,6 @@
     <mergeCell ref="W11:AG11"/>
     <mergeCell ref="W12:AG12"/>
     <mergeCell ref="W13:AG13"/>
-    <mergeCell ref="W15:AG15"/>
-    <mergeCell ref="W16:AG16"/>
-    <mergeCell ref="W17:AG17"/>
-    <mergeCell ref="W18:AG18"/>
-    <mergeCell ref="W19:AG19"/>
-    <mergeCell ref="W20:AG20"/>
-    <mergeCell ref="W21:AG21"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2449,9 +2445,9 @@
       <c r="V8" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="W8" s="29"/>
-      <c r="X8" s="29"/>
-      <c r="Y8" s="29"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="22"/>
     </row>
     <row r="9" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="34"/>

--- a/DesignDocuments/机制、系统、数值/主角、怪物状态转移矩阵.xlsx
+++ b/DesignDocuments/机制、系统、数值/主角、怪物状态转移矩阵.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="75">
   <si>
     <t>当前状态</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -75,10 +75,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>翻滚</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>默认</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -131,10 +127,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>方向键+空格</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>接触地面</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -147,10 +139,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>不带W的方向键+空格</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>被击飞</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -191,10 +179,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>不带W的方向键+空格</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>空中死亡</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -279,15 +263,59 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>翻滚</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>地面死亡起身</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>空中跳跃</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面冲刺</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>方向键+Shift</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>不带W的方向键+Shift</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲刺：冲刺主要按键是Shift，然后配合不同方向键使用，使冲刺方向不同</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>空中下坠：从空中下落的动画，角色身上的轻物件会向上飘动</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>空中跳跃：也就是一个二段跳的动作</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>空中近战：空中姿态砍人的动作</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>空中远程：在空中发射飞刃的动作</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面Idel：地面的摇晃待机动作</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面跑：地面跑动动作</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面跳跃：单纯从地面跃起的动作，无落地动作</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>落地缓冲：从空中下坠动作到地面Idel的一个衔接动作，在刚接触地面时缓冲下坠的力道</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -568,7 +596,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -619,9 +647,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -987,7 +1012,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L7" sqref="L7"/>
+      <selection pane="bottomRight" activeCell="W10" sqref="W10:AG10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.25"/>
@@ -1002,41 +1027,41 @@
     <row r="1" spans="1:39" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="8"/>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="27"/>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="27"/>
-      <c r="AF1" s="27"/>
-      <c r="AG1" s="27"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="26"/>
+      <c r="AG1" s="26"/>
     </row>
     <row r="2" spans="1:39" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
@@ -1045,7 +1070,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>5</v>
@@ -1054,19 +1079,19 @@
         <v>4</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I2" s="13" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>44</v>
+        <v>20</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>8</v>
@@ -1075,81 +1100,81 @@
         <v>9</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="O2" s="8" t="s">
         <v>10</v>
       </c>
       <c r="P2" s="13" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="Q2" s="13" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="R2" s="13" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="S2" s="13" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="T2" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="U2" s="13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="V2" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="27"/>
-      <c r="AE2" s="27"/>
-      <c r="AF2" s="27"/>
-      <c r="AG2" s="27"/>
+        <v>61</v>
+      </c>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="26"/>
+      <c r="AG2" s="26"/>
     </row>
     <row r="3" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K3" s="12"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="14"/>
       <c r="O3" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
@@ -1158,60 +1183,62 @@
       <c r="T3" s="3"/>
       <c r="U3" s="12"/>
       <c r="V3" s="16"/>
-      <c r="W3" s="24"/>
-      <c r="X3" s="24"/>
-      <c r="Y3" s="24"/>
-      <c r="Z3" s="24"/>
-      <c r="AA3" s="24"/>
-      <c r="AB3" s="24"/>
-      <c r="AC3" s="24"/>
-      <c r="AD3" s="24"/>
-      <c r="AE3" s="24"/>
-      <c r="AF3" s="24"/>
-      <c r="AG3" s="24"/>
-      <c r="AI3" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ3" s="21"/>
-      <c r="AK3" s="21"/>
-      <c r="AL3" s="21"/>
-      <c r="AM3" s="21"/>
+      <c r="W3" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="23"/>
+      <c r="AF3" s="23"/>
+      <c r="AG3" s="23"/>
+      <c r="AI3" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ3" s="20"/>
+      <c r="AK3" s="20"/>
+      <c r="AL3" s="20"/>
+      <c r="AM3" s="20"/>
     </row>
     <row r="4" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="13" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K4" s="12"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="14"/>
       <c r="O4" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
@@ -1220,62 +1247,64 @@
       <c r="T4" s="3"/>
       <c r="U4" s="12"/>
       <c r="V4" s="16"/>
-      <c r="W4" s="24"/>
-      <c r="X4" s="24"/>
-      <c r="Y4" s="24"/>
-      <c r="Z4" s="24"/>
-      <c r="AA4" s="24"/>
-      <c r="AB4" s="24"/>
-      <c r="AC4" s="24"/>
-      <c r="AD4" s="24"/>
-      <c r="AE4" s="24"/>
-      <c r="AF4" s="24"/>
-      <c r="AG4" s="24"/>
+      <c r="W4" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="X4" s="23"/>
+      <c r="Y4" s="23"/>
+      <c r="Z4" s="23"/>
+      <c r="AA4" s="23"/>
+      <c r="AB4" s="23"/>
+      <c r="AC4" s="23"/>
+      <c r="AD4" s="23"/>
+      <c r="AE4" s="23"/>
+      <c r="AF4" s="23"/>
+      <c r="AG4" s="23"/>
       <c r="AI4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="AJ4" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="AK4" s="22"/>
-      <c r="AL4" s="22"/>
-      <c r="AM4" s="22"/>
+        <v>14</v>
+      </c>
+      <c r="AJ4" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK4" s="21"/>
+      <c r="AL4" s="21"/>
+      <c r="AM4" s="21"/>
     </row>
     <row r="5" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K5" s="12"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="14"/>
       <c r="O5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
@@ -1284,62 +1313,64 @@
       <c r="T5" s="3"/>
       <c r="U5" s="12"/>
       <c r="V5" s="16"/>
-      <c r="W5" s="24"/>
-      <c r="X5" s="24"/>
-      <c r="Y5" s="24"/>
-      <c r="Z5" s="24"/>
-      <c r="AA5" s="24"/>
-      <c r="AB5" s="24"/>
-      <c r="AC5" s="24"/>
-      <c r="AD5" s="24"/>
-      <c r="AE5" s="24"/>
-      <c r="AF5" s="24"/>
-      <c r="AG5" s="24"/>
+      <c r="W5" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="X5" s="23"/>
+      <c r="Y5" s="23"/>
+      <c r="Z5" s="23"/>
+      <c r="AA5" s="23"/>
+      <c r="AB5" s="23"/>
+      <c r="AC5" s="23"/>
+      <c r="AD5" s="23"/>
+      <c r="AE5" s="23"/>
+      <c r="AF5" s="23"/>
+      <c r="AG5" s="23"/>
       <c r="AI5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AJ5" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AK5" s="22"/>
-      <c r="AL5" s="22"/>
-      <c r="AM5" s="22"/>
+        <v>23</v>
+      </c>
+      <c r="AJ5" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK5" s="21"/>
+      <c r="AL5" s="21"/>
+      <c r="AM5" s="21"/>
     </row>
     <row r="6" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K6" s="12"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="14"/>
       <c r="O6" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
@@ -1348,64 +1379,64 @@
       <c r="T6" s="3"/>
       <c r="U6" s="12"/>
       <c r="V6" s="16"/>
-      <c r="W6" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="X6" s="24"/>
-      <c r="Y6" s="24"/>
-      <c r="Z6" s="24"/>
-      <c r="AA6" s="24"/>
-      <c r="AB6" s="24"/>
-      <c r="AC6" s="24"/>
-      <c r="AD6" s="24"/>
-      <c r="AE6" s="24"/>
-      <c r="AF6" s="24"/>
-      <c r="AG6" s="24"/>
+      <c r="W6" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="X6" s="23"/>
+      <c r="Y6" s="23"/>
+      <c r="Z6" s="23"/>
+      <c r="AA6" s="23"/>
+      <c r="AB6" s="23"/>
+      <c r="AC6" s="23"/>
+      <c r="AD6" s="23"/>
+      <c r="AE6" s="23"/>
+      <c r="AF6" s="23"/>
+      <c r="AG6" s="23"/>
       <c r="AI6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="AJ6" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK6" s="22"/>
-      <c r="AL6" s="22"/>
-      <c r="AM6" s="22"/>
+        <v>22</v>
+      </c>
+      <c r="AJ6" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK6" s="21"/>
+      <c r="AL6" s="21"/>
+      <c r="AM6" s="21"/>
     </row>
     <row r="7" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K7" s="12"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="14"/>
       <c r="O7" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
@@ -1414,62 +1445,64 @@
       <c r="T7" s="3"/>
       <c r="U7" s="12"/>
       <c r="V7" s="16"/>
-      <c r="W7" s="24"/>
-      <c r="X7" s="24"/>
-      <c r="Y7" s="24"/>
-      <c r="Z7" s="24"/>
-      <c r="AA7" s="24"/>
-      <c r="AB7" s="24"/>
-      <c r="AC7" s="24"/>
-      <c r="AD7" s="24"/>
-      <c r="AE7" s="24"/>
-      <c r="AF7" s="24"/>
-      <c r="AG7" s="24"/>
+      <c r="W7" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="X7" s="23"/>
+      <c r="Y7" s="23"/>
+      <c r="Z7" s="23"/>
+      <c r="AA7" s="23"/>
+      <c r="AB7" s="23"/>
+      <c r="AC7" s="23"/>
+      <c r="AD7" s="23"/>
+      <c r="AE7" s="23"/>
+      <c r="AF7" s="23"/>
+      <c r="AG7" s="23"/>
       <c r="AI7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AJ7" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK7" s="22"/>
-      <c r="AL7" s="22"/>
-      <c r="AM7" s="22"/>
+        <v>27</v>
+      </c>
+      <c r="AJ7" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK7" s="21"/>
+      <c r="AL7" s="21"/>
+      <c r="AM7" s="21"/>
     </row>
     <row r="8" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="13" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K8" s="12"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="14"/>
       <c r="O8" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
@@ -1478,60 +1511,60 @@
       <c r="T8" s="3"/>
       <c r="U8" s="12"/>
       <c r="V8" s="16"/>
-      <c r="W8" s="28"/>
-      <c r="X8" s="29"/>
-      <c r="Y8" s="29"/>
-      <c r="Z8" s="29"/>
-      <c r="AA8" s="29"/>
-      <c r="AB8" s="29"/>
-      <c r="AC8" s="29"/>
-      <c r="AD8" s="29"/>
-      <c r="AE8" s="29"/>
-      <c r="AF8" s="29"/>
-      <c r="AG8" s="30"/>
+      <c r="W8" s="27"/>
+      <c r="X8" s="28"/>
+      <c r="Y8" s="28"/>
+      <c r="Z8" s="28"/>
+      <c r="AA8" s="28"/>
+      <c r="AB8" s="28"/>
+      <c r="AC8" s="28"/>
+      <c r="AD8" s="28"/>
+      <c r="AE8" s="28"/>
+      <c r="AF8" s="28"/>
+      <c r="AG8" s="29"/>
       <c r="AI8" s="3"/>
-      <c r="AJ8" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="AK8" s="22"/>
-      <c r="AL8" s="22"/>
-      <c r="AM8" s="22"/>
+      <c r="AJ8" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK8" s="21"/>
+      <c r="AL8" s="21"/>
+      <c r="AM8" s="21"/>
     </row>
     <row r="9" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="K9" s="12"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="14"/>
       <c r="O9" s="6" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
@@ -1540,53 +1573,55 @@
       <c r="T9" s="3"/>
       <c r="U9" s="12"/>
       <c r="V9" s="16"/>
-      <c r="W9" s="24"/>
-      <c r="X9" s="24"/>
-      <c r="Y9" s="24"/>
-      <c r="Z9" s="24"/>
-      <c r="AA9" s="24"/>
-      <c r="AB9" s="24"/>
-      <c r="AC9" s="24"/>
-      <c r="AD9" s="24"/>
-      <c r="AE9" s="24"/>
-      <c r="AF9" s="24"/>
-      <c r="AG9" s="24"/>
+      <c r="W9" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="X9" s="23"/>
+      <c r="Y9" s="23"/>
+      <c r="Z9" s="23"/>
+      <c r="AA9" s="23"/>
+      <c r="AB9" s="23"/>
+      <c r="AC9" s="23"/>
+      <c r="AD9" s="23"/>
+      <c r="AE9" s="23"/>
+      <c r="AF9" s="23"/>
+      <c r="AG9" s="23"/>
     </row>
     <row r="10" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K10" s="12"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="14"/>
       <c r="O10" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
@@ -1595,24 +1630,24 @@
       <c r="T10" s="3"/>
       <c r="U10" s="12"/>
       <c r="V10" s="16"/>
-      <c r="W10" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="X10" s="24"/>
-      <c r="Y10" s="24"/>
-      <c r="Z10" s="24"/>
-      <c r="AA10" s="24"/>
-      <c r="AB10" s="24"/>
-      <c r="AC10" s="24"/>
-      <c r="AD10" s="24"/>
-      <c r="AE10" s="24"/>
-      <c r="AF10" s="24"/>
-      <c r="AG10" s="24"/>
+      <c r="W10" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="X10" s="23"/>
+      <c r="Y10" s="23"/>
+      <c r="Z10" s="23"/>
+      <c r="AA10" s="23"/>
+      <c r="AB10" s="23"/>
+      <c r="AC10" s="23"/>
+      <c r="AD10" s="23"/>
+      <c r="AE10" s="23"/>
+      <c r="AF10" s="23"/>
+      <c r="AG10" s="23"/>
     </row>
     <row r="11" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="8" t="s">
-        <v>44</v>
+      <c r="A11" s="19"/>
+      <c r="B11" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -1627,7 +1662,7 @@
       <c r="M11" s="12"/>
       <c r="N11" s="14"/>
       <c r="O11" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P11" s="12"/>
       <c r="Q11" s="12"/>
@@ -1636,35 +1671,35 @@
       <c r="T11" s="12"/>
       <c r="U11" s="12"/>
       <c r="V11" s="16"/>
-      <c r="W11" s="24"/>
-      <c r="X11" s="24"/>
-      <c r="Y11" s="24"/>
-      <c r="Z11" s="24"/>
-      <c r="AA11" s="24"/>
-      <c r="AB11" s="24"/>
-      <c r="AC11" s="24"/>
-      <c r="AD11" s="24"/>
-      <c r="AE11" s="24"/>
-      <c r="AF11" s="24"/>
-      <c r="AG11" s="24"/>
+      <c r="W11" s="23"/>
+      <c r="X11" s="23"/>
+      <c r="Y11" s="23"/>
+      <c r="Z11" s="23"/>
+      <c r="AA11" s="23"/>
+      <c r="AB11" s="23"/>
+      <c r="AC11" s="23"/>
+      <c r="AD11" s="23"/>
+      <c r="AE11" s="23"/>
+      <c r="AF11" s="23"/>
+      <c r="AG11" s="23"/>
     </row>
     <row r="12" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="12"/>
@@ -1672,7 +1707,7 @@
       <c r="M12" s="3"/>
       <c r="N12" s="14"/>
       <c r="O12" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
@@ -1681,85 +1716,89 @@
       <c r="T12" s="3"/>
       <c r="U12" s="12"/>
       <c r="V12" s="16"/>
-      <c r="W12" s="24"/>
-      <c r="X12" s="24"/>
-      <c r="Y12" s="24"/>
-      <c r="Z12" s="24"/>
-      <c r="AA12" s="24"/>
-      <c r="AB12" s="24"/>
-      <c r="AC12" s="24"/>
-      <c r="AD12" s="24"/>
-      <c r="AE12" s="24"/>
-      <c r="AF12" s="24"/>
-      <c r="AG12" s="24"/>
+      <c r="W12" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="X12" s="23"/>
+      <c r="Y12" s="23"/>
+      <c r="Z12" s="23"/>
+      <c r="AA12" s="23"/>
+      <c r="AB12" s="23"/>
+      <c r="AC12" s="23"/>
+      <c r="AD12" s="23"/>
+      <c r="AE12" s="23"/>
+      <c r="AF12" s="23"/>
+      <c r="AG12" s="23"/>
     </row>
     <row r="13" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="12"/>
       <c r="L13" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O13" s="3"/>
       <c r="P13" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S13" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U13" s="12"/>
       <c r="V13" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="W13" s="24"/>
-      <c r="X13" s="24"/>
-      <c r="Y13" s="24"/>
-      <c r="Z13" s="24"/>
-      <c r="AA13" s="24"/>
-      <c r="AB13" s="24"/>
-      <c r="AC13" s="24"/>
-      <c r="AD13" s="24"/>
-      <c r="AE13" s="24"/>
-      <c r="AF13" s="24"/>
-      <c r="AG13" s="24"/>
+        <v>14</v>
+      </c>
+      <c r="W13" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="X13" s="23"/>
+      <c r="Y13" s="23"/>
+      <c r="Z13" s="23"/>
+      <c r="AA13" s="23"/>
+      <c r="AB13" s="23"/>
+      <c r="AC13" s="23"/>
+      <c r="AD13" s="23"/>
+      <c r="AE13" s="23"/>
+      <c r="AF13" s="23"/>
+      <c r="AG13" s="23"/>
     </row>
     <row r="14" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
@@ -1771,46 +1810,48 @@
       <c r="J14" s="14"/>
       <c r="K14" s="14"/>
       <c r="L14" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="M14" s="14"/>
       <c r="N14" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="O14" s="14"/>
       <c r="P14" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="S14" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="T14" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="U14" s="14"/>
       <c r="V14" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="W14" s="24"/>
-      <c r="X14" s="24"/>
-      <c r="Y14" s="24"/>
-      <c r="Z14" s="24"/>
-      <c r="AA14" s="24"/>
-      <c r="AB14" s="24"/>
-      <c r="AC14" s="24"/>
-      <c r="AD14" s="24"/>
-      <c r="AE14" s="24"/>
-      <c r="AF14" s="24"/>
-      <c r="AG14" s="24"/>
+        <v>57</v>
+      </c>
+      <c r="W14" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="X14" s="23"/>
+      <c r="Y14" s="23"/>
+      <c r="Z14" s="23"/>
+      <c r="AA14" s="23"/>
+      <c r="AB14" s="23"/>
+      <c r="AC14" s="23"/>
+      <c r="AD14" s="23"/>
+      <c r="AE14" s="23"/>
+      <c r="AF14" s="23"/>
+      <c r="AG14" s="23"/>
     </row>
     <row r="15" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
+      <c r="A15" s="19"/>
       <c r="B15" s="8" t="s">
         <v>10</v>
       </c>
@@ -1825,45 +1866,47 @@
       <c r="K15" s="12"/>
       <c r="L15" s="3"/>
       <c r="M15" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N15" s="14"/>
       <c r="O15" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P15" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Q15" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="R15" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S15" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="T15" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="U15" s="12"/>
       <c r="V15" s="16"/>
-      <c r="W15" s="24"/>
-      <c r="X15" s="24"/>
-      <c r="Y15" s="24"/>
-      <c r="Z15" s="24"/>
-      <c r="AA15" s="24"/>
-      <c r="AB15" s="24"/>
-      <c r="AC15" s="24"/>
-      <c r="AD15" s="24"/>
-      <c r="AE15" s="24"/>
-      <c r="AF15" s="24"/>
-      <c r="AG15" s="24"/>
+      <c r="W15" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="X15" s="23"/>
+      <c r="Y15" s="23"/>
+      <c r="Z15" s="23"/>
+      <c r="AA15" s="23"/>
+      <c r="AB15" s="23"/>
+      <c r="AC15" s="23"/>
+      <c r="AD15" s="23"/>
+      <c r="AE15" s="23"/>
+      <c r="AF15" s="23"/>
+      <c r="AG15" s="23"/>
     </row>
     <row r="16" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1873,48 +1916,48 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K16" s="12"/>
       <c r="L16" s="3"/>
       <c r="M16" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N16" s="14"/>
       <c r="O16" s="3"/>
       <c r="P16" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T16" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="U16" s="12"/>
       <c r="V16" s="16"/>
-      <c r="W16" s="24"/>
-      <c r="X16" s="24"/>
-      <c r="Y16" s="24"/>
-      <c r="Z16" s="24"/>
-      <c r="AA16" s="24"/>
-      <c r="AB16" s="24"/>
-      <c r="AC16" s="24"/>
-      <c r="AD16" s="24"/>
-      <c r="AE16" s="24"/>
-      <c r="AF16" s="24"/>
-      <c r="AG16" s="24"/>
+      <c r="W16" s="23"/>
+      <c r="X16" s="23"/>
+      <c r="Y16" s="23"/>
+      <c r="Z16" s="23"/>
+      <c r="AA16" s="23"/>
+      <c r="AB16" s="23"/>
+      <c r="AC16" s="23"/>
+      <c r="AD16" s="23"/>
+      <c r="AE16" s="23"/>
+      <c r="AF16" s="23"/>
+      <c r="AG16" s="23"/>
     </row>
     <row r="17" spans="1:33" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="13" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1927,43 +1970,43 @@
       <c r="K17" s="12"/>
       <c r="L17" s="3"/>
       <c r="M17" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N17" s="14"/>
       <c r="O17" s="3"/>
       <c r="P17" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q17" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R17" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S17" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="T17" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U17" s="12"/>
       <c r="V17" s="16"/>
-      <c r="W17" s="24"/>
-      <c r="X17" s="24"/>
-      <c r="Y17" s="24"/>
-      <c r="Z17" s="24"/>
-      <c r="AA17" s="24"/>
-      <c r="AB17" s="24"/>
-      <c r="AC17" s="24"/>
-      <c r="AD17" s="24"/>
-      <c r="AE17" s="24"/>
-      <c r="AF17" s="24"/>
-      <c r="AG17" s="24"/>
+      <c r="W17" s="23"/>
+      <c r="X17" s="23"/>
+      <c r="Y17" s="23"/>
+      <c r="Z17" s="23"/>
+      <c r="AA17" s="23"/>
+      <c r="AB17" s="23"/>
+      <c r="AC17" s="23"/>
+      <c r="AD17" s="23"/>
+      <c r="AE17" s="23"/>
+      <c r="AF17" s="23"/>
+      <c r="AG17" s="23"/>
     </row>
     <row r="18" spans="1:33" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="13" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1976,41 +2019,41 @@
       <c r="K18" s="12"/>
       <c r="L18" s="3"/>
       <c r="M18" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N18" s="14"/>
       <c r="O18" s="3"/>
       <c r="P18" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R18" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S18" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="T18" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="U18" s="12"/>
       <c r="V18" s="16"/>
-      <c r="W18" s="24"/>
-      <c r="X18" s="24"/>
-      <c r="Y18" s="24"/>
-      <c r="Z18" s="24"/>
-      <c r="AA18" s="24"/>
-      <c r="AB18" s="24"/>
-      <c r="AC18" s="24"/>
-      <c r="AD18" s="24"/>
-      <c r="AE18" s="24"/>
-      <c r="AF18" s="24"/>
-      <c r="AG18" s="24"/>
+      <c r="W18" s="23"/>
+      <c r="X18" s="23"/>
+      <c r="Y18" s="23"/>
+      <c r="Z18" s="23"/>
+      <c r="AA18" s="23"/>
+      <c r="AB18" s="23"/>
+      <c r="AC18" s="23"/>
+      <c r="AD18" s="23"/>
+      <c r="AE18" s="23"/>
+      <c r="AF18" s="23"/>
+      <c r="AG18" s="23"/>
     </row>
     <row r="19" spans="1:33" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="13" t="s">
         <v>13</v>
       </c>
@@ -2024,48 +2067,48 @@
       <c r="J19" s="3"/>
       <c r="K19" s="12"/>
       <c r="L19" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N19" s="14"/>
       <c r="O19" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R19" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S19" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="T19" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="U19" s="12"/>
       <c r="V19" s="16"/>
-      <c r="W19" s="24"/>
-      <c r="X19" s="24"/>
-      <c r="Y19" s="24"/>
-      <c r="Z19" s="24"/>
-      <c r="AA19" s="24"/>
-      <c r="AB19" s="24"/>
-      <c r="AC19" s="24"/>
-      <c r="AD19" s="24"/>
-      <c r="AE19" s="24"/>
-      <c r="AF19" s="24"/>
-      <c r="AG19" s="24"/>
+      <c r="W19" s="23"/>
+      <c r="X19" s="23"/>
+      <c r="Y19" s="23"/>
+      <c r="Z19" s="23"/>
+      <c r="AA19" s="23"/>
+      <c r="AB19" s="23"/>
+      <c r="AC19" s="23"/>
+      <c r="AD19" s="23"/>
+      <c r="AE19" s="23"/>
+      <c r="AF19" s="23"/>
+      <c r="AG19" s="23"/>
     </row>
     <row r="20" spans="1:33" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="13" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -2077,50 +2120,50 @@
       <c r="J20" s="3"/>
       <c r="K20" s="12"/>
       <c r="L20" s="6" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="N20" s="14"/>
       <c r="O20" s="6" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="P20" s="6" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="Q20" s="6" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="R20" s="6" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="S20" s="6" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="T20" s="6" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="U20" s="12"/>
-      <c r="V20" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="W20" s="24"/>
-      <c r="X20" s="24"/>
-      <c r="Y20" s="24"/>
-      <c r="Z20" s="24"/>
-      <c r="AA20" s="24"/>
-      <c r="AB20" s="24"/>
-      <c r="AC20" s="24"/>
-      <c r="AD20" s="24"/>
-      <c r="AE20" s="24"/>
-      <c r="AF20" s="24"/>
-      <c r="AG20" s="24"/>
+      <c r="V20" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="W20" s="23"/>
+      <c r="X20" s="23"/>
+      <c r="Y20" s="23"/>
+      <c r="Z20" s="23"/>
+      <c r="AA20" s="23"/>
+      <c r="AB20" s="23"/>
+      <c r="AC20" s="23"/>
+      <c r="AD20" s="23"/>
+      <c r="AE20" s="23"/>
+      <c r="AF20" s="23"/>
+      <c r="AG20" s="23"/>
     </row>
     <row r="21" spans="1:33" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
+      <c r="A21" s="19"/>
       <c r="B21" s="13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
@@ -2131,7 +2174,7 @@
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
       <c r="K21" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
@@ -2143,20 +2186,20 @@
       <c r="S21" s="12"/>
       <c r="T21" s="12"/>
       <c r="U21" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="V21" s="16"/>
-      <c r="W21" s="24"/>
-      <c r="X21" s="24"/>
-      <c r="Y21" s="24"/>
-      <c r="Z21" s="24"/>
-      <c r="AA21" s="24"/>
-      <c r="AB21" s="24"/>
-      <c r="AC21" s="24"/>
-      <c r="AD21" s="24"/>
-      <c r="AE21" s="24"/>
-      <c r="AF21" s="24"/>
-      <c r="AG21" s="24"/>
+      <c r="W21" s="23"/>
+      <c r="X21" s="23"/>
+      <c r="Y21" s="23"/>
+      <c r="Z21" s="23"/>
+      <c r="AA21" s="23"/>
+      <c r="AB21" s="23"/>
+      <c r="AC21" s="23"/>
+      <c r="AD21" s="23"/>
+      <c r="AE21" s="23"/>
+      <c r="AF21" s="23"/>
+      <c r="AG21" s="23"/>
     </row>
     <row r="22" spans="1:33" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:33" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2235,19 +2278,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2297,18 +2340,18 @@
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
       <c r="B1" s="8"/>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
     </row>
     <row r="2" spans="1:25" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
@@ -2332,7 +2375,7 @@
         <v>9</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>11</v>
@@ -2345,7 +2388,7 @@
       </c>
     </row>
     <row r="3" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -2363,7 +2406,7 @@
       <c r="L3" s="7"/>
     </row>
     <row r="4" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
+      <c r="A4" s="33"/>
       <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
@@ -2379,7 +2422,7 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
+      <c r="A5" s="33"/>
       <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
@@ -2395,7 +2438,7 @@
       <c r="L5" s="7"/>
     </row>
     <row r="6" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="8" t="s">
         <v>6</v>
       </c>
@@ -2411,7 +2454,7 @@
       <c r="L6" s="7"/>
     </row>
     <row r="7" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="8" t="s">
         <v>8</v>
       </c>
@@ -2427,7 +2470,7 @@
       <c r="L7" s="7"/>
     </row>
     <row r="8" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="8" t="s">
         <v>9</v>
       </c>
@@ -2442,17 +2485,17 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="U8" s="4"/>
-      <c r="V8" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="W8" s="22"/>
-      <c r="X8" s="22"/>
-      <c r="Y8" s="22"/>
+      <c r="V8" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="W8" s="21"/>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="21"/>
     </row>
     <row r="9" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -2466,7 +2509,7 @@
       <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="8" t="s">
         <v>11</v>
       </c>
@@ -2482,7 +2525,7 @@
       <c r="L10" s="5"/>
     </row>
     <row r="11" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="8" t="s">
         <v>12</v>
       </c>
@@ -2498,7 +2541,7 @@
       <c r="L11" s="5"/>
     </row>
     <row r="12" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="8" t="s">
         <v>13</v>
       </c>
@@ -2540,12 +2583,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="45.6" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/DesignDocuments/机制、系统、数值/主角、怪物状态转移矩阵.xlsx
+++ b/DesignDocuments/机制、系统、数值/主角、怪物状态转移矩阵.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="86">
   <si>
     <t>当前状态</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -187,10 +187,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>地面死亡起身</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>Q键</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -235,14 +231,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>蓄力：只要按下时就会开始播近战动作，到达最小蓄力时间后播蓄力攻击动作</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>按Q收刀：收回距离角色本身最近的插中木质道具的一把刀</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>地面跑</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -263,10 +251,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>地面死亡起身</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>空中跳跃</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -283,39 +267,100 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>冲刺：冲刺主要按键是Shift，然后配合不同方向键使用，使冲刺方向不同</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>空中下坠：从空中下落的动画，角色身上的轻物件会向上飘动</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>空中跳跃：也就是一个二段跳的动作</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>空中近战：空中姿态砍人的动作</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>空中远程：在空中发射飞刃的动作</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>地面Idel：地面的摇晃待机动作</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>地面跑：地面跑动动作</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>地面跳跃：单纯从地面跃起的动作，无落地动作</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>落地缓冲：从空中下坠动作到地面Idel的一个衔接动作，在刚接触地面时缓冲下坠的力道</t>
+    <t>空中远程：在空中发射飞刃的动作。短按鼠标左键对应空中发出一把飞刃，这把飞刃可以插中可勾取物体（木块、弱点等）；</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>按Q收刀：收回距离角色本身最近的插中木质道具的一把飞刃；
+按E收刀：收回所有悬浮于空中的飞刃；</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面倒地起身</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面短程冲刺</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>空中硬直：在空中受到攻击之后产生的硬直，被动进入；</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲刺：冲刺主要按键是Shift，然后配合不同方向键使用，使冲刺方向不同；</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>空中死亡：在空中死亡时被动进入的动作；</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>落地缓冲：从空中下坠动作到地面Idel的一个衔接动作，在刚接触地面时缓冲下坠的力道；</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面跳跃：单纯从地面跃起的动作，无落地动作；</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓄力：只要按下时就会开始播近战动作，到达最小蓄力时间后播蓄力攻击动作；</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>空中近战：空中姿态砍人的动作；</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>空中跳跃：也就是一个二段跳的动作；</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>空中下坠：从空中下落的动画，角色身上的轻物件会向上飘动；</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面近战（连招）：在地面用近战武器攻击的动作；这里需要一组个动画，玩家连续按下鼠标右键时，会在这些动画里1-》2-》3循环播放；</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面近战（蓄力）：地面近战时候进行蓄力的动作，蓄力之后会使出强力下劈动作；</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面远程：在地面发射飞刃的动作；</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>空中硬直：在地面受到攻击之后产生的硬直，被动进入；</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面冲刺：在地面消耗精力进行的冲刺动作，这个动作的中间一段时间存在无敌帧；</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面短程冲刺：在地面不用消耗精力进行的冲刺动作，这个动作的中间一段时间存在无敌帧；在冲刺距离和无敌帧时长上都相对消耗精力的冲刺更短，但消耗的时间并不短多少；</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面Idel：角色在地面的摇晃待机动作；</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面跑：角色在地面跑动动作；</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>空中死亡：在地面死亡时被动进入的动作；</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面倒地起身</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面倒地起身：从地面倒地状态起身的动作；</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -596,7 +641,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -649,19 +694,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -674,6 +707,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1006,71 +1054,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM49"/>
+  <dimension ref="A1:AH51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="W10" sqref="W10:AG10"/>
+      <selection pane="bottomRight" activeCell="X9" sqref="X9:AH9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" style="9"/>
-    <col min="3" max="22" width="8.88671875" style="1"/>
-    <col min="23" max="33" width="7" style="15" customWidth="1"/>
-    <col min="34" max="16384" width="8.88671875" style="1"/>
+    <col min="3" max="23" width="8.88671875" style="1"/>
+    <col min="24" max="33" width="7" style="15" customWidth="1"/>
+    <col min="34" max="34" width="54.88671875" style="15" customWidth="1"/>
+    <col min="35" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="8"/>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26"/>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="26"/>
-      <c r="AG1" s="26"/>
-    </row>
-    <row r="2" spans="1:39" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
+    </row>
+    <row r="2" spans="1:34" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>5</v>
@@ -1079,10 +1129,10 @@
         <v>4</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I2" s="13" t="s">
         <v>7</v>
@@ -1100,46 +1150,49 @@
         <v>9</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="O2" s="8" t="s">
         <v>10</v>
       </c>
       <c r="P2" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q2" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="R2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="R2" s="13" t="s">
-        <v>49</v>
-      </c>
       <c r="S2" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="T2" s="13" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="U2" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="V2" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="26"/>
-      <c r="AG2" s="26"/>
-    </row>
-    <row r="3" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="W2" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="22"/>
+      <c r="AH2" s="22"/>
+    </row>
+    <row r="3" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -1181,33 +1234,27 @@
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="23"/>
-      <c r="AC3" s="23"/>
-      <c r="AD3" s="23"/>
-      <c r="AE3" s="23"/>
-      <c r="AF3" s="23"/>
-      <c r="AG3" s="23"/>
-      <c r="AI3" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="AJ3" s="20"/>
-      <c r="AK3" s="20"/>
-      <c r="AL3" s="20"/>
-      <c r="AM3" s="20"/>
-    </row>
-    <row r="4" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="16"/>
+      <c r="X3" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="19"/>
+      <c r="AA3" s="19"/>
+      <c r="AB3" s="19"/>
+      <c r="AC3" s="19"/>
+      <c r="AD3" s="19"/>
+      <c r="AE3" s="19"/>
+      <c r="AF3" s="19"/>
+      <c r="AG3" s="19"/>
+      <c r="AH3" s="19"/>
+    </row>
+    <row r="4" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="24"/>
       <c r="B4" s="13" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>16</v>
@@ -1245,35 +1292,27 @@
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="23"/>
-      <c r="Z4" s="23"/>
-      <c r="AA4" s="23"/>
-      <c r="AB4" s="23"/>
-      <c r="AC4" s="23"/>
-      <c r="AD4" s="23"/>
-      <c r="AE4" s="23"/>
-      <c r="AF4" s="23"/>
-      <c r="AG4" s="23"/>
-      <c r="AI4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ4" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK4" s="21"/>
-      <c r="AL4" s="21"/>
-      <c r="AM4" s="21"/>
-    </row>
-    <row r="5" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y4" s="19"/>
+      <c r="Z4" s="19"/>
+      <c r="AA4" s="19"/>
+      <c r="AB4" s="19"/>
+      <c r="AC4" s="19"/>
+      <c r="AD4" s="19"/>
+      <c r="AE4" s="19"/>
+      <c r="AF4" s="19"/>
+      <c r="AG4" s="19"/>
+      <c r="AH4" s="19"/>
+    </row>
+    <row r="5" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="24"/>
       <c r="B5" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>18</v>
@@ -1311,33 +1350,25 @@
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="X5" s="23"/>
-      <c r="Y5" s="23"/>
-      <c r="Z5" s="23"/>
-      <c r="AA5" s="23"/>
-      <c r="AB5" s="23"/>
-      <c r="AC5" s="23"/>
-      <c r="AD5" s="23"/>
-      <c r="AE5" s="23"/>
-      <c r="AF5" s="23"/>
-      <c r="AG5" s="23"/>
-      <c r="AI5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="AJ5" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK5" s="21"/>
-      <c r="AL5" s="21"/>
-      <c r="AM5" s="21"/>
-    </row>
-    <row r="6" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="16"/>
+      <c r="X5" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="19"/>
+      <c r="AB5" s="19"/>
+      <c r="AC5" s="19"/>
+      <c r="AD5" s="19"/>
+      <c r="AE5" s="19"/>
+      <c r="AF5" s="19"/>
+      <c r="AG5" s="19"/>
+      <c r="AH5" s="19"/>
+    </row>
+    <row r="6" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="24"/>
       <c r="B6" s="13" t="s">
         <v>4</v>
       </c>
@@ -1377,35 +1408,27 @@
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="X6" s="23"/>
-      <c r="Y6" s="23"/>
-      <c r="Z6" s="23"/>
-      <c r="AA6" s="23"/>
-      <c r="AB6" s="23"/>
-      <c r="AC6" s="23"/>
-      <c r="AD6" s="23"/>
-      <c r="AE6" s="23"/>
-      <c r="AF6" s="23"/>
-      <c r="AG6" s="23"/>
-      <c r="AI6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="AJ6" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="AK6" s="21"/>
-      <c r="AL6" s="21"/>
-      <c r="AM6" s="21"/>
-    </row>
-    <row r="7" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y6" s="19"/>
+      <c r="Z6" s="19"/>
+      <c r="AA6" s="19"/>
+      <c r="AB6" s="19"/>
+      <c r="AC6" s="19"/>
+      <c r="AD6" s="19"/>
+      <c r="AE6" s="19"/>
+      <c r="AF6" s="19"/>
+      <c r="AG6" s="19"/>
+      <c r="AH6" s="19"/>
+    </row>
+    <row r="7" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="24"/>
       <c r="B7" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>17</v>
@@ -1443,33 +1466,25 @@
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="X7" s="23"/>
-      <c r="Y7" s="23"/>
-      <c r="Z7" s="23"/>
-      <c r="AA7" s="23"/>
-      <c r="AB7" s="23"/>
-      <c r="AC7" s="23"/>
-      <c r="AD7" s="23"/>
-      <c r="AE7" s="23"/>
-      <c r="AF7" s="23"/>
-      <c r="AG7" s="23"/>
-      <c r="AI7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="AJ7" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK7" s="21"/>
-      <c r="AL7" s="21"/>
-      <c r="AM7" s="21"/>
-    </row>
-    <row r="8" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y7" s="19"/>
+      <c r="Z7" s="19"/>
+      <c r="AA7" s="19"/>
+      <c r="AB7" s="19"/>
+      <c r="AC7" s="19"/>
+      <c r="AD7" s="19"/>
+      <c r="AE7" s="19"/>
+      <c r="AF7" s="19"/>
+      <c r="AG7" s="19"/>
+      <c r="AH7" s="19"/>
+    </row>
+    <row r="8" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="24"/>
       <c r="B8" s="13" t="s">
         <v>6</v>
       </c>
@@ -1509,143 +1524,141 @@
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="27"/>
-      <c r="X8" s="28"/>
-      <c r="Y8" s="28"/>
-      <c r="Z8" s="28"/>
-      <c r="AA8" s="28"/>
-      <c r="AB8" s="28"/>
-      <c r="AC8" s="28"/>
-      <c r="AD8" s="28"/>
-      <c r="AE8" s="28"/>
-      <c r="AF8" s="28"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y8" s="29"/>
+      <c r="Z8" s="29"/>
+      <c r="AA8" s="29"/>
+      <c r="AB8" s="29"/>
+      <c r="AC8" s="29"/>
+      <c r="AD8" s="29"/>
+      <c r="AE8" s="29"/>
+      <c r="AF8" s="29"/>
       <c r="AG8" s="29"/>
-      <c r="AI8" s="3"/>
-      <c r="AJ8" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK8" s="21"/>
-      <c r="AL8" s="21"/>
-      <c r="AM8" s="21"/>
-    </row>
-    <row r="9" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
+      <c r="AH8" s="30"/>
+    </row>
+    <row r="9" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="24"/>
       <c r="B9" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K9" s="12"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="14"/>
       <c r="O9" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="X9" s="23"/>
-      <c r="Y9" s="23"/>
-      <c r="Z9" s="23"/>
-      <c r="AA9" s="23"/>
-      <c r="AB9" s="23"/>
-      <c r="AC9" s="23"/>
-      <c r="AD9" s="23"/>
-      <c r="AE9" s="23"/>
-      <c r="AF9" s="23"/>
-      <c r="AG9" s="23"/>
-    </row>
-    <row r="10" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y9" s="19"/>
+      <c r="Z9" s="19"/>
+      <c r="AA9" s="19"/>
+      <c r="AB9" s="19"/>
+      <c r="AC9" s="19"/>
+      <c r="AD9" s="19"/>
+      <c r="AE9" s="19"/>
+      <c r="AF9" s="19"/>
+      <c r="AG9" s="19"/>
+      <c r="AH9" s="19"/>
+    </row>
+    <row r="10" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="24"/>
       <c r="B10" s="8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K10" s="12"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="14"/>
       <c r="O10" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="X10" s="23"/>
-      <c r="Y10" s="23"/>
-      <c r="Z10" s="23"/>
-      <c r="AA10" s="23"/>
-      <c r="AB10" s="23"/>
-      <c r="AC10" s="23"/>
-      <c r="AD10" s="23"/>
-      <c r="AE10" s="23"/>
-      <c r="AF10" s="23"/>
-      <c r="AG10" s="23"/>
-    </row>
-    <row r="11" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y10" s="19"/>
+      <c r="Z10" s="19"/>
+      <c r="AA10" s="19"/>
+      <c r="AB10" s="19"/>
+      <c r="AC10" s="19"/>
+      <c r="AD10" s="19"/>
+      <c r="AE10" s="19"/>
+      <c r="AF10" s="19"/>
+      <c r="AG10" s="19"/>
+      <c r="AH10" s="19"/>
+    </row>
+    <row r="11" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="24"/>
       <c r="B11" s="13" t="s">
         <v>40</v>
       </c>
@@ -1669,22 +1682,25 @@
       <c r="R11" s="12"/>
       <c r="S11" s="12"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="23"/>
-      <c r="X11" s="23"/>
-      <c r="Y11" s="23"/>
-      <c r="Z11" s="23"/>
-      <c r="AA11" s="23"/>
-      <c r="AB11" s="23"/>
-      <c r="AC11" s="23"/>
-      <c r="AD11" s="23"/>
-      <c r="AE11" s="23"/>
-      <c r="AF11" s="23"/>
-      <c r="AG11" s="23"/>
-    </row>
-    <row r="12" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y11" s="19"/>
+      <c r="Z11" s="19"/>
+      <c r="AA11" s="19"/>
+      <c r="AB11" s="19"/>
+      <c r="AC11" s="19"/>
+      <c r="AD11" s="19"/>
+      <c r="AE11" s="19"/>
+      <c r="AF11" s="19"/>
+      <c r="AG11" s="19"/>
+      <c r="AH11" s="19"/>
+    </row>
+    <row r="12" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="24"/>
       <c r="B12" s="8" t="s">
         <v>8</v>
       </c>
@@ -1714,24 +1730,25 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="X12" s="23"/>
-      <c r="Y12" s="23"/>
-      <c r="Z12" s="23"/>
-      <c r="AA12" s="23"/>
-      <c r="AB12" s="23"/>
-      <c r="AC12" s="23"/>
-      <c r="AD12" s="23"/>
-      <c r="AE12" s="23"/>
-      <c r="AF12" s="23"/>
-      <c r="AG12" s="23"/>
-    </row>
-    <row r="13" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y12" s="19"/>
+      <c r="Z12" s="19"/>
+      <c r="AA12" s="19"/>
+      <c r="AB12" s="19"/>
+      <c r="AC12" s="19"/>
+      <c r="AD12" s="19"/>
+      <c r="AE12" s="19"/>
+      <c r="AF12" s="19"/>
+      <c r="AG12" s="19"/>
+      <c r="AH12" s="19"/>
+    </row>
+    <row r="13" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="24"/>
       <c r="B13" s="8" t="s">
         <v>9</v>
       </c>
@@ -1777,28 +1794,31 @@
       <c r="T13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="U13" s="12"/>
-      <c r="V13" s="17" t="s">
+      <c r="U13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="W13" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="X13" s="23"/>
-      <c r="Y13" s="23"/>
-      <c r="Z13" s="23"/>
-      <c r="AA13" s="23"/>
-      <c r="AB13" s="23"/>
-      <c r="AC13" s="23"/>
-      <c r="AD13" s="23"/>
-      <c r="AE13" s="23"/>
-      <c r="AF13" s="23"/>
-      <c r="AG13" s="23"/>
-    </row>
-    <row r="14" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="X13" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y13" s="19"/>
+      <c r="Z13" s="19"/>
+      <c r="AA13" s="19"/>
+      <c r="AB13" s="19"/>
+      <c r="AC13" s="19"/>
+      <c r="AD13" s="19"/>
+      <c r="AE13" s="19"/>
+      <c r="AF13" s="19"/>
+      <c r="AG13" s="19"/>
+      <c r="AH13" s="19"/>
+    </row>
+    <row r="14" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="24"/>
       <c r="B14" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
@@ -1810,48 +1830,51 @@
       <c r="J14" s="14"/>
       <c r="K14" s="14"/>
       <c r="L14" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="M14" s="14"/>
       <c r="N14" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="O14" s="14"/>
       <c r="P14" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="S14" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="T14" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="U14" s="14"/>
-      <c r="V14" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="W14" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="X14" s="23"/>
-      <c r="Y14" s="23"/>
-      <c r="Z14" s="23"/>
-      <c r="AA14" s="23"/>
-      <c r="AB14" s="23"/>
-      <c r="AC14" s="23"/>
-      <c r="AD14" s="23"/>
-      <c r="AE14" s="23"/>
-      <c r="AF14" s="23"/>
-      <c r="AG14" s="23"/>
-    </row>
-    <row r="15" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
+        <v>54</v>
+      </c>
+      <c r="U14" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="V14" s="14"/>
+      <c r="W14" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="X14" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y14" s="19"/>
+      <c r="Z14" s="19"/>
+      <c r="AA14" s="19"/>
+      <c r="AB14" s="19"/>
+      <c r="AC14" s="19"/>
+      <c r="AD14" s="19"/>
+      <c r="AE14" s="19"/>
+      <c r="AF14" s="19"/>
+      <c r="AG14" s="19"/>
+      <c r="AH14" s="19"/>
+    </row>
+    <row r="15" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="24"/>
       <c r="B15" s="8" t="s">
         <v>10</v>
       </c>
@@ -1887,26 +1910,29 @@
       <c r="T15" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="U15" s="12"/>
-      <c r="V15" s="16"/>
-      <c r="W15" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="X15" s="23"/>
-      <c r="Y15" s="23"/>
-      <c r="Z15" s="23"/>
-      <c r="AA15" s="23"/>
-      <c r="AB15" s="23"/>
-      <c r="AC15" s="23"/>
-      <c r="AD15" s="23"/>
-      <c r="AE15" s="23"/>
-      <c r="AF15" s="23"/>
-      <c r="AG15" s="23"/>
-    </row>
-    <row r="16" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
+      <c r="U15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="V15" s="12"/>
+      <c r="W15" s="16"/>
+      <c r="X15" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y15" s="19"/>
+      <c r="Z15" s="19"/>
+      <c r="AA15" s="19"/>
+      <c r="AB15" s="19"/>
+      <c r="AC15" s="19"/>
+      <c r="AD15" s="19"/>
+      <c r="AE15" s="19"/>
+      <c r="AF15" s="19"/>
+      <c r="AG15" s="19"/>
+      <c r="AH15" s="19"/>
+    </row>
+    <row r="16" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="24"/>
       <c r="B16" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1940,24 +1966,29 @@
       <c r="T16" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="U16" s="12"/>
-      <c r="V16" s="16"/>
-      <c r="W16" s="23"/>
-      <c r="X16" s="23"/>
-      <c r="Y16" s="23"/>
-      <c r="Z16" s="23"/>
-      <c r="AA16" s="23"/>
-      <c r="AB16" s="23"/>
-      <c r="AC16" s="23"/>
-      <c r="AD16" s="23"/>
-      <c r="AE16" s="23"/>
-      <c r="AF16" s="23"/>
-      <c r="AG16" s="23"/>
-    </row>
-    <row r="17" spans="1:33" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
+      <c r="U16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="V16" s="12"/>
+      <c r="W16" s="16"/>
+      <c r="X16" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y16" s="19"/>
+      <c r="Z16" s="19"/>
+      <c r="AA16" s="19"/>
+      <c r="AB16" s="19"/>
+      <c r="AC16" s="19"/>
+      <c r="AD16" s="19"/>
+      <c r="AE16" s="19"/>
+      <c r="AF16" s="19"/>
+      <c r="AG16" s="19"/>
+      <c r="AH16" s="19"/>
+    </row>
+    <row r="17" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="24"/>
       <c r="B17" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1989,24 +2020,29 @@
       <c r="T17" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="U17" s="12"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="23"/>
-      <c r="X17" s="23"/>
-      <c r="Y17" s="23"/>
-      <c r="Z17" s="23"/>
-      <c r="AA17" s="23"/>
-      <c r="AB17" s="23"/>
-      <c r="AC17" s="23"/>
-      <c r="AD17" s="23"/>
-      <c r="AE17" s="23"/>
-      <c r="AF17" s="23"/>
-      <c r="AG17" s="23"/>
-    </row>
-    <row r="18" spans="1:33" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
+      <c r="U17" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="V17" s="12"/>
+      <c r="W17" s="16"/>
+      <c r="X17" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y17" s="19"/>
+      <c r="Z17" s="19"/>
+      <c r="AA17" s="19"/>
+      <c r="AB17" s="19"/>
+      <c r="AC17" s="19"/>
+      <c r="AD17" s="19"/>
+      <c r="AE17" s="19"/>
+      <c r="AF17" s="19"/>
+      <c r="AG17" s="19"/>
+      <c r="AH17" s="19"/>
+    </row>
+    <row r="18" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="24"/>
       <c r="B18" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -2038,22 +2074,27 @@
       <c r="T18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="U18" s="12"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="23"/>
-      <c r="X18" s="23"/>
-      <c r="Y18" s="23"/>
-      <c r="Z18" s="23"/>
-      <c r="AA18" s="23"/>
-      <c r="AB18" s="23"/>
-      <c r="AC18" s="23"/>
-      <c r="AD18" s="23"/>
-      <c r="AE18" s="23"/>
-      <c r="AF18" s="23"/>
-      <c r="AG18" s="23"/>
-    </row>
-    <row r="19" spans="1:33" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
+      <c r="U18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="V18" s="12"/>
+      <c r="W18" s="16"/>
+      <c r="X18" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y18" s="19"/>
+      <c r="Z18" s="19"/>
+      <c r="AA18" s="19"/>
+      <c r="AB18" s="19"/>
+      <c r="AC18" s="19"/>
+      <c r="AD18" s="19"/>
+      <c r="AE18" s="19"/>
+      <c r="AF18" s="19"/>
+      <c r="AG18" s="19"/>
+      <c r="AH18" s="19"/>
+    </row>
+    <row r="19" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="24"/>
       <c r="B19" s="13" t="s">
         <v>13</v>
       </c>
@@ -2091,24 +2132,29 @@
       <c r="T19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U19" s="12"/>
-      <c r="V19" s="16"/>
-      <c r="W19" s="23"/>
-      <c r="X19" s="23"/>
-      <c r="Y19" s="23"/>
-      <c r="Z19" s="23"/>
-      <c r="AA19" s="23"/>
-      <c r="AB19" s="23"/>
-      <c r="AC19" s="23"/>
-      <c r="AD19" s="23"/>
-      <c r="AE19" s="23"/>
-      <c r="AF19" s="23"/>
-      <c r="AG19" s="23"/>
-    </row>
-    <row r="20" spans="1:33" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
+      <c r="U19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="V19" s="12"/>
+      <c r="W19" s="16"/>
+      <c r="X19" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y19" s="29"/>
+      <c r="Z19" s="29"/>
+      <c r="AA19" s="29"/>
+      <c r="AB19" s="29"/>
+      <c r="AC19" s="29"/>
+      <c r="AD19" s="29"/>
+      <c r="AE19" s="29"/>
+      <c r="AF19" s="29"/>
+      <c r="AG19" s="29"/>
+      <c r="AH19" s="30"/>
+    </row>
+    <row r="20" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="24"/>
       <c r="B20" s="13" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -2120,98 +2166,276 @@
       <c r="J20" s="3"/>
       <c r="K20" s="12"/>
       <c r="L20" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="N20" s="14"/>
       <c r="O20" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P20" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q20" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="R20" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="S20" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="T20" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="U20" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="V20" s="12"/>
+      <c r="W20" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="X20" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y20" s="19"/>
+      <c r="Z20" s="19"/>
+      <c r="AA20" s="19"/>
+      <c r="AB20" s="19"/>
+      <c r="AC20" s="19"/>
+      <c r="AD20" s="19"/>
+      <c r="AE20" s="19"/>
+      <c r="AF20" s="19"/>
+      <c r="AG20" s="19"/>
+      <c r="AH20" s="19"/>
+    </row>
+    <row r="21" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="24"/>
+      <c r="B21" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="P20" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q20" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="R20" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="S20" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="T20" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="U20" s="12"/>
-      <c r="V20" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="W20" s="23"/>
-      <c r="X20" s="23"/>
-      <c r="Y20" s="23"/>
-      <c r="Z20" s="23"/>
-      <c r="AA20" s="23"/>
-      <c r="AB20" s="23"/>
-      <c r="AC20" s="23"/>
-      <c r="AD20" s="23"/>
-      <c r="AE20" s="23"/>
-      <c r="AF20" s="23"/>
-      <c r="AG20" s="23"/>
-    </row>
-    <row r="21" spans="1:33" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
-      <c r="B21" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="4" t="s">
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="N21" s="18"/>
+      <c r="O21" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P21" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q21" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="R21" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="S21" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="T21" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="U21" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="V21" s="18"/>
+      <c r="W21" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="X21" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y21" s="19"/>
+      <c r="Z21" s="19"/>
+      <c r="AA21" s="19"/>
+      <c r="AB21" s="19"/>
+      <c r="AC21" s="19"/>
+      <c r="AD21" s="19"/>
+      <c r="AE21" s="19"/>
+      <c r="AF21" s="19"/>
+      <c r="AG21" s="19"/>
+      <c r="AH21" s="19"/>
+    </row>
+    <row r="22" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="24"/>
+      <c r="B22" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N22" s="18"/>
+      <c r="O22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="T22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="V22" s="18"/>
+      <c r="W22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="X22" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y22" s="19"/>
+      <c r="Z22" s="19"/>
+      <c r="AA22" s="19"/>
+      <c r="AB22" s="19"/>
+      <c r="AC22" s="19"/>
+      <c r="AD22" s="19"/>
+      <c r="AE22" s="19"/>
+      <c r="AF22" s="19"/>
+      <c r="AG22" s="19"/>
+      <c r="AH22" s="19"/>
+    </row>
+    <row r="23" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="24"/>
+      <c r="B23" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="18"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="16"/>
+      <c r="X23" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y23" s="19"/>
+      <c r="Z23" s="19"/>
+      <c r="AA23" s="19"/>
+      <c r="AB23" s="19"/>
+      <c r="AC23" s="19"/>
+      <c r="AD23" s="19"/>
+      <c r="AE23" s="19"/>
+      <c r="AF23" s="19"/>
+      <c r="AG23" s="19"/>
+      <c r="AH23" s="19"/>
+    </row>
+    <row r="24" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G25" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+    </row>
+    <row r="26" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G26" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
-      <c r="U21" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="V21" s="16"/>
-      <c r="W21" s="23"/>
-      <c r="X21" s="23"/>
-      <c r="Y21" s="23"/>
-      <c r="Z21" s="23"/>
-      <c r="AA21" s="23"/>
-      <c r="AB21" s="23"/>
-      <c r="AC21" s="23"/>
-      <c r="AD21" s="23"/>
-      <c r="AE21" s="23"/>
-      <c r="AF21" s="23"/>
-      <c r="AG21" s="23"/>
-    </row>
-    <row r="22" spans="1:33" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:33" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:33" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:33" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:33" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:33" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:33" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:33" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:33" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:33" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:33" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="H26" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+    </row>
+    <row r="27" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G27" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+    </row>
+    <row r="28" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G28" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+    </row>
+    <row r="29" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G29" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+    </row>
+    <row r="30" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G30" s="3"/>
+      <c r="H30" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+    </row>
+    <row r="31" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2229,36 +2453,40 @@
     <row r="47" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="48" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="W20:AG20"/>
-    <mergeCell ref="W21:AG21"/>
-    <mergeCell ref="W15:AG15"/>
-    <mergeCell ref="W16:AG16"/>
-    <mergeCell ref="W17:AG17"/>
-    <mergeCell ref="W18:AG18"/>
-    <mergeCell ref="W19:AG19"/>
-    <mergeCell ref="C1:V1"/>
-    <mergeCell ref="W3:AG3"/>
-    <mergeCell ref="W4:AG4"/>
-    <mergeCell ref="W5:AG5"/>
-    <mergeCell ref="W1:AG2"/>
-    <mergeCell ref="A3:A21"/>
-    <mergeCell ref="AI3:AM3"/>
-    <mergeCell ref="AJ4:AM4"/>
-    <mergeCell ref="AJ6:AM6"/>
-    <mergeCell ref="AJ5:AM5"/>
-    <mergeCell ref="AJ8:AM8"/>
-    <mergeCell ref="AJ7:AM7"/>
-    <mergeCell ref="W14:AG14"/>
-    <mergeCell ref="W6:AG6"/>
-    <mergeCell ref="W7:AG7"/>
-    <mergeCell ref="W8:AG8"/>
-    <mergeCell ref="W9:AG9"/>
-    <mergeCell ref="W10:AG10"/>
-    <mergeCell ref="W11:AG11"/>
-    <mergeCell ref="W12:AG12"/>
-    <mergeCell ref="W13:AG13"/>
+  <mergeCells count="30">
+    <mergeCell ref="A3:A23"/>
+    <mergeCell ref="G25:K25"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="X14:AH14"/>
+    <mergeCell ref="X6:AH6"/>
+    <mergeCell ref="X7:AH7"/>
+    <mergeCell ref="X8:AH8"/>
+    <mergeCell ref="X9:AH9"/>
+    <mergeCell ref="X10:AH10"/>
+    <mergeCell ref="X11:AH11"/>
+    <mergeCell ref="X12:AH12"/>
+    <mergeCell ref="X13:AH13"/>
+    <mergeCell ref="C1:W1"/>
+    <mergeCell ref="X3:AH3"/>
+    <mergeCell ref="X4:AH4"/>
+    <mergeCell ref="X5:AH5"/>
+    <mergeCell ref="X1:AH2"/>
+    <mergeCell ref="X20:AH20"/>
+    <mergeCell ref="X23:AH23"/>
+    <mergeCell ref="X15:AH15"/>
+    <mergeCell ref="X16:AH16"/>
+    <mergeCell ref="X17:AH17"/>
+    <mergeCell ref="X18:AH18"/>
+    <mergeCell ref="X19:AH19"/>
+    <mergeCell ref="X21:AH21"/>
+    <mergeCell ref="X22:AH22"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2340,18 +2568,18 @@
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
       <c r="B1" s="8"/>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
     </row>
     <row r="2" spans="1:25" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
@@ -2388,7 +2616,7 @@
       </c>
     </row>
     <row r="3" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="33" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -2406,7 +2634,7 @@
       <c r="L3" s="7"/>
     </row>
     <row r="4" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
@@ -2422,7 +2650,7 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
@@ -2438,7 +2666,7 @@
       <c r="L5" s="7"/>
     </row>
     <row r="6" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="8" t="s">
         <v>6</v>
       </c>
@@ -2454,7 +2682,7 @@
       <c r="L6" s="7"/>
     </row>
     <row r="7" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="8" t="s">
         <v>8</v>
       </c>
@@ -2470,7 +2698,7 @@
       <c r="L7" s="7"/>
     </row>
     <row r="8" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="8" t="s">
         <v>9</v>
       </c>
@@ -2485,15 +2713,15 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="U8" s="4"/>
-      <c r="V8" s="34" t="s">
+      <c r="V8" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="W8" s="21"/>
-      <c r="X8" s="21"/>
-      <c r="Y8" s="21"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="26"/>
     </row>
     <row r="9" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="8" t="s">
         <v>35</v>
       </c>
@@ -2509,7 +2737,7 @@
       <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="8" t="s">
         <v>11</v>
       </c>
@@ -2525,7 +2753,7 @@
       <c r="L10" s="5"/>
     </row>
     <row r="11" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="8" t="s">
         <v>12</v>
       </c>
@@ -2541,7 +2769,7 @@
       <c r="L11" s="5"/>
     </row>
     <row r="12" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="8" t="s">
         <v>13</v>
       </c>

--- a/DesignDocuments/机制、系统、数值/主角、怪物状态转移矩阵.xlsx
+++ b/DesignDocuments/机制、系统、数值/主角、怪物状态转移矩阵.xlsx
@@ -17,364 +17,605 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="114">
   <si>
     <t>当前状态</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>可衔接状态</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>空中下坠</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>空中跳跃</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>空中近战蓄力</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>空中近战（连招）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>空中硬直</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>空中冲刺</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>落地缓冲</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>地面Idle</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>地面跳跃</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>地面近战（连招）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>地面远程</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>地面硬直</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>默认</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>接触地面</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>空格</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>左键</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>右键</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>被动</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>空中收回勾刃</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>表示不作操作时的默认状态转换</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>输入</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>被动</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>表示输入对应操作时允许的状态转换</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>不支持的状态转换</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>右键（长按）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>接触地面</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>在当前状态下接触地面才会默认触发的状态转换。接触地面后，不可直接触发任何空中状态</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>带W的方向键+空格</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>被击飞</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>→</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>落地</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>起身</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>地面起跳</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>表示状态可切换</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>破绽硬直</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>破绽硬直起身</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>带W的方向键+空格</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>空中死亡</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>地面死亡</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Q键</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>图示</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>表示受外界影响强制进行的状态转换</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>空中远程</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>地面近战（连招）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>地面近战蓄力</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>地面远程</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>空中近战（连招）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>地面近战（连招）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>地面远程</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>地面跑</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>带W/D方向键</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>空中收回勾刃</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>空中硬直</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>地面硬直</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>空中跳跃</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>地面冲刺</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>方向键+Shift</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>不带W的方向键+Shift</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>空中远程：在空中发射飞刃的动作。短按鼠标左键对应空中发出一把飞刃，这把飞刃可以插中可勾取物体（木块、弱点等）；</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>按Q收刀：收回距离角色本身最近的插中木质道具的一把飞刃；
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面倒地起身</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面短程冲刺</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>空中硬直：在空中受到攻击之后产生的硬直，被动进入；</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>空中死亡：在空中死亡时被动进入的动作；</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>落地缓冲：从空中下坠动作到地面Idel的一个衔接动作，在刚接触地面时缓冲下坠的力道；</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面跳跃：单纯从地面跃起的动作，无落地动作；</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>空中跳跃：也就是一个二段跳的动作；</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>空中下坠：从空中下落的动画，角色身上的轻物件会向上飘动；</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面近战（连招）：在地面用近战武器攻击的动作；这里需要一组个动画，玩家连续按下鼠标右键时，会在这些动画里1-》2-》3循环播放；</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面近战（蓄力）：地面近战时候进行蓄力的动作，蓄力之后会使出强力下劈动作；</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面远程：在地面发射飞刃的动作；</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面冲刺：在地面消耗精力进行的冲刺动作，这个动作的中间一段时间存在无敌帧；</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面短程冲刺：在地面不用消耗精力进行的冲刺动作，这个动作的中间一段时间存在无敌帧；在冲刺距离和无敌帧时长上都相对消耗精力的冲刺更短，但消耗的时间并不短多少；</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面跑：角色在地面跑动动作；</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面倒地起身</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面倒地起身：从地面倒地状态起身的动作；</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成进度</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>未制作</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整完毕，全部完成</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>已制作完，等待测试调整</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>制作中</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>空中收刀：按Q收刀：收回距离角色本身最近的插中木质道具的一把飞刃；
 按E收刀：收回所有悬浮于空中的飞刃；</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>地面倒地起身</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>地面短程冲刺</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>空中硬直：在空中受到攻击之后产生的硬直，被动进入；</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>冲刺：冲刺主要按键是Shift，然后配合不同方向键使用，使冲刺方向不同；</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>空中死亡：在空中死亡时被动进入的动作；</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>落地缓冲：从空中下坠动作到地面Idel的一个衔接动作，在刚接触地面时缓冲下坠的力道；</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>地面跳跃：单纯从地面跃起的动作，无落地动作；</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓄力：只要按下时就会开始播近战动作，到达最小蓄力时间后播蓄力攻击动作；</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面死亡：在地面死亡时被动进入的动作；</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Dro</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ping</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Droping_Buffering</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面Idle：角色在地面的摇晃待机动作；</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>eath_Air</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>J</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ump_Ground</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>空中冲刺：冲刺主要按键是Shift，然后配合不同方向键使用，使冲刺方向不同；</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>J</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ump_Sky</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dash_Air</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dash_Ground</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dash_Ground_Short</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>eath_Groud</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>etup_Ground</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATK_Distant_Ground</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>un_Ground</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>dle_Ground</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATK_Melee_Charge_Ground</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面硬直：在地面受到攻击之后产生的硬直，被动进入；</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hitten_Ground</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>W</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ithdraw_Air</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>空中近战蓄力：只要按下时就会开始播近战动作，到达最小蓄力时间后播蓄力攻击动作；</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>空中近战：空中姿态砍人的动作；</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>空中跳跃：也就是一个二段跳的动作；</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>空中下坠：从空中下落的动画，角色身上的轻物件会向上飘动；</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>地面近战（连招）：在地面用近战武器攻击的动作；这里需要一组个动画，玩家连续按下鼠标右键时，会在这些动画里1-》2-》3循环播放；</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>地面近战（蓄力）：地面近战时候进行蓄力的动作，蓄力之后会使出强力下劈动作；</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>地面远程：在地面发射飞刃的动作；</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>空中硬直：在地面受到攻击之后产生的硬直，被动进入；</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>地面冲刺：在地面消耗精力进行的冲刺动作，这个动作的中间一段时间存在无敌帧；</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>地面短程冲刺：在地面不用消耗精力进行的冲刺动作，这个动作的中间一段时间存在无敌帧；在冲刺距离和无敌帧时长上都相对消耗精力的冲刺更短，但消耗的时间并不短多少；</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>地面Idel：角色在地面的摇晃待机动作；</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>地面跑：角色在地面跑动动作；</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>空中死亡：在地面死亡时被动进入的动作；</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>地面倒地起身</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>地面倒地起身：从地面倒地状态起身的动作；</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATK_Melee_Charge_Air</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATK_Distant_Air</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hitten_Air</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATK_Melee_Air_1~3</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATK_Melee_Ground_1~3</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -488,7 +729,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -517,8 +758,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -608,24 +861,13 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
+      <left style="thin">
         <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -634,118 +876,142 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1054,13 +1320,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH51"/>
+  <dimension ref="A1:AA51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="X9" sqref="X9:AH9"/>
+      <selection pane="bottomRight" activeCell="AA9" sqref="AA9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.25"/>
@@ -1068,52 +1334,51 @@
     <col min="1" max="1" width="3" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" style="9"/>
     <col min="3" max="23" width="8.88671875" style="1"/>
-    <col min="24" max="33" width="7" style="15" customWidth="1"/>
-    <col min="34" max="34" width="54.88671875" style="15" customWidth="1"/>
-    <col min="35" max="16384" width="8.88671875" style="1"/>
+    <col min="24" max="24" width="8.88671875" style="24"/>
+    <col min="25" max="25" width="8.88671875" style="1"/>
+    <col min="26" max="26" width="24.33203125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="108.44140625" style="15" customWidth="1"/>
+    <col min="28" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="8"/>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="22" t="s">
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z1" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA1" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22"/>
-      <c r="AG1" s="22"/>
-      <c r="AH1" s="22"/>
-    </row>
-    <row r="2" spans="1:34" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:27" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8" t="s">
@@ -1171,28 +1436,21 @@
         <v>59</v>
       </c>
       <c r="U2" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="V2" s="13" t="s">
         <v>41</v>
       </c>
       <c r="W2" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="22"/>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="22"/>
-      <c r="AH2" s="22"/>
-    </row>
-    <row r="3" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="27"/>
+    </row>
+    <row r="3" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -1234,25 +1492,19 @@
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
-      <c r="U3" s="18"/>
+      <c r="U3" s="17"/>
       <c r="V3" s="12"/>
-      <c r="W3" s="16"/>
-      <c r="X3" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19"/>
-      <c r="AE3" s="19"/>
-      <c r="AF3" s="19"/>
-      <c r="AG3" s="19"/>
-      <c r="AH3" s="19"/>
-    </row>
-    <row r="4" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
+      <c r="W3" s="19"/>
+      <c r="Y3" s="22"/>
+      <c r="Z3" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA3" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="30"/>
       <c r="B4" s="13" t="s">
         <v>58</v>
       </c>
@@ -1292,25 +1544,19 @@
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
-      <c r="U4" s="18"/>
+      <c r="U4" s="17"/>
       <c r="V4" s="12"/>
-      <c r="W4" s="16"/>
-      <c r="X4" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y4" s="19"/>
-      <c r="Z4" s="19"/>
-      <c r="AA4" s="19"/>
-      <c r="AB4" s="19"/>
-      <c r="AC4" s="19"/>
-      <c r="AD4" s="19"/>
-      <c r="AE4" s="19"/>
-      <c r="AF4" s="19"/>
-      <c r="AG4" s="19"/>
-      <c r="AH4" s="19"/>
-    </row>
-    <row r="5" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
+      <c r="W4" s="19"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA4" s="18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="30"/>
       <c r="B5" s="13" t="s">
         <v>49</v>
       </c>
@@ -1350,25 +1596,19 @@
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
-      <c r="U5" s="18"/>
+      <c r="U5" s="17"/>
       <c r="V5" s="12"/>
-      <c r="W5" s="16"/>
-      <c r="X5" s="19" t="s">
-        <v>72</v>
-      </c>
+      <c r="W5" s="19"/>
       <c r="Y5" s="19"/>
-      <c r="Z5" s="19"/>
-      <c r="AA5" s="19"/>
-      <c r="AB5" s="19"/>
-      <c r="AC5" s="19"/>
-      <c r="AD5" s="19"/>
-      <c r="AE5" s="19"/>
-      <c r="AF5" s="19"/>
-      <c r="AG5" s="19"/>
-      <c r="AH5" s="19"/>
-    </row>
-    <row r="6" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
+      <c r="Z5" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA5" s="18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="30"/>
       <c r="B6" s="13" t="s">
         <v>4</v>
       </c>
@@ -1408,25 +1648,19 @@
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
-      <c r="U6" s="18"/>
+      <c r="U6" s="17"/>
       <c r="V6" s="12"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="19" t="s">
-        <v>71</v>
-      </c>
+      <c r="W6" s="19"/>
       <c r="Y6" s="19"/>
-      <c r="Z6" s="19"/>
-      <c r="AA6" s="19"/>
-      <c r="AB6" s="19"/>
-      <c r="AC6" s="19"/>
-      <c r="AD6" s="19"/>
-      <c r="AE6" s="19"/>
-      <c r="AF6" s="19"/>
-      <c r="AG6" s="19"/>
-      <c r="AH6" s="19"/>
-    </row>
-    <row r="7" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
+      <c r="Z6" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA6" s="18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="30"/>
       <c r="B7" s="8" t="s">
         <v>45</v>
       </c>
@@ -1466,25 +1700,19 @@
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
-      <c r="U7" s="18"/>
+      <c r="U7" s="17"/>
       <c r="V7" s="12"/>
-      <c r="W7" s="16"/>
-      <c r="X7" s="19" t="s">
+      <c r="W7" s="19"/>
+      <c r="Y7" s="19"/>
+      <c r="Z7" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA7" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="Y7" s="19"/>
-      <c r="Z7" s="19"/>
-      <c r="AA7" s="19"/>
-      <c r="AB7" s="19"/>
-      <c r="AC7" s="19"/>
-      <c r="AD7" s="19"/>
-      <c r="AE7" s="19"/>
-      <c r="AF7" s="19"/>
-      <c r="AG7" s="19"/>
-      <c r="AH7" s="19"/>
-    </row>
-    <row r="8" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
+    </row>
+    <row r="8" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="30"/>
       <c r="B8" s="13" t="s">
         <v>6</v>
       </c>
@@ -1524,25 +1752,19 @@
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
-      <c r="U8" s="18"/>
+      <c r="U8" s="17"/>
       <c r="V8" s="12"/>
-      <c r="W8" s="16"/>
-      <c r="X8" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y8" s="29"/>
-      <c r="Z8" s="29"/>
-      <c r="AA8" s="29"/>
-      <c r="AB8" s="29"/>
-      <c r="AC8" s="29"/>
-      <c r="AD8" s="29"/>
-      <c r="AE8" s="29"/>
-      <c r="AF8" s="29"/>
-      <c r="AG8" s="29"/>
-      <c r="AH8" s="30"/>
-    </row>
-    <row r="9" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
+      <c r="W8" s="19"/>
+      <c r="Y8" s="21"/>
+      <c r="Z8" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA8" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="30"/>
       <c r="B9" s="13" t="s">
         <v>7</v>
       </c>
@@ -1582,25 +1804,19 @@
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
-      <c r="U9" s="18"/>
+      <c r="U9" s="17"/>
       <c r="V9" s="12"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y9" s="19"/>
-      <c r="Z9" s="19"/>
-      <c r="AA9" s="19"/>
-      <c r="AB9" s="19"/>
-      <c r="AC9" s="19"/>
-      <c r="AD9" s="19"/>
-      <c r="AE9" s="19"/>
-      <c r="AF9" s="19"/>
-      <c r="AG9" s="19"/>
-      <c r="AH9" s="19"/>
-    </row>
-    <row r="10" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
+      <c r="W9" s="19"/>
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA9" s="18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="30"/>
       <c r="B10" s="8" t="s">
         <v>55</v>
       </c>
@@ -1640,25 +1856,19 @@
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="18"/>
+      <c r="U10" s="17"/>
       <c r="V10" s="12"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y10" s="19"/>
-      <c r="Z10" s="19"/>
-      <c r="AA10" s="19"/>
-      <c r="AB10" s="19"/>
-      <c r="AC10" s="19"/>
-      <c r="AD10" s="19"/>
-      <c r="AE10" s="19"/>
-      <c r="AF10" s="19"/>
-      <c r="AG10" s="19"/>
-      <c r="AH10" s="19"/>
-    </row>
-    <row r="11" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
+      <c r="W10" s="19"/>
+      <c r="Y10" s="22"/>
+      <c r="Z10" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA10" s="18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="30"/>
       <c r="B11" s="13" t="s">
         <v>40</v>
       </c>
@@ -1682,25 +1892,19 @@
       <c r="R11" s="12"/>
       <c r="S11" s="12"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="18"/>
+      <c r="U11" s="17"/>
       <c r="V11" s="12"/>
-      <c r="W11" s="16"/>
-      <c r="X11" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y11" s="19"/>
-      <c r="Z11" s="19"/>
-      <c r="AA11" s="19"/>
-      <c r="AB11" s="19"/>
-      <c r="AC11" s="19"/>
-      <c r="AD11" s="19"/>
-      <c r="AE11" s="19"/>
-      <c r="AF11" s="19"/>
-      <c r="AG11" s="19"/>
-      <c r="AH11" s="19"/>
-    </row>
-    <row r="12" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
+      <c r="W11" s="19"/>
+      <c r="Y11" s="22"/>
+      <c r="Z11" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA11" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="30"/>
       <c r="B12" s="8" t="s">
         <v>8</v>
       </c>
@@ -1730,25 +1934,19 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
-      <c r="U12" s="18"/>
+      <c r="U12" s="17"/>
       <c r="V12" s="12"/>
-      <c r="W12" s="16"/>
-      <c r="X12" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y12" s="19"/>
-      <c r="Z12" s="19"/>
-      <c r="AA12" s="19"/>
-      <c r="AB12" s="19"/>
-      <c r="AC12" s="19"/>
-      <c r="AD12" s="19"/>
-      <c r="AE12" s="19"/>
-      <c r="AF12" s="19"/>
-      <c r="AG12" s="19"/>
-      <c r="AH12" s="19"/>
-    </row>
-    <row r="13" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
+      <c r="W12" s="19"/>
+      <c r="Y12" s="22"/>
+      <c r="Z12" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA12" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="30"/>
       <c r="B13" s="8" t="s">
         <v>9</v>
       </c>
@@ -1798,25 +1996,19 @@
         <v>14</v>
       </c>
       <c r="V13" s="12"/>
-      <c r="W13" s="17" t="s">
+      <c r="W13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="X13" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y13" s="19"/>
-      <c r="Z13" s="19"/>
-      <c r="AA13" s="19"/>
-      <c r="AB13" s="19"/>
-      <c r="AC13" s="19"/>
-      <c r="AD13" s="19"/>
-      <c r="AE13" s="19"/>
-      <c r="AF13" s="19"/>
-      <c r="AG13" s="19"/>
-      <c r="AH13" s="19"/>
-    </row>
-    <row r="14" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
+      <c r="Y13" s="22"/>
+      <c r="Z13" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA13" s="18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="30"/>
       <c r="B14" s="8" t="s">
         <v>53</v>
       </c>
@@ -1859,22 +2051,16 @@
       <c r="W14" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="X14" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y14" s="19"/>
-      <c r="Z14" s="19"/>
-      <c r="AA14" s="19"/>
-      <c r="AB14" s="19"/>
-      <c r="AC14" s="19"/>
-      <c r="AD14" s="19"/>
-      <c r="AE14" s="19"/>
-      <c r="AF14" s="19"/>
-      <c r="AG14" s="19"/>
-      <c r="AH14" s="19"/>
-    </row>
-    <row r="15" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
+      <c r="Y14" s="22"/>
+      <c r="Z14" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA14" s="18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="30"/>
       <c r="B15" s="8" t="s">
         <v>10</v>
       </c>
@@ -1914,23 +2100,17 @@
         <v>29</v>
       </c>
       <c r="V15" s="12"/>
-      <c r="W15" s="16"/>
-      <c r="X15" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y15" s="19"/>
-      <c r="Z15" s="19"/>
-      <c r="AA15" s="19"/>
-      <c r="AB15" s="19"/>
-      <c r="AC15" s="19"/>
-      <c r="AD15" s="19"/>
-      <c r="AE15" s="19"/>
-      <c r="AF15" s="19"/>
-      <c r="AG15" s="19"/>
-      <c r="AH15" s="19"/>
-    </row>
-    <row r="16" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
+      <c r="W15" s="19"/>
+      <c r="Y15" s="22"/>
+      <c r="Z15" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA15" s="18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="30"/>
       <c r="B16" s="13" t="s">
         <v>50</v>
       </c>
@@ -1970,23 +2150,17 @@
         <v>18</v>
       </c>
       <c r="V16" s="12"/>
-      <c r="W16" s="16"/>
-      <c r="X16" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y16" s="19"/>
-      <c r="Z16" s="19"/>
-      <c r="AA16" s="19"/>
-      <c r="AB16" s="19"/>
-      <c r="AC16" s="19"/>
-      <c r="AD16" s="19"/>
-      <c r="AE16" s="19"/>
-      <c r="AF16" s="19"/>
-      <c r="AG16" s="19"/>
-      <c r="AH16" s="19"/>
-    </row>
-    <row r="17" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
+      <c r="W16" s="19"/>
+      <c r="Y16" s="23"/>
+      <c r="Z16" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA16" s="18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="30"/>
       <c r="B17" s="13" t="s">
         <v>47</v>
       </c>
@@ -2024,23 +2198,17 @@
         <v>26</v>
       </c>
       <c r="V17" s="12"/>
-      <c r="W17" s="16"/>
-      <c r="X17" s="19" t="s">
-        <v>76</v>
-      </c>
+      <c r="W17" s="19"/>
       <c r="Y17" s="19"/>
-      <c r="Z17" s="19"/>
-      <c r="AA17" s="19"/>
-      <c r="AB17" s="19"/>
-      <c r="AC17" s="19"/>
-      <c r="AD17" s="19"/>
-      <c r="AE17" s="19"/>
-      <c r="AF17" s="19"/>
-      <c r="AG17" s="19"/>
-      <c r="AH17" s="19"/>
-    </row>
-    <row r="18" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
+      <c r="Z17" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA17" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="30"/>
       <c r="B18" s="13" t="s">
         <v>51</v>
       </c>
@@ -2078,23 +2246,17 @@
         <v>17</v>
       </c>
       <c r="V18" s="12"/>
-      <c r="W18" s="16"/>
-      <c r="X18" s="19" t="s">
-        <v>77</v>
-      </c>
+      <c r="W18" s="19"/>
       <c r="Y18" s="19"/>
-      <c r="Z18" s="19"/>
-      <c r="AA18" s="19"/>
-      <c r="AB18" s="19"/>
-      <c r="AC18" s="19"/>
-      <c r="AD18" s="19"/>
-      <c r="AE18" s="19"/>
-      <c r="AF18" s="19"/>
-      <c r="AG18" s="19"/>
-      <c r="AH18" s="19"/>
-    </row>
-    <row r="19" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="24"/>
+      <c r="Z18" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA18" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="30"/>
       <c r="B19" s="13" t="s">
         <v>13</v>
       </c>
@@ -2136,23 +2298,17 @@
         <v>19</v>
       </c>
       <c r="V19" s="12"/>
-      <c r="W19" s="16"/>
-      <c r="X19" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y19" s="29"/>
-      <c r="Z19" s="29"/>
-      <c r="AA19" s="29"/>
-      <c r="AB19" s="29"/>
-      <c r="AC19" s="29"/>
-      <c r="AD19" s="29"/>
-      <c r="AE19" s="29"/>
-      <c r="AF19" s="29"/>
-      <c r="AG19" s="29"/>
-      <c r="AH19" s="30"/>
-    </row>
-    <row r="20" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
+      <c r="W19" s="19"/>
+      <c r="Y19" s="19"/>
+      <c r="Z19" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA19" s="20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="30"/>
       <c r="B20" s="13" t="s">
         <v>59</v>
       </c>
@@ -2197,41 +2353,35 @@
       <c r="W20" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="X20" s="19" t="s">
-        <v>79</v>
-      </c>
       <c r="Y20" s="19"/>
-      <c r="Z20" s="19"/>
-      <c r="AA20" s="19"/>
-      <c r="AB20" s="19"/>
-      <c r="AC20" s="19"/>
-      <c r="AD20" s="19"/>
-      <c r="AE20" s="19"/>
-      <c r="AF20" s="19"/>
-      <c r="AG20" s="19"/>
-      <c r="AH20" s="19"/>
-    </row>
-    <row r="21" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
+      <c r="Z20" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA20" s="18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="30"/>
       <c r="B21" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
+        <v>64</v>
+      </c>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
       <c r="L21" s="6" t="s">
         <v>61</v>
       </c>
       <c r="M21" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="N21" s="18"/>
+      <c r="N21" s="17"/>
       <c r="O21" s="6" t="s">
         <v>61</v>
       </c>
@@ -2253,45 +2403,39 @@
       <c r="U21" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="V21" s="18"/>
+      <c r="V21" s="17"/>
       <c r="W21" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="X21" s="19" t="s">
-        <v>80</v>
-      </c>
       <c r="Y21" s="19"/>
-      <c r="Z21" s="19"/>
-      <c r="AA21" s="19"/>
-      <c r="AB21" s="19"/>
-      <c r="AC21" s="19"/>
-      <c r="AD21" s="19"/>
-      <c r="AE21" s="19"/>
-      <c r="AF21" s="19"/>
-      <c r="AG21" s="19"/>
-      <c r="AH21" s="19"/>
-    </row>
-    <row r="22" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
+      <c r="Z21" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA21" s="18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="30"/>
       <c r="B22" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
       <c r="L22" s="4" t="s">
         <v>19</v>
       </c>
       <c r="M22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N22" s="18"/>
+      <c r="N22" s="17"/>
       <c r="O22" s="4" t="s">
         <v>19</v>
       </c>
@@ -2313,28 +2457,22 @@
       <c r="U22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="V22" s="18"/>
+      <c r="V22" s="17"/>
       <c r="W22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="X22" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y22" s="19"/>
-      <c r="Z22" s="19"/>
-      <c r="AA22" s="19"/>
-      <c r="AB22" s="19"/>
-      <c r="AC22" s="19"/>
-      <c r="AD22" s="19"/>
-      <c r="AE22" s="19"/>
-      <c r="AF22" s="19"/>
-      <c r="AG22" s="19"/>
-      <c r="AH22" s="19"/>
-    </row>
-    <row r="23" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="24"/>
+      <c r="Y22" s="21"/>
+      <c r="Z22" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA22" s="18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="30"/>
       <c r="B23" s="13" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
@@ -2354,88 +2492,122 @@
       <c r="R23" s="12"/>
       <c r="S23" s="12"/>
       <c r="T23" s="12"/>
-      <c r="U23" s="18"/>
+      <c r="U23" s="17"/>
       <c r="V23" s="16"/>
-      <c r="W23" s="16"/>
-      <c r="X23" s="19" t="s">
-        <v>85</v>
-      </c>
+      <c r="W23" s="19"/>
       <c r="Y23" s="19"/>
-      <c r="Z23" s="19"/>
-      <c r="AA23" s="19"/>
-      <c r="AB23" s="19"/>
-      <c r="AC23" s="19"/>
-      <c r="AD23" s="19"/>
-      <c r="AE23" s="19"/>
-      <c r="AF23" s="19"/>
-      <c r="AG23" s="19"/>
-      <c r="AH23" s="19"/>
-    </row>
-    <row r="24" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G25" s="25" t="s">
+      <c r="Z23" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA23" s="18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G25" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-    </row>
-    <row r="26" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="O25" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="31"/>
+      <c r="R25" s="31"/>
+      <c r="S25" s="31"/>
+    </row>
+    <row r="26" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G26" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="26" t="s">
+      <c r="H26" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-    </row>
-    <row r="27" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="28"/>
+      <c r="S26" s="28"/>
+    </row>
+    <row r="27" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G27" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H27" s="27" t="s">
+      <c r="H27" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-    </row>
-    <row r="28" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q27" s="28"/>
+      <c r="R27" s="28"/>
+      <c r="S27" s="28"/>
+    </row>
+    <row r="28" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G28" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H28" s="26" t="s">
+      <c r="H28" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-    </row>
-    <row r="29" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q28" s="28"/>
+      <c r="R28" s="28"/>
+      <c r="S28" s="28"/>
+    </row>
+    <row r="29" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G29" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H29" s="26" t="s">
+      <c r="H29" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
-    </row>
-    <row r="30" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q29" s="28"/>
+      <c r="R29" s="28"/>
+      <c r="S29" s="28"/>
+    </row>
+    <row r="30" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G30" s="3"/>
-      <c r="H30" s="26" t="s">
+      <c r="H30" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
-    </row>
-    <row r="31" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="28"/>
+      <c r="R30" s="28"/>
+      <c r="S30" s="28"/>
+    </row>
+    <row r="31" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2456,39 +2628,26 @@
     <row r="50" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="51" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="17">
+    <mergeCell ref="C1:W1"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="H29:K29"/>
     <mergeCell ref="A3:A23"/>
     <mergeCell ref="G25:K25"/>
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="H28:K28"/>
     <mergeCell ref="H27:K27"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="X14:AH14"/>
-    <mergeCell ref="X6:AH6"/>
-    <mergeCell ref="X7:AH7"/>
-    <mergeCell ref="X8:AH8"/>
-    <mergeCell ref="X9:AH9"/>
-    <mergeCell ref="X10:AH10"/>
-    <mergeCell ref="X11:AH11"/>
-    <mergeCell ref="X12:AH12"/>
-    <mergeCell ref="X13:AH13"/>
-    <mergeCell ref="C1:W1"/>
-    <mergeCell ref="X3:AH3"/>
-    <mergeCell ref="X4:AH4"/>
-    <mergeCell ref="X5:AH5"/>
-    <mergeCell ref="X1:AH2"/>
-    <mergeCell ref="X20:AH20"/>
-    <mergeCell ref="X23:AH23"/>
-    <mergeCell ref="X15:AH15"/>
-    <mergeCell ref="X16:AH16"/>
-    <mergeCell ref="X17:AH17"/>
-    <mergeCell ref="X18:AH18"/>
-    <mergeCell ref="X19:AH19"/>
-    <mergeCell ref="X21:AH21"/>
-    <mergeCell ref="X22:AH22"/>
+    <mergeCell ref="P30:S30"/>
+    <mergeCell ref="P26:S26"/>
+    <mergeCell ref="P27:S27"/>
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="O25:S25"/>
+    <mergeCell ref="P28:S28"/>
+    <mergeCell ref="P29:S29"/>
+    <mergeCell ref="Y1:Y2"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -2541,7 +2700,7 @@
     <row r="19" ht="45.6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" ht="45.6" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -2568,18 +2727,18 @@
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
       <c r="B1" s="8"/>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
     </row>
     <row r="2" spans="1:25" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
@@ -2616,7 +2775,7 @@
       </c>
     </row>
     <row r="3" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="40" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -2634,7 +2793,7 @@
       <c r="L3" s="7"/>
     </row>
     <row r="4" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
+      <c r="A4" s="41"/>
       <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
@@ -2650,7 +2809,7 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
@@ -2666,7 +2825,7 @@
       <c r="L5" s="7"/>
     </row>
     <row r="6" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="8" t="s">
         <v>6</v>
       </c>
@@ -2682,7 +2841,7 @@
       <c r="L6" s="7"/>
     </row>
     <row r="7" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="8" t="s">
         <v>8</v>
       </c>
@@ -2698,7 +2857,7 @@
       <c r="L7" s="7"/>
     </row>
     <row r="8" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="8" t="s">
         <v>9</v>
       </c>
@@ -2713,15 +2872,15 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="U8" s="4"/>
-      <c r="V8" s="35" t="s">
+      <c r="V8" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="W8" s="26"/>
-      <c r="X8" s="26"/>
-      <c r="Y8" s="26"/>
+      <c r="W8" s="28"/>
+      <c r="X8" s="28"/>
+      <c r="Y8" s="28"/>
     </row>
     <row r="9" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="8" t="s">
         <v>35</v>
       </c>
@@ -2737,7 +2896,7 @@
       <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
+      <c r="A10" s="41"/>
       <c r="B10" s="8" t="s">
         <v>11</v>
       </c>
@@ -2753,7 +2912,7 @@
       <c r="L10" s="5"/>
     </row>
     <row r="11" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="8" t="s">
         <v>12</v>
       </c>
@@ -2769,7 +2928,7 @@
       <c r="L11" s="5"/>
     </row>
     <row r="12" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
+      <c r="A12" s="41"/>
       <c r="B12" s="8" t="s">
         <v>13</v>
       </c>
@@ -2790,7 +2949,7 @@
     <mergeCell ref="A3:A12"/>
     <mergeCell ref="V8:Y8"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -2838,7 +2997,7 @@
     <row r="19" ht="45.6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" ht="45.6" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/DesignDocuments/机制、系统、数值/主角、怪物状态转移矩阵.xlsx
+++ b/DesignDocuments/机制、系统、数值/主角、怪物状态转移矩阵.xlsx
@@ -20,356 +20,356 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="114">
   <si>
     <t>当前状态</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>可衔接状态</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>空中下坠</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>空中跳跃</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>空中近战蓄力</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>空中近战（连招）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>空中硬直</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>空中冲刺</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>落地缓冲</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>地面Idle</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>地面跳跃</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>地面近战（连招）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>地面远程</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>地面硬直</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>默认</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>接触地面</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>空格</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>左键</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>右键</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>被动</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>空中收回勾刃</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>表示不作操作时的默认状态转换</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>输入</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>被动</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>表示输入对应操作时允许的状态转换</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>不支持的状态转换</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>右键（长按）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>接触地面</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>在当前状态下接触地面才会默认触发的状态转换。接触地面后，不可直接触发任何空中状态</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>带W的方向键+空格</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>被击飞</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>→</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>落地</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>起身</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>地面起跳</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>表示状态可切换</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>破绽硬直</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>破绽硬直起身</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>带W的方向键+空格</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>空中死亡</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>地面死亡</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Q键</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>图示</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>表示受外界影响强制进行的状态转换</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>空中远程</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>地面近战（连招）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>地面近战蓄力</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>地面远程</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>空中近战（连招）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>地面近战（连招）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>地面远程</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>地面跑</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>带W/D方向键</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>空中收回勾刃</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>空中硬直</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>地面硬直</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>空中跳跃</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>地面冲刺</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>方向键+Shift</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>不带W的方向键+Shift</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>空中远程：在空中发射飞刃的动作。短按鼠标左键对应空中发出一把飞刃，这把飞刃可以插中可勾取物体（木块、弱点等）；</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>地面倒地起身</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>地面短程冲刺</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>空中硬直：在空中受到攻击之后产生的硬直，被动进入；</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>空中死亡：在空中死亡时被动进入的动作；</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>落地缓冲：从空中下坠动作到地面Idel的一个衔接动作，在刚接触地面时缓冲下坠的力道；</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>地面跳跃：单纯从地面跃起的动作，无落地动作；</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>空中跳跃：也就是一个二段跳的动作；</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>空中下坠：从空中下落的动画，角色身上的轻物件会向上飘动；</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>地面近战（连招）：在地面用近战武器攻击的动作；这里需要一组个动画，玩家连续按下鼠标右键时，会在这些动画里1-》2-》3循环播放；</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>地面近战（蓄力）：地面近战时候进行蓄力的动作，蓄力之后会使出强力下劈动作；</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>地面远程：在地面发射飞刃的动作；</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>地面冲刺：在地面消耗精力进行的冲刺动作，这个动作的中间一段时间存在无敌帧；</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>地面短程冲刺：在地面不用消耗精力进行的冲刺动作，这个动作的中间一段时间存在无敌帧；在冲刺距离和无敌帧时长上都相对消耗精力的冲刺更短，但消耗的时间并不短多少；</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>地面跑：角色在地面跑动动作；</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>地面倒地起身</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>地面倒地起身：从地面倒地状态起身的动作；</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>完成进度</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>进度</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>未制作</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>调整完毕，全部完成</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>已制作完，等待测试调整</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>制作中</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>空中收刀：按Q收刀：收回距离角色本身最近的插中木质道具的一把飞刃；
 按E收刀：收回所有悬浮于空中的飞刃；</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>地面死亡：在地面死亡时被动进入的动作；</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -385,15 +385,15 @@
       </rPr>
       <t>ping</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Droping_Buffering</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>地面Idle：角色在地面的摇晃待机动作；</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -409,7 +409,7 @@
       </rPr>
       <t>eath_Air</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -425,39 +425,23 @@
       </rPr>
       <t>ump_Ground</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>空中冲刺：冲刺主要按键是Shift，然后配合不同方向键使用，使冲刺方向不同；</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>J</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ump_Sky</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Dash_Air</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Dash_Ground</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Dash_Ground_Short</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -473,7 +457,7 @@
       </rPr>
       <t>eath_Groud</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -489,11 +473,11 @@
       </rPr>
       <t>etup_Ground</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>ATK_Distant_Ground</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -509,7 +493,7 @@
       </rPr>
       <t>un_Ground</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -525,19 +509,19 @@
       </rPr>
       <t>dle_Ground</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>ATK_Melee_Charge_Ground</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>地面硬直：在地面受到攻击之后产生的硬直，被动进入；</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Hitten_Ground</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -553,48 +537,71 @@
       </rPr>
       <t>ithdraw_Air</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>空中近战蓄力：只要按下时就会开始播近战动作，到达最小蓄力时间后播蓄力攻击动作；</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>空中近战：空中姿态砍人的动作；</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>ATK_Melee_Charge_Air</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>ATK_Distant_Air</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Hitten_Air</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>ATK_Melee_Air_1~3</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>ATK_Melee_Ground_1~3</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>J</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ump_Air</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -876,139 +883,142 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1322,11 +1332,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AA9" sqref="AA9"/>
+      <selection pane="bottomRight" activeCell="AA6" sqref="AA6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.25"/>
@@ -1344,37 +1354,37 @@
     <row r="1" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="8"/>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
       <c r="X1" s="25"/>
-      <c r="Y1" s="27" t="s">
+      <c r="Y1" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="Z1" s="34" t="s">
+      <c r="Z1" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="AA1" s="27" t="s">
+      <c r="AA1" s="30" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1445,12 +1455,12 @@
         <v>63</v>
       </c>
       <c r="X2" s="25"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="27"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="30"/>
     </row>
     <row r="3" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -1504,7 +1514,7 @@
       </c>
     </row>
     <row r="4" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
+      <c r="A4" s="33"/>
       <c r="B4" s="13" t="s">
         <v>58</v>
       </c>
@@ -1548,15 +1558,15 @@
       <c r="V4" s="12"/>
       <c r="W4" s="19"/>
       <c r="Y4" s="22"/>
-      <c r="Z4" s="43" t="s">
-        <v>94</v>
+      <c r="Z4" s="44" t="s">
+        <v>113</v>
       </c>
       <c r="AA4" s="18" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
+      <c r="A5" s="33"/>
       <c r="B5" s="13" t="s">
         <v>49</v>
       </c>
@@ -1600,15 +1610,15 @@
       <c r="V5" s="12"/>
       <c r="W5" s="19"/>
       <c r="Y5" s="19"/>
-      <c r="Z5" s="43" t="s">
-        <v>112</v>
+      <c r="Z5" s="27" t="s">
+        <v>111</v>
       </c>
       <c r="AA5" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="13" t="s">
         <v>4</v>
       </c>
@@ -1652,15 +1662,15 @@
       <c r="V6" s="12"/>
       <c r="W6" s="19"/>
       <c r="Y6" s="19"/>
-      <c r="Z6" s="43" t="s">
-        <v>109</v>
+      <c r="Z6" s="27" t="s">
+        <v>108</v>
       </c>
       <c r="AA6" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="8" t="s">
         <v>45</v>
       </c>
@@ -1704,15 +1714,15 @@
       <c r="V7" s="12"/>
       <c r="W7" s="19"/>
       <c r="Y7" s="19"/>
-      <c r="Z7" s="43" t="s">
-        <v>110</v>
+      <c r="Z7" s="27" t="s">
+        <v>109</v>
       </c>
       <c r="AA7" s="18" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="13" t="s">
         <v>6</v>
       </c>
@@ -1756,15 +1766,15 @@
       <c r="V8" s="12"/>
       <c r="W8" s="19"/>
       <c r="Y8" s="21"/>
-      <c r="Z8" s="43" t="s">
-        <v>111</v>
+      <c r="Z8" s="27" t="s">
+        <v>110</v>
       </c>
       <c r="AA8" s="18" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="13" t="s">
         <v>7</v>
       </c>
@@ -1808,15 +1818,15 @@
       <c r="V9" s="12"/>
       <c r="W9" s="19"/>
       <c r="Y9" s="22"/>
-      <c r="Z9" s="43" t="s">
-        <v>95</v>
+      <c r="Z9" s="27" t="s">
+        <v>94</v>
       </c>
       <c r="AA9" s="18" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="8" t="s">
         <v>55</v>
       </c>
@@ -1860,15 +1870,15 @@
       <c r="V10" s="12"/>
       <c r="W10" s="19"/>
       <c r="Y10" s="22"/>
-      <c r="Z10" s="43" t="s">
-        <v>106</v>
+      <c r="Z10" s="27" t="s">
+        <v>105</v>
       </c>
       <c r="AA10" s="18" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="13" t="s">
         <v>40</v>
       </c>
@@ -1904,7 +1914,7 @@
       </c>
     </row>
     <row r="12" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="8" t="s">
         <v>8</v>
       </c>
@@ -1946,7 +1956,7 @@
       </c>
     </row>
     <row r="13" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="30"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="8" t="s">
         <v>9</v>
       </c>
@@ -2000,15 +2010,15 @@
         <v>14</v>
       </c>
       <c r="Y13" s="22"/>
-      <c r="Z13" s="43" t="s">
-        <v>102</v>
+      <c r="Z13" s="27" t="s">
+        <v>101</v>
       </c>
       <c r="AA13" s="18" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="8" t="s">
         <v>53</v>
       </c>
@@ -2052,15 +2062,15 @@
         <v>54</v>
       </c>
       <c r="Y14" s="22"/>
-      <c r="Z14" s="43" t="s">
-        <v>101</v>
+      <c r="Z14" s="27" t="s">
+        <v>100</v>
       </c>
       <c r="AA14" s="18" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="8" t="s">
         <v>10</v>
       </c>
@@ -2110,7 +2120,7 @@
       </c>
     </row>
     <row r="16" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="13" t="s">
         <v>50</v>
       </c>
@@ -2152,15 +2162,15 @@
       <c r="V16" s="12"/>
       <c r="W16" s="19"/>
       <c r="Y16" s="23"/>
-      <c r="Z16" s="43" t="s">
-        <v>113</v>
+      <c r="Z16" s="27" t="s">
+        <v>112</v>
       </c>
       <c r="AA16" s="18" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="13" t="s">
         <v>47</v>
       </c>
@@ -2200,15 +2210,15 @@
       <c r="V17" s="12"/>
       <c r="W17" s="19"/>
       <c r="Y17" s="19"/>
-      <c r="Z17" s="43" t="s">
-        <v>103</v>
+      <c r="Z17" s="27" t="s">
+        <v>102</v>
       </c>
       <c r="AA17" s="18" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="13" t="s">
         <v>51</v>
       </c>
@@ -2248,15 +2258,15 @@
       <c r="V18" s="12"/>
       <c r="W18" s="19"/>
       <c r="Y18" s="19"/>
-      <c r="Z18" s="43" t="s">
-        <v>100</v>
+      <c r="Z18" s="27" t="s">
+        <v>99</v>
       </c>
       <c r="AA18" s="18" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="30"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="13" t="s">
         <v>13</v>
       </c>
@@ -2300,15 +2310,15 @@
       <c r="V19" s="12"/>
       <c r="W19" s="19"/>
       <c r="Y19" s="19"/>
-      <c r="Z19" s="43" t="s">
-        <v>105</v>
+      <c r="Z19" s="27" t="s">
+        <v>104</v>
       </c>
       <c r="AA19" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="30"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="13" t="s">
         <v>59</v>
       </c>
@@ -2354,15 +2364,15 @@
         <v>61</v>
       </c>
       <c r="Y20" s="19"/>
-      <c r="Z20" s="43" t="s">
-        <v>96</v>
+      <c r="Z20" s="27" t="s">
+        <v>95</v>
       </c>
       <c r="AA20" s="18" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="13" t="s">
         <v>64</v>
       </c>
@@ -2408,15 +2418,15 @@
         <v>61</v>
       </c>
       <c r="Y21" s="19"/>
-      <c r="Z21" s="43" t="s">
-        <v>97</v>
+      <c r="Z21" s="27" t="s">
+        <v>96</v>
       </c>
       <c r="AA21" s="18" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
+      <c r="A22" s="33"/>
       <c r="B22" s="13" t="s">
         <v>41</v>
       </c>
@@ -2462,15 +2472,15 @@
         <v>19</v>
       </c>
       <c r="Y22" s="21"/>
-      <c r="Z22" s="43" t="s">
-        <v>98</v>
+      <c r="Z22" s="27" t="s">
+        <v>97</v>
       </c>
       <c r="AA22" s="18" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="30"/>
+      <c r="A23" s="33"/>
       <c r="B23" s="13" t="s">
         <v>77</v>
       </c>
@@ -2496,8 +2506,8 @@
       <c r="V23" s="16"/>
       <c r="W23" s="19"/>
       <c r="Y23" s="19"/>
-      <c r="Z23" s="43" t="s">
-        <v>99</v>
+      <c r="Z23" s="27" t="s">
+        <v>98</v>
       </c>
       <c r="AA23" s="18" t="s">
         <v>78</v>
@@ -2505,106 +2515,106 @@
     </row>
     <row r="24" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G25" s="31" t="s">
+      <c r="G25" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="O25" s="31" t="s">
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="O25" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="P25" s="31"/>
-      <c r="Q25" s="31"/>
-      <c r="R25" s="31"/>
-      <c r="S25" s="31"/>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="34"/>
+      <c r="R25" s="34"/>
+      <c r="S25" s="34"/>
     </row>
     <row r="26" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G26" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="28" t="s">
+      <c r="H26" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
       <c r="O26" s="19"/>
-      <c r="P26" s="33" t="s">
+      <c r="P26" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="Q26" s="28"/>
-      <c r="R26" s="28"/>
-      <c r="S26" s="28"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="31"/>
+      <c r="S26" s="31"/>
     </row>
     <row r="27" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G27" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H27" s="32" t="s">
+      <c r="H27" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
       <c r="O27" s="23"/>
-      <c r="P27" s="33" t="s">
+      <c r="P27" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="Q27" s="28"/>
-      <c r="R27" s="28"/>
-      <c r="S27" s="28"/>
+      <c r="Q27" s="31"/>
+      <c r="R27" s="31"/>
+      <c r="S27" s="31"/>
     </row>
     <row r="28" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G28" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H28" s="28" t="s">
+      <c r="H28" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
       <c r="O28" s="22"/>
-      <c r="P28" s="33" t="s">
+      <c r="P28" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="Q28" s="28"/>
-      <c r="R28" s="28"/>
-      <c r="S28" s="28"/>
+      <c r="Q28" s="31"/>
+      <c r="R28" s="31"/>
+      <c r="S28" s="31"/>
     </row>
     <row r="29" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G29" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H29" s="28" t="s">
+      <c r="H29" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
       <c r="O29" s="4"/>
-      <c r="P29" s="33" t="s">
+      <c r="P29" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="Q29" s="28"/>
-      <c r="R29" s="28"/>
-      <c r="S29" s="28"/>
+      <c r="Q29" s="31"/>
+      <c r="R29" s="31"/>
+      <c r="S29" s="31"/>
     </row>
     <row r="30" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G30" s="3"/>
-      <c r="H30" s="28" t="s">
+      <c r="H30" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
       <c r="O30" s="19"/>
-      <c r="P30" s="28"/>
-      <c r="Q30" s="28"/>
-      <c r="R30" s="28"/>
-      <c r="S30" s="28"/>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="31"/>
+      <c r="R30" s="31"/>
+      <c r="S30" s="31"/>
     </row>
     <row r="31" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2629,6 +2639,7 @@
     <row r="51" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="Y1:Y2"/>
     <mergeCell ref="C1:W1"/>
     <mergeCell ref="AA1:AA2"/>
     <mergeCell ref="H30:K30"/>
@@ -2645,9 +2656,8 @@
     <mergeCell ref="O25:S25"/>
     <mergeCell ref="P28:S28"/>
     <mergeCell ref="P29:S29"/>
-    <mergeCell ref="Y1:Y2"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -2700,7 +2710,7 @@
     <row r="19" ht="45.6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" ht="45.6" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -2727,18 +2737,18 @@
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
       <c r="B1" s="8"/>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
     </row>
     <row r="2" spans="1:25" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
@@ -2775,7 +2785,7 @@
       </c>
     </row>
     <row r="3" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="41" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -2793,7 +2803,7 @@
       <c r="L3" s="7"/>
     </row>
     <row r="4" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
@@ -2809,7 +2819,7 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
@@ -2825,7 +2835,7 @@
       <c r="L5" s="7"/>
     </row>
     <row r="6" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="8" t="s">
         <v>6</v>
       </c>
@@ -2841,7 +2851,7 @@
       <c r="L6" s="7"/>
     </row>
     <row r="7" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="8" t="s">
         <v>8</v>
       </c>
@@ -2857,7 +2867,7 @@
       <c r="L7" s="7"/>
     </row>
     <row r="8" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="8" t="s">
         <v>9</v>
       </c>
@@ -2872,15 +2882,15 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="U8" s="4"/>
-      <c r="V8" s="42" t="s">
+      <c r="V8" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="W8" s="28"/>
-      <c r="X8" s="28"/>
-      <c r="Y8" s="28"/>
+      <c r="W8" s="31"/>
+      <c r="X8" s="31"/>
+      <c r="Y8" s="31"/>
     </row>
     <row r="9" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="8" t="s">
         <v>35</v>
       </c>
@@ -2896,7 +2906,7 @@
       <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="8" t="s">
         <v>11</v>
       </c>
@@ -2912,7 +2922,7 @@
       <c r="L10" s="5"/>
     </row>
     <row r="11" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="41"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="8" t="s">
         <v>12</v>
       </c>
@@ -2928,7 +2938,7 @@
       <c r="L11" s="5"/>
     </row>
     <row r="12" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="41"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="8" t="s">
         <v>13</v>
       </c>
@@ -2949,7 +2959,7 @@
     <mergeCell ref="A3:A12"/>
     <mergeCell ref="V8:Y8"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -2997,7 +3007,7 @@
     <row r="19" ht="45.6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" ht="45.6" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/DesignDocuments/机制、系统、数值/主角、怪物状态转移矩阵.xlsx
+++ b/DesignDocuments/机制、系统、数值/主角、怪物状态转移矩阵.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="119">
   <si>
     <t>当前状态</t>
     <phoneticPr fontId="12" type="noConversion"/>
@@ -432,15 +432,7 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>Dash_Air</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>Dash_Ground</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dash_Ground_Short</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
@@ -552,19 +544,19 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
+    <t>Hitten_Air</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATK_Melee_Air_1~3</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATK_Melee_Ground_1~3</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
     <t>ATK_Distant_Air</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hitten_Air</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATK_Melee_Air_1~3</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATK_Melee_Ground_1~3</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
@@ -581,6 +573,34 @@
       </rPr>
       <t>ump_Air</t>
     </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>长按左键</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>空中远程蓄力</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>空中远程蓄力</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>空中远程蓄力：空中蓄力，迅速陆续发出三把飞刀；</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATK_Distant_Charge_Air</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dash_Air</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dash_Ground_Short</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -890,7 +910,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -973,13 +993,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1330,65 +1353,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA51"/>
+  <dimension ref="A1:AB52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AA6" sqref="AA6"/>
+      <selection pane="bottomRight" activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" style="9"/>
-    <col min="3" max="23" width="8.88671875" style="1"/>
-    <col min="24" max="24" width="8.88671875" style="24"/>
-    <col min="25" max="25" width="8.88671875" style="1"/>
-    <col min="26" max="26" width="24.33203125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="108.44140625" style="15" customWidth="1"/>
-    <col min="28" max="16384" width="8.88671875" style="1"/>
+    <col min="3" max="24" width="8.88671875" style="1"/>
+    <col min="25" max="25" width="8.88671875" style="24"/>
+    <col min="26" max="26" width="8.88671875" style="1"/>
+    <col min="27" max="27" width="24.33203125" style="1" customWidth="1"/>
+    <col min="28" max="28" width="108.44140625" style="15" customWidth="1"/>
+    <col min="29" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="8"/>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="30" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="Z1" s="37" t="s">
+      <c r="AA1" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="AA1" s="30" t="s">
+      <c r="AB1" s="29" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8" t="s">
@@ -1407,60 +1431,63 @@
         <v>45</v>
       </c>
       <c r="H2" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="J2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="L2" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="N2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="O2" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="P2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="Q2" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="R2" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="R2" s="13" t="s">
+      <c r="S2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="S2" s="13" t="s">
+      <c r="T2" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="T2" s="13" t="s">
+      <c r="U2" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="U2" s="13" t="s">
+      <c r="V2" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="V2" s="13" t="s">
+      <c r="W2" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="W2" s="13" t="s">
+      <c r="X2" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="30"/>
-    </row>
-    <row r="3" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="39"/>
+      <c r="AB2" s="29"/>
+    </row>
+    <row r="3" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="33" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -1490,31 +1517,34 @@
       <c r="J3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="3"/>
+      <c r="K3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="12"/>
       <c r="M3" s="3"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="4" t="s">
+      <c r="N3" s="3"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="19"/>
-      <c r="Y3" s="22"/>
-      <c r="Z3" s="26" t="s">
+      <c r="U3" s="3"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="19"/>
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="AA3" s="18" t="s">
+      <c r="AB3" s="18" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
+    <row r="4" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="34"/>
       <c r="B4" s="13" t="s">
         <v>58</v>
       </c>
@@ -1542,31 +1572,34 @@
       <c r="J4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="12"/>
-      <c r="L4" s="3"/>
+      <c r="K4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="12"/>
       <c r="M4" s="3"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="5" t="s">
+      <c r="N4" s="3"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="19"/>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA4" s="18" t="s">
+      <c r="U4" s="3"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="19"/>
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB4" s="18" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
+    <row r="5" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="34"/>
       <c r="B5" s="13" t="s">
         <v>49</v>
       </c>
@@ -1594,31 +1627,34 @@
       <c r="J5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="12"/>
-      <c r="L5" s="3"/>
+      <c r="K5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="12"/>
       <c r="M5" s="3"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="5" t="s">
+      <c r="N5" s="3"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="19"/>
-      <c r="Y5" s="19"/>
-      <c r="Z5" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="AA5" s="18" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="19"/>
+      <c r="Z5" s="22"/>
+      <c r="AA5" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB5" s="18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="34"/>
       <c r="B6" s="13" t="s">
         <v>4</v>
       </c>
@@ -1646,31 +1682,34 @@
       <c r="J6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="12"/>
-      <c r="L6" s="3"/>
+      <c r="K6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="12"/>
       <c r="M6" s="3"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="6" t="s">
+      <c r="N6" s="3"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="19"/>
-      <c r="Y6" s="19"/>
-      <c r="Z6" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA6" s="18" t="s">
+      <c r="U6" s="3"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="19"/>
+      <c r="Z6" s="19"/>
+      <c r="AA6" s="45" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
+      <c r="AB6" s="18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="34"/>
       <c r="B7" s="8" t="s">
         <v>45</v>
       </c>
@@ -1698,703 +1737,725 @@
       <c r="J7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="12"/>
-      <c r="L7" s="3"/>
+      <c r="K7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="12"/>
       <c r="M7" s="3"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="5" t="s">
+      <c r="N7" s="3"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="19"/>
-      <c r="Y7" s="19"/>
-      <c r="Z7" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA7" s="18" t="s">
+      <c r="U7" s="3"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="19"/>
+      <c r="Z7" s="19"/>
+      <c r="AA7" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB7" s="18" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
+    <row r="8" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="34"/>
       <c r="B8" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="28"/>
+      <c r="W8" s="28"/>
+      <c r="X8" s="28"/>
+      <c r="Z8" s="28"/>
+      <c r="AA8" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB8" s="18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="34"/>
+      <c r="B9" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="12"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="4" t="s">
+      <c r="K9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="19"/>
-      <c r="Y8" s="21"/>
-      <c r="Z8" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA8" s="18" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
-      <c r="B9" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="K9" s="12"/>
-      <c r="L9" s="3"/>
+      <c r="L9" s="12"/>
       <c r="M9" s="3"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="P9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="12"/>
-      <c r="W9" s="19"/>
-      <c r="Y9" s="22"/>
-      <c r="Z9" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA9" s="18" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
-      <c r="B10" s="8" t="s">
-        <v>55</v>
+      <c r="U9" s="3"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="19"/>
+      <c r="Z9" s="21"/>
+      <c r="AA9" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB9" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="34"/>
+      <c r="B10" s="13" t="s">
+        <v>7</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="K10" s="12"/>
-      <c r="L10" s="3"/>
+        <v>60</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="L10" s="12"/>
       <c r="M10" s="3"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="P10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="12"/>
-      <c r="W10" s="19"/>
-      <c r="Y10" s="22"/>
-      <c r="Z10" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA10" s="18" t="s">
+      <c r="U10" s="3"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="19"/>
+      <c r="Z10" s="22"/>
+      <c r="AA10" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB10" s="18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="34"/>
+      <c r="B11" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L11" s="12"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="19"/>
+      <c r="Z11" s="22"/>
+      <c r="AA11" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB11" s="18" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
-      <c r="B11" s="13" t="s">
+    <row r="12" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="34"/>
+      <c r="B12" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="4" t="s">
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="19"/>
-      <c r="Y11" s="22"/>
-      <c r="Z11" s="26" t="s">
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="19"/>
+      <c r="Z12" s="22"/>
+      <c r="AA12" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="AA11" s="18" t="s">
+      <c r="AB12" s="18" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
-      <c r="B12" s="8" t="s">
+    <row r="13" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="34"/>
+      <c r="B13" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="4" t="s">
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="4" t="s">
+      <c r="K13" s="3"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="12"/>
-      <c r="W12" s="19"/>
-      <c r="Y12" s="22"/>
-      <c r="Z12" s="26" t="s">
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="19"/>
+      <c r="Z13" s="22"/>
+      <c r="AA13" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="AA12" s="18" t="s">
+      <c r="AB13" s="18" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
-      <c r="B13" s="8" t="s">
+    <row r="14" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="34"/>
+      <c r="B14" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="4" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="4" t="s">
+      <c r="I14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="M13" s="4" t="s">
+      <c r="N14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="N13" s="4" t="s">
+      <c r="O14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O13" s="3"/>
-      <c r="P13" s="4" t="s">
+      <c r="P14" s="3"/>
+      <c r="Q14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Q13" s="4" t="s">
+      <c r="R14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="R13" s="4" t="s">
+      <c r="S14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="S13" s="4" t="s">
+      <c r="T14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="T13" s="4" t="s">
+      <c r="U14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="U13" s="4" t="s">
+      <c r="V14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="V13" s="12"/>
-      <c r="W13" s="4" t="s">
+      <c r="W14" s="12"/>
+      <c r="X14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Y13" s="22"/>
-      <c r="Z13" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA13" s="18" t="s">
+      <c r="Z14" s="22"/>
+      <c r="AA14" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB14" s="18" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
-      <c r="B14" s="8" t="s">
+    <row r="15" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="34"/>
+      <c r="B15" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="6" t="s">
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="M14" s="14"/>
-      <c r="N14" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="O14" s="14"/>
-      <c r="P14" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q14" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="R14" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="S14" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="T14" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="U14" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="V14" s="14"/>
-      <c r="W14" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y14" s="22"/>
-      <c r="Z14" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA14" s="18" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
-      <c r="B15" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="N15" s="14"/>
       <c r="O15" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="P15" s="6" t="s">
-        <v>29</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="P15" s="14"/>
       <c r="Q15" s="6" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="R15" s="6" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="S15" s="6" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="T15" s="6" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="U15" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="V15" s="12"/>
-      <c r="W15" s="19"/>
-      <c r="Y15" s="22"/>
-      <c r="Z15" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA15" s="18" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
-      <c r="B16" s="13" t="s">
-        <v>50</v>
+        <v>54</v>
+      </c>
+      <c r="V15" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="W15" s="14"/>
+      <c r="X15" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z15" s="22"/>
+      <c r="AA15" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB15" s="18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="34"/>
+      <c r="B16" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+      <c r="H16" s="28"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K16" s="12"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="N16" s="14"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="R16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="S16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="T16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="U16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="V16" s="12"/>
-      <c r="W16" s="19"/>
-      <c r="Y16" s="23"/>
-      <c r="Z16" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA16" s="18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="33"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O16" s="14"/>
+      <c r="P16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="R16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="S16" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="T16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="U16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="V16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="W16" s="12"/>
+      <c r="X16" s="19"/>
+      <c r="Z16" s="22"/>
+      <c r="AA16" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB16" s="18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="34"/>
       <c r="B17" s="13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="H17" s="28"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="N17" s="14"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q17" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="R17" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="S17" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="T17" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="U17" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="V17" s="12"/>
-      <c r="W17" s="19"/>
-      <c r="Y17" s="19"/>
-      <c r="Z17" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA17" s="18" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="33"/>
+      <c r="K17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L17" s="12"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O17" s="14"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="T17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="U17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="V17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="W17" s="12"/>
+      <c r="X17" s="19"/>
+      <c r="Z17" s="23"/>
+      <c r="AA17" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB17" s="18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="34"/>
       <c r="B18" s="13" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="H18" s="28"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="N18" s="14"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q18" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="R18" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="S18" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="T18" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="U18" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="V18" s="12"/>
-      <c r="W18" s="19"/>
-      <c r="Y18" s="19"/>
-      <c r="Z18" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA18" s="18" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="33"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O18" s="14"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="R18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="S18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="T18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="U18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="V18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="W18" s="12"/>
+      <c r="X18" s="19"/>
+      <c r="Z18" s="19"/>
+      <c r="AA18" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB18" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="34"/>
       <c r="B19" s="13" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+      <c r="H19" s="28"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N19" s="14"/>
-      <c r="O19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="P19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="R19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="S19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="T19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="U19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="V19" s="12"/>
-      <c r="W19" s="19"/>
-      <c r="Y19" s="19"/>
-      <c r="Z19" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA19" s="20" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="33"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O19" s="14"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="R19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="S19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="T19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="U19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="V19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="W19" s="12"/>
+      <c r="X19" s="19"/>
+      <c r="Z19" s="19"/>
+      <c r="AA19" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB19" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="34"/>
       <c r="B20" s="13" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
+      <c r="H20" s="28"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="M20" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="N20" s="14"/>
-      <c r="O20" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="P20" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q20" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="R20" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="S20" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="T20" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="U20" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="V20" s="12"/>
-      <c r="W20" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y20" s="19"/>
-      <c r="Z20" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA20" s="18" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="33"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O20" s="14"/>
+      <c r="P20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="T20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="V20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="W20" s="12"/>
+      <c r="X20" s="19"/>
+      <c r="Z20" s="19"/>
+      <c r="AA20" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB20" s="20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="34"/>
       <c r="B21" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="6" t="s">
-        <v>61</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="12"/>
       <c r="M21" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="N21" s="17"/>
-      <c r="O21" s="6" t="s">
+      <c r="N21" s="6" t="s">
         <v>61</v>
       </c>
+      <c r="O21" s="14"/>
       <c r="P21" s="6" t="s">
         <v>61</v>
       </c>
@@ -2413,211 +2474,276 @@
       <c r="U21" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="V21" s="17"/>
-      <c r="W21" s="6" t="s">
+      <c r="V21" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="Y21" s="19"/>
-      <c r="Z21" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA21" s="18" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="33"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z21" s="19"/>
+      <c r="AA21" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB21" s="18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="34"/>
       <c r="B22" s="13" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
       <c r="F22" s="17"/>
       <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
+      <c r="H22" s="28"/>
       <c r="I22" s="17"/>
       <c r="J22" s="17"/>
       <c r="K22" s="17"/>
-      <c r="L22" s="4" t="s">
+      <c r="L22" s="17"/>
+      <c r="M22" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="O22" s="17"/>
+      <c r="P22" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q22" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="R22" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="S22" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="T22" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="U22" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="V22" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="W22" s="17"/>
+      <c r="X22" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z22" s="19"/>
+      <c r="AA22" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB22" s="18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="34"/>
+      <c r="B23" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="M22" s="4" t="s">
+      <c r="N23" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N22" s="17"/>
-      <c r="O22" s="4" t="s">
+      <c r="O23" s="17"/>
+      <c r="P23" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="P22" s="4" t="s">
+      <c r="Q23" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="Q22" s="4" t="s">
+      <c r="R23" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="R22" s="4" t="s">
+      <c r="S23" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="S22" s="4" t="s">
+      <c r="T23" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="T22" s="4" t="s">
+      <c r="U23" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U22" s="4" t="s">
+      <c r="V23" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="V22" s="17"/>
-      <c r="W22" s="4" t="s">
+      <c r="W23" s="17"/>
+      <c r="X23" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="Y22" s="21"/>
-      <c r="Z22" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA22" s="18" t="s">
+      <c r="Z23" s="21"/>
+      <c r="AA23" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB23" s="18" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="33"/>
-      <c r="B23" s="13" t="s">
+    <row r="24" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="34"/>
+      <c r="B24" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="12"/>
-      <c r="U23" s="17"/>
-      <c r="V23" s="16"/>
-      <c r="W23" s="19"/>
-      <c r="Y23" s="19"/>
-      <c r="Z23" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA23" s="18" t="s">
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="17"/>
+      <c r="W24" s="16"/>
+      <c r="X24" s="19"/>
+      <c r="Z24" s="19"/>
+      <c r="AA24" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB24" s="18" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G25" s="34" t="s">
+    <row r="25" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G26" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="O25" s="34" t="s">
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="P26" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="P25" s="34"/>
-      <c r="Q25" s="34"/>
-      <c r="R25" s="34"/>
-      <c r="S25" s="34"/>
-    </row>
-    <row r="26" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G26" s="4" t="s">
+      <c r="Q26" s="35"/>
+      <c r="R26" s="35"/>
+      <c r="S26" s="35"/>
+      <c r="T26" s="35"/>
+    </row>
+    <row r="27" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G27" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="31" t="s">
+      <c r="H27" s="4"/>
+      <c r="I27" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="36" t="s">
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="31"/>
-      <c r="S26" s="31"/>
-    </row>
-    <row r="27" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G27" s="4" t="s">
+      <c r="R27" s="32"/>
+      <c r="S27" s="32"/>
+      <c r="T27" s="32"/>
+    </row>
+    <row r="28" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G28" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H27" s="35" t="s">
+      <c r="H28" s="4"/>
+      <c r="I28" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-      <c r="O27" s="23"/>
-      <c r="P27" s="36" t="s">
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="Q27" s="31"/>
-      <c r="R27" s="31"/>
-      <c r="S27" s="31"/>
-    </row>
-    <row r="28" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G28" s="5" t="s">
+      <c r="R28" s="32"/>
+      <c r="S28" s="32"/>
+      <c r="T28" s="32"/>
+    </row>
+    <row r="29" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G29" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H28" s="31" t="s">
+      <c r="H29" s="5"/>
+      <c r="I29" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="36" t="s">
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="32"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="Q28" s="31"/>
-      <c r="R28" s="31"/>
-      <c r="S28" s="31"/>
-    </row>
-    <row r="29" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G29" s="4" t="s">
+      <c r="R29" s="32"/>
+      <c r="S29" s="32"/>
+      <c r="T29" s="32"/>
+    </row>
+    <row r="30" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G30" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H29" s="31" t="s">
+      <c r="H30" s="4"/>
+      <c r="I30" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="36" t="s">
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="32"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="Q29" s="31"/>
-      <c r="R29" s="31"/>
-      <c r="S29" s="31"/>
-    </row>
-    <row r="30" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G30" s="3"/>
-      <c r="H30" s="31" t="s">
+      <c r="R30" s="32"/>
+      <c r="S30" s="32"/>
+      <c r="T30" s="32"/>
+    </row>
+    <row r="31" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G31" s="3"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="O30" s="19"/>
-      <c r="P30" s="31"/>
-      <c r="Q30" s="31"/>
-      <c r="R30" s="31"/>
-      <c r="S30" s="31"/>
-    </row>
-    <row r="31" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="32"/>
+      <c r="R31" s="32"/>
+      <c r="S31" s="32"/>
+      <c r="T31" s="32"/>
+    </row>
+    <row r="32" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2637,25 +2763,26 @@
     <row r="49" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="51" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="C1:W1"/>
+    <mergeCell ref="A3:A24"/>
+    <mergeCell ref="G26:L26"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="I29:L29"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="C1:X1"/>
+    <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="I30:L30"/>
+    <mergeCell ref="Q31:T31"/>
+    <mergeCell ref="Q27:T27"/>
+    <mergeCell ref="Q28:T28"/>
     <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="A3:A23"/>
-    <mergeCell ref="G25:K25"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="P30:S30"/>
-    <mergeCell ref="P26:S26"/>
-    <mergeCell ref="P27:S27"/>
-    <mergeCell ref="Z1:Z2"/>
-    <mergeCell ref="O25:S25"/>
-    <mergeCell ref="P28:S28"/>
-    <mergeCell ref="P29:S29"/>
+    <mergeCell ref="P26:T26"/>
+    <mergeCell ref="Q29:T29"/>
+    <mergeCell ref="Q30:T30"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2737,18 +2864,18 @@
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
       <c r="B1" s="8"/>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
     </row>
     <row r="2" spans="1:25" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
@@ -2785,7 +2912,7 @@
       </c>
     </row>
     <row r="3" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="42" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -2803,7 +2930,7 @@
       <c r="L3" s="7"/>
     </row>
     <row r="4" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="42"/>
+      <c r="A4" s="43"/>
       <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
@@ -2819,7 +2946,7 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="42"/>
+      <c r="A5" s="43"/>
       <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
@@ -2835,7 +2962,7 @@
       <c r="L5" s="7"/>
     </row>
     <row r="6" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="42"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="8" t="s">
         <v>6</v>
       </c>
@@ -2851,7 +2978,7 @@
       <c r="L6" s="7"/>
     </row>
     <row r="7" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="42"/>
+      <c r="A7" s="43"/>
       <c r="B7" s="8" t="s">
         <v>8</v>
       </c>
@@ -2867,7 +2994,7 @@
       <c r="L7" s="7"/>
     </row>
     <row r="8" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="8" t="s">
         <v>9</v>
       </c>
@@ -2882,15 +3009,15 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="U8" s="4"/>
-      <c r="V8" s="43" t="s">
+      <c r="V8" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="W8" s="31"/>
-      <c r="X8" s="31"/>
-      <c r="Y8" s="31"/>
+      <c r="W8" s="32"/>
+      <c r="X8" s="32"/>
+      <c r="Y8" s="32"/>
     </row>
     <row r="9" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="42"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="8" t="s">
         <v>35</v>
       </c>
@@ -2906,7 +3033,7 @@
       <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="42"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="8" t="s">
         <v>11</v>
       </c>
@@ -2922,7 +3049,7 @@
       <c r="L10" s="5"/>
     </row>
     <row r="11" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="8" t="s">
         <v>12</v>
       </c>
@@ -2938,7 +3065,7 @@
       <c r="L11" s="5"/>
     </row>
     <row r="12" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
+      <c r="A12" s="43"/>
       <c r="B12" s="8" t="s">
         <v>13</v>
       </c>

--- a/DesignDocuments/机制、系统、数值/主角、怪物状态转移矩阵.xlsx
+++ b/DesignDocuments/机制、系统、数值/主角、怪物状态转移矩阵.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C73A3F-9D71-483D-ACA2-BAF11C457A04}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="角色状态" sheetId="1" r:id="rId1"/>
@@ -331,10 +332,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>地面倒地起身：从地面倒地状态起身的动作；</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>完成进度</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -603,11 +600,15 @@
     <t>Dash_Ground_Short</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
+  <si>
+    <t>地面倒地起身：从地面倒地状态起身的动作；躺着 趴着</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -756,7 +757,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -794,6 +795,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -910,7 +917,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -996,6 +1003,24 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1005,21 +1030,6 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1044,7 +1054,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1067,7 +1080,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1142,6 +1155,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1177,6 +1207,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1352,67 +1399,67 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="F9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T10" sqref="T10"/>
+      <selection pane="bottomRight" activeCell="AA12" sqref="AA12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="9"/>
-    <col min="3" max="24" width="8.88671875" style="1"/>
-    <col min="25" max="25" width="8.88671875" style="24"/>
-    <col min="26" max="26" width="8.88671875" style="1"/>
-    <col min="27" max="27" width="24.33203125" style="1" customWidth="1"/>
-    <col min="28" max="28" width="108.44140625" style="15" customWidth="1"/>
-    <col min="29" max="16384" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="8.875" style="9"/>
+    <col min="3" max="24" width="8.875" style="1"/>
+    <col min="25" max="25" width="8.875" style="24"/>
+    <col min="26" max="26" width="8.875" style="1"/>
+    <col min="27" max="27" width="24.375" style="1" customWidth="1"/>
+    <col min="28" max="28" width="108.5" style="15" customWidth="1"/>
+    <col min="29" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" ht="20.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3"/>
       <c r="B1" s="8"/>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
       <c r="Y1" s="25"/>
-      <c r="Z1" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA1" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB1" s="29" t="s">
+      <c r="Z1" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA1" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB1" s="35" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8" t="s">
@@ -1431,7 +1478,7 @@
         <v>45</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I2" s="13" t="s">
         <v>56</v>
@@ -1482,12 +1529,12 @@
         <v>63</v>
       </c>
       <c r="Y2" s="25"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="39"/>
-      <c r="AB2" s="29"/>
-    </row>
-    <row r="3" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="35"/>
+    </row>
+    <row r="3" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="30" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -1537,14 +1584,14 @@
       <c r="X3" s="19"/>
       <c r="Z3" s="22"/>
       <c r="AA3" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AB3" s="18" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
+    <row r="4" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="31"/>
       <c r="B4" s="13" t="s">
         <v>58</v>
       </c>
@@ -1591,15 +1638,15 @@
       <c r="W4" s="12"/>
       <c r="X4" s="19"/>
       <c r="Z4" s="22"/>
-      <c r="AA4" s="45" t="s">
-        <v>111</v>
+      <c r="AA4" s="29" t="s">
+        <v>110</v>
       </c>
       <c r="AB4" s="18" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
+    <row r="5" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="31"/>
       <c r="B5" s="13" t="s">
         <v>49</v>
       </c>
@@ -1645,16 +1692,16 @@
       <c r="V5" s="17"/>
       <c r="W5" s="12"/>
       <c r="X5" s="19"/>
-      <c r="Z5" s="22"/>
-      <c r="AA5" s="45" t="s">
-        <v>108</v>
+      <c r="Z5" s="47"/>
+      <c r="AA5" s="29" t="s">
+        <v>107</v>
       </c>
       <c r="AB5" s="18" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="31"/>
       <c r="B6" s="13" t="s">
         <v>4</v>
       </c>
@@ -1701,15 +1748,15 @@
       <c r="W6" s="12"/>
       <c r="X6" s="19"/>
       <c r="Z6" s="19"/>
-      <c r="AA6" s="45" t="s">
-        <v>106</v>
+      <c r="AA6" s="29" t="s">
+        <v>105</v>
       </c>
       <c r="AB6" s="18" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="31"/>
       <c r="B7" s="8" t="s">
         <v>45</v>
       </c>
@@ -1756,51 +1803,51 @@
       <c r="W7" s="12"/>
       <c r="X7" s="19"/>
       <c r="Z7" s="19"/>
-      <c r="AA7" s="45" t="s">
-        <v>110</v>
+      <c r="AA7" s="29" t="s">
+        <v>109</v>
       </c>
       <c r="AB7" s="18" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
+    <row r="8" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="31"/>
       <c r="B8" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L8" s="28"/>
       <c r="M8" s="28"/>
       <c r="N8" s="28"/>
       <c r="O8" s="28"/>
       <c r="P8" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q8" s="28"/>
       <c r="R8" s="28"/>
@@ -1811,15 +1858,15 @@
       <c r="W8" s="28"/>
       <c r="X8" s="28"/>
       <c r="Z8" s="28"/>
-      <c r="AA8" s="45" t="s">
-        <v>116</v>
+      <c r="AA8" s="29" t="s">
+        <v>115</v>
       </c>
       <c r="AB8" s="18" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="31"/>
       <c r="B9" s="13" t="s">
         <v>6</v>
       </c>
@@ -1867,14 +1914,14 @@
       <c r="X9" s="19"/>
       <c r="Z9" s="21"/>
       <c r="AA9" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AB9" s="18" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
+    <row r="10" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="31"/>
       <c r="B10" s="13" t="s">
         <v>7</v>
       </c>
@@ -1921,15 +1968,15 @@
       <c r="W10" s="12"/>
       <c r="X10" s="19"/>
       <c r="Z10" s="22"/>
-      <c r="AA10" s="45" t="s">
-        <v>117</v>
+      <c r="AA10" s="29" t="s">
+        <v>116</v>
       </c>
       <c r="AB10" s="18" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="31"/>
       <c r="B11" s="8" t="s">
         <v>55</v>
       </c>
@@ -1975,16 +2022,16 @@
       <c r="V11" s="17"/>
       <c r="W11" s="12"/>
       <c r="X11" s="19"/>
-      <c r="Z11" s="22"/>
+      <c r="Z11" s="23"/>
       <c r="AA11" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AB11" s="18" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="31"/>
       <c r="B12" s="13" t="s">
         <v>40</v>
       </c>
@@ -2014,14 +2061,14 @@
       <c r="X12" s="19"/>
       <c r="Z12" s="22"/>
       <c r="AA12" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB12" s="18" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
+    <row r="13" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="31"/>
       <c r="B13" s="8" t="s">
         <v>8</v>
       </c>
@@ -2057,14 +2104,14 @@
       <c r="X13" s="19"/>
       <c r="Z13" s="22"/>
       <c r="AA13" s="26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AB13" s="18" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
+    <row r="14" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="31"/>
       <c r="B14" s="8" t="s">
         <v>9</v>
       </c>
@@ -2122,14 +2169,14 @@
       </c>
       <c r="Z14" s="22"/>
       <c r="AA14" s="27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AB14" s="18" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="31"/>
       <c r="B15" s="8" t="s">
         <v>53</v>
       </c>
@@ -2175,14 +2222,14 @@
       </c>
       <c r="Z15" s="22"/>
       <c r="AA15" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AB15" s="18" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
+    <row r="16" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="31"/>
       <c r="B16" s="8" t="s">
         <v>10</v>
       </c>
@@ -2226,14 +2273,14 @@
       <c r="X16" s="19"/>
       <c r="Z16" s="22"/>
       <c r="AA16" s="26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB16" s="18" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
+    <row r="17" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="31"/>
       <c r="B17" s="13" t="s">
         <v>50</v>
       </c>
@@ -2277,14 +2324,14 @@
       <c r="X17" s="19"/>
       <c r="Z17" s="23"/>
       <c r="AA17" s="27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AB17" s="18" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
+    <row r="18" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="31"/>
       <c r="B18" s="13" t="s">
         <v>47</v>
       </c>
@@ -2326,14 +2373,14 @@
       <c r="X18" s="19"/>
       <c r="Z18" s="19"/>
       <c r="AA18" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AB18" s="18" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="34"/>
+    <row r="19" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="31"/>
       <c r="B19" s="13" t="s">
         <v>51</v>
       </c>
@@ -2373,16 +2420,16 @@
       </c>
       <c r="W19" s="12"/>
       <c r="X19" s="19"/>
-      <c r="Z19" s="19"/>
+      <c r="Z19" s="46"/>
       <c r="AA19" s="27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AB19" s="18" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="34"/>
+    <row r="20" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="31"/>
       <c r="B20" s="13" t="s">
         <v>13</v>
       </c>
@@ -2426,16 +2473,16 @@
       </c>
       <c r="W20" s="12"/>
       <c r="X20" s="19"/>
-      <c r="Z20" s="19"/>
+      <c r="Z20" s="22"/>
       <c r="AA20" s="27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AB20" s="20" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="34"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="31"/>
       <c r="B21" s="13" t="s">
         <v>59</v>
       </c>
@@ -2481,16 +2528,16 @@
       <c r="X21" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="Z21" s="19"/>
+      <c r="Z21" s="22"/>
       <c r="AA21" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AB21" s="18" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="34"/>
+    <row r="22" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="31"/>
       <c r="B22" s="13" t="s">
         <v>64</v>
       </c>
@@ -2536,16 +2583,16 @@
       <c r="X22" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="Z22" s="19"/>
-      <c r="AA22" s="45" t="s">
-        <v>118</v>
+      <c r="Z22" s="22"/>
+      <c r="AA22" s="29" t="s">
+        <v>117</v>
       </c>
       <c r="AB22" s="18" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="34"/>
+    <row r="23" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="31"/>
       <c r="B23" s="13" t="s">
         <v>41</v>
       </c>
@@ -2593,14 +2640,14 @@
       </c>
       <c r="Z23" s="21"/>
       <c r="AA23" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AB23" s="18" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="31"/>
       <c r="B24" s="13" t="s">
         <v>77</v>
       </c>
@@ -2628,149 +2675,144 @@
       <c r="X24" s="19"/>
       <c r="Z24" s="19"/>
       <c r="AA24" s="27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AB24" s="18" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G26" s="35" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G26" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="P26" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q26" s="35"/>
-      <c r="R26" s="35"/>
-      <c r="S26" s="35"/>
-      <c r="T26" s="35"/>
-    </row>
-    <row r="27" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
+      <c r="P26" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q26" s="32"/>
+      <c r="R26" s="32"/>
+      <c r="S26" s="32"/>
+      <c r="T26" s="32"/>
+    </row>
+    <row r="27" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G27" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H27" s="4"/>
-      <c r="I27" s="32" t="s">
+      <c r="I27" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
       <c r="P27" s="19"/>
-      <c r="Q27" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="R27" s="32"/>
-      <c r="S27" s="32"/>
-      <c r="T27" s="32"/>
-    </row>
-    <row r="28" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q27" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="R27" s="33"/>
+      <c r="S27" s="33"/>
+      <c r="T27" s="33"/>
+    </row>
+    <row r="28" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G28" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H28" s="4"/>
-      <c r="I28" s="36" t="s">
+      <c r="I28" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
       <c r="P28" s="23"/>
-      <c r="Q28" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="R28" s="32"/>
-      <c r="S28" s="32"/>
-      <c r="T28" s="32"/>
-    </row>
-    <row r="29" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q28" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="R28" s="33"/>
+      <c r="S28" s="33"/>
+      <c r="T28" s="33"/>
+    </row>
+    <row r="29" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G29" s="5" t="s">
         <v>22</v>
       </c>
       <c r="H29" s="5"/>
-      <c r="I29" s="32" t="s">
+      <c r="I29" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="J29" s="32"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="32"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
       <c r="P29" s="22"/>
-      <c r="Q29" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="R29" s="32"/>
-      <c r="S29" s="32"/>
-      <c r="T29" s="32"/>
-    </row>
-    <row r="30" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q29" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="R29" s="33"/>
+      <c r="S29" s="33"/>
+      <c r="T29" s="33"/>
+    </row>
+    <row r="30" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G30" s="4" t="s">
         <v>27</v>
       </c>
       <c r="H30" s="4"/>
-      <c r="I30" s="32" t="s">
+      <c r="I30" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="J30" s="32"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="32"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
       <c r="P30" s="4"/>
-      <c r="Q30" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="R30" s="32"/>
-      <c r="S30" s="32"/>
-      <c r="T30" s="32"/>
-    </row>
-    <row r="31" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q30" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="R30" s="33"/>
+      <c r="S30" s="33"/>
+      <c r="T30" s="33"/>
+    </row>
+    <row r="31" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G31" s="3"/>
       <c r="H31" s="28"/>
-      <c r="I31" s="32" t="s">
+      <c r="I31" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="33"/>
       <c r="P31" s="19"/>
-      <c r="Q31" s="32"/>
-      <c r="R31" s="32"/>
-      <c r="S31" s="32"/>
-      <c r="T31" s="32"/>
-    </row>
-    <row r="32" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="Q31" s="33"/>
+      <c r="R31" s="33"/>
+      <c r="S31" s="33"/>
+      <c r="T31" s="33"/>
+    </row>
+    <row r="32" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" ht="45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" ht="45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" ht="45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" ht="45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" ht="45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" ht="45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" ht="45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" ht="45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" ht="45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" ht="45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" ht="45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" ht="45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" ht="45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" ht="45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" ht="45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" ht="45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="45" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A3:A24"/>
-    <mergeCell ref="G26:L26"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="I29:L29"/>
-    <mergeCell ref="I28:L28"/>
     <mergeCell ref="Z1:Z2"/>
     <mergeCell ref="C1:X1"/>
     <mergeCell ref="AB1:AB2"/>
@@ -2783,6 +2825,11 @@
     <mergeCell ref="P26:T26"/>
     <mergeCell ref="Q29:T29"/>
     <mergeCell ref="Q30:T30"/>
+    <mergeCell ref="A3:A24"/>
+    <mergeCell ref="G26:L26"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="I29:L29"/>
+    <mergeCell ref="I28:L28"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2791,16 +2838,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -2817,25 +2864,25 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="45.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="45.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="45.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="45.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" ht="45.6" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" ht="45.6" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" ht="45.6" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" ht="45.6" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2844,7 +2891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Y12"/>
   <sheetViews>
     <sheetView zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
@@ -2854,30 +2901,30 @@
       <selection pane="bottomRight" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="9"/>
-    <col min="3" max="16384" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="8.875" style="9"/>
+    <col min="3" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A1" s="7"/>
       <c r="B1" s="8"/>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-    </row>
-    <row r="2" spans="1:25" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+    </row>
+    <row r="2" spans="1:25" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8" t="s">
@@ -2911,8 +2958,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+    <row r="3" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="43" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -2929,8 +2976,8 @@
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
     </row>
-    <row r="4" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
+    <row r="4" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="44"/>
       <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
@@ -2945,8 +2992,8 @@
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
     </row>
-    <row r="5" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
+    <row r="5" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="44"/>
       <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
@@ -2961,8 +3008,8 @@
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
     </row>
-    <row r="6" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
+    <row r="6" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="44"/>
       <c r="B6" s="8" t="s">
         <v>6</v>
       </c>
@@ -2977,8 +3024,8 @@
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
     </row>
-    <row r="7" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
+    <row r="7" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="44"/>
       <c r="B7" s="8" t="s">
         <v>8</v>
       </c>
@@ -2993,8 +3040,8 @@
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
     </row>
-    <row r="8" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
+    <row r="8" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="44"/>
       <c r="B8" s="8" t="s">
         <v>9</v>
       </c>
@@ -3009,15 +3056,15 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="U8" s="4"/>
-      <c r="V8" s="44" t="s">
+      <c r="V8" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="W8" s="32"/>
-      <c r="X8" s="32"/>
-      <c r="Y8" s="32"/>
-    </row>
-    <row r="9" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="33"/>
+    </row>
+    <row r="9" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="44"/>
       <c r="B9" s="8" t="s">
         <v>35</v>
       </c>
@@ -3032,8 +3079,8 @@
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
     </row>
-    <row r="10" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
+    <row r="10" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="44"/>
       <c r="B10" s="8" t="s">
         <v>11</v>
       </c>
@@ -3048,8 +3095,8 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="43"/>
+    <row r="11" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="44"/>
       <c r="B11" s="8" t="s">
         <v>12</v>
       </c>
@@ -3064,8 +3111,8 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
+    <row r="12" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="44"/>
       <c r="B12" s="8" t="s">
         <v>13</v>
       </c>
@@ -3093,46 +3140,46 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="11"/>
+    <col min="1" max="16384" width="8.875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="45.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="45.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="45.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:1" ht="45.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:1" ht="45.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:1" ht="45.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:1" ht="45.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:1" ht="45.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:1" ht="45.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:1" ht="45.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:1" ht="45.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:1" ht="45.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:1" ht="45.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:1" ht="45.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:1" ht="45.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:1" ht="45.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="45.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="45.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="45.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="45.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:1" ht="45.6" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:1" ht="45.6" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:1" ht="45.6" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:1" ht="45.6" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:1" ht="45.6" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:1" ht="45.6" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:1" ht="45.6" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:1" ht="45.6" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:1" ht="45.6" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:1" ht="45.6" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:1" ht="45.6" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:1" ht="45.6" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:1" ht="45.6" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:1" ht="45.6" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" ht="45.6" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" ht="45.6" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" ht="45.6" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" ht="45.6" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
